--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,30 @@
     <t>['-1']</t>
   </si>
   <si>
+    <t>['43', '90+1']</t>
+  </si>
+  <si>
+    <t>['60', '76', '87']</t>
+  </si>
+  <si>
+    <t>['1', '6', '34', '81']</t>
+  </si>
+  <si>
+    <t>['6', '16', '53', '75', '78', '82']</t>
+  </si>
+  <si>
+    <t>['11', '32', '51', '86']</t>
+  </si>
+  <si>
+    <t>['19', '79']</t>
+  </si>
+  <si>
+    <t>['40', '44', '51']</t>
+  </si>
+  <si>
+    <t>['13', '90']</t>
+  </si>
+  <si>
     <t>['-1', '-1', '-1', '-1']</t>
   </si>
   <si>
@@ -886,10 +910,10 @@
     <t>['39', '89', '90+5']</t>
   </si>
   <si>
-    <t>['24', '33', '90+5']</t>
+    <t>['51', '67', '87']</t>
   </si>
   <si>
-    <t>['51', '67', '87']</t>
+    <t>['24', '33', '90+5']</t>
   </si>
   <si>
     <t>['82']</t>
@@ -911,6 +935,18 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['22', '24']</t>
+  </si>
+  <si>
+    <t>['14', '38', '59']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1603,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AT2">
         <v>1.46</v>
@@ -1707,7 +1743,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1794,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT3">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1898,7 +1934,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -2089,7 +2125,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2176,10 +2212,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2558,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT7">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2752,7 +2788,7 @@
         <v>1.75</v>
       </c>
       <c r="AT8">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2853,7 +2889,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2943,7 +2979,7 @@
         <v>1.92</v>
       </c>
       <c r="AT9">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3044,7 +3080,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3131,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT10">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3322,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT11">
         <v>0.33</v>
@@ -3513,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -3704,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT13">
         <v>1.44</v>
@@ -3808,7 +3844,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>2</v>
@@ -4089,7 +4125,7 @@
         <v>1.92</v>
       </c>
       <c r="AT15">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4190,7 +4226,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4277,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT16">
         <v>1.64</v>
@@ -4381,7 +4417,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4468,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT17">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4572,7 +4608,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4662,7 +4698,7 @@
         <v>0.82</v>
       </c>
       <c r="AT18">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4763,7 +4799,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4853,7 +4889,7 @@
         <v>1.1</v>
       </c>
       <c r="AT19">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5041,10 +5077,10 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU20">
         <v>1.1</v>
@@ -5145,7 +5181,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5336,7 +5372,7 @@
         <v>84</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -5426,7 +5462,7 @@
         <v>0.27</v>
       </c>
       <c r="AT22">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU22">
         <v>0.58</v>
@@ -5527,7 +5563,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -5996,10 +6032,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT25">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU25">
         <v>1.81</v>
@@ -6378,10 +6414,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT27">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU27">
         <v>1.33</v>
@@ -6482,7 +6518,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6572,7 +6608,7 @@
         <v>1.3</v>
       </c>
       <c r="AT28">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU28">
         <v>1.16</v>
@@ -6760,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT29">
         <v>0.33</v>
@@ -6864,7 +6900,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6951,7 +6987,7 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT30">
         <v>2.42</v>
@@ -7055,7 +7091,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7145,7 +7181,7 @@
         <v>0.83</v>
       </c>
       <c r="AT31">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>0.65</v>
@@ -7246,7 +7282,7 @@
         <v>89</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7336,7 +7372,7 @@
         <v>0.27</v>
       </c>
       <c r="AT32">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU32">
         <v>0.46</v>
@@ -7437,7 +7473,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>2</v>
@@ -7715,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT34">
         <v>1.46</v>
@@ -7906,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AT35">
         <v>1.44</v>
@@ -8100,7 +8136,7 @@
         <v>1.3</v>
       </c>
       <c r="AT36">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU36">
         <v>1.24</v>
@@ -8201,7 +8237,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8392,7 +8428,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8479,10 +8515,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT38">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU38">
         <v>2.38</v>
@@ -8670,7 +8706,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT39">
         <v>0</v>
@@ -8861,10 +8897,10 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT40">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU40">
         <v>1.75</v>
@@ -9052,10 +9088,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT41">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU41">
         <v>1.33</v>
@@ -9156,7 +9192,7 @@
         <v>109</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -9437,7 +9473,7 @@
         <v>1.92</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU43">
         <v>1.14</v>
@@ -9538,7 +9574,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9625,10 +9661,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT44">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU44">
         <v>1.54</v>
@@ -9729,7 +9765,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9819,7 +9855,7 @@
         <v>0.82</v>
       </c>
       <c r="AT45">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU45">
         <v>0.83</v>
@@ -10007,10 +10043,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AT46">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU46">
         <v>1.44</v>
@@ -10111,7 +10147,7 @@
         <v>113</v>
       </c>
       <c r="P47" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10302,7 +10338,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10389,10 +10425,10 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT48">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU48">
         <v>1.29</v>
@@ -10493,7 +10529,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -10774,7 +10810,7 @@
         <v>1.1</v>
       </c>
       <c r="AT50">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU50">
         <v>1.12</v>
@@ -10962,7 +10998,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>2.15</v>
@@ -11066,7 +11102,7 @@
         <v>116</v>
       </c>
       <c r="P52" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -11153,10 +11189,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT52">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU52">
         <v>1.02</v>
@@ -11344,7 +11380,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT53">
         <v>0</v>
@@ -11639,7 +11675,7 @@
         <v>119</v>
       </c>
       <c r="P55" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q55">
         <v>6</v>
@@ -11726,10 +11762,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT55">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU55">
         <v>1.13</v>
@@ -11917,10 +11953,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AT56">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU56">
         <v>1.58</v>
@@ -12021,7 +12057,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12111,7 +12147,7 @@
         <v>0.83</v>
       </c>
       <c r="AT57">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU57">
         <v>1.12</v>
@@ -12299,10 +12335,10 @@
         <v>3</v>
       </c>
       <c r="AS58">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT58">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU58">
         <v>1.2</v>
@@ -12403,7 +12439,7 @@
         <v>122</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>8</v>
@@ -12493,7 +12529,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU59">
         <v>1.05</v>
@@ -12594,7 +12630,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12684,7 +12720,7 @@
         <v>1.3</v>
       </c>
       <c r="AT60">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU60">
         <v>1.26</v>
@@ -12872,7 +12908,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT61">
         <v>1.46</v>
@@ -12976,7 +13012,7 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13063,7 +13099,7 @@
         <v>2.33</v>
       </c>
       <c r="AS62">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT62">
         <v>2.42</v>
@@ -13254,7 +13290,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT63">
         <v>1.8</v>
@@ -13358,7 +13394,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -13448,7 +13484,7 @@
         <v>0.27</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU64">
         <v>0.55</v>
@@ -13639,7 +13675,7 @@
         <v>1.75</v>
       </c>
       <c r="AT65">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU65">
         <v>1.4</v>
@@ -13740,7 +13776,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13827,7 +13863,7 @@
         <v>1.33</v>
       </c>
       <c r="AS66">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT66">
         <v>1.44</v>
@@ -13931,7 +13967,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14209,10 +14245,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AT68">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU68">
         <v>1.59</v>
@@ -14313,7 +14349,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14400,10 +14436,10 @@
         <v>2.33</v>
       </c>
       <c r="AS69">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT69">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU69">
         <v>2.59</v>
@@ -14504,7 +14540,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>5</v>
@@ -14591,10 +14627,10 @@
         <v>1.75</v>
       </c>
       <c r="AS70">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT70">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU70">
         <v>1.3</v>
@@ -14782,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT71">
         <v>0.33</v>
@@ -14886,7 +14922,7 @@
         <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14973,7 +15009,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT72">
         <v>0</v>
@@ -15164,10 +15200,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT73">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU73">
         <v>1.37</v>
@@ -15355,10 +15391,10 @@
         <v>1.25</v>
       </c>
       <c r="AS74">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT74">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU74">
         <v>1.53</v>
@@ -15459,7 +15495,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -15546,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT75">
         <v>2.15</v>
@@ -15928,10 +15964,10 @@
         <v>1.25</v>
       </c>
       <c r="AS77">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT77">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU77">
         <v>1.43</v>
@@ -16032,7 +16068,7 @@
         <v>124</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16122,7 +16158,7 @@
         <v>0.82</v>
       </c>
       <c r="AT78">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU78">
         <v>1.02</v>
@@ -16313,7 +16349,7 @@
         <v>1.92</v>
       </c>
       <c r="AT79">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU79">
         <v>1.33</v>
@@ -16501,10 +16537,10 @@
         <v>1.75</v>
       </c>
       <c r="AS80">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT80">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU80">
         <v>1.51</v>
@@ -16692,10 +16728,10 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU81">
         <v>2.4</v>
@@ -16796,7 +16832,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16883,10 +16919,10 @@
         <v>1.5</v>
       </c>
       <c r="AS82">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT82">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU82">
         <v>1.11</v>
@@ -16987,7 +17023,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17074,7 +17110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT83">
         <v>2.15</v>
@@ -17265,10 +17301,10 @@
         <v>0.75</v>
       </c>
       <c r="AS84">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT84">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU84">
         <v>1.36</v>
@@ -17369,7 +17405,7 @@
         <v>140</v>
       </c>
       <c r="P85" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17560,7 +17596,7 @@
         <v>141</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17751,7 +17787,7 @@
         <v>142</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -18133,7 +18169,7 @@
         <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>5</v>
@@ -18220,10 +18256,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT89">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU89">
         <v>1.2</v>
@@ -18324,7 +18360,7 @@
         <v>84</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>5</v>
@@ -18411,7 +18447,7 @@
         <v>2.5</v>
       </c>
       <c r="AS90">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT90">
         <v>2.42</v>
@@ -18605,7 +18641,7 @@
         <v>1.1</v>
       </c>
       <c r="AT91">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU91">
         <v>1.32</v>
@@ -19088,7 +19124,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19279,7 +19315,7 @@
         <v>103</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19366,10 +19402,10 @@
         <v>1.8</v>
       </c>
       <c r="AS95">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT95">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU95">
         <v>1.45</v>
@@ -19470,7 +19506,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q96">
         <v>2</v>
@@ -19852,7 +19888,7 @@
         <v>145</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19942,7 +19978,7 @@
         <v>1.75</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU98">
         <v>1.31</v>
@@ -20425,7 +20461,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20515,7 +20551,7 @@
         <v>0.27</v>
       </c>
       <c r="AT101">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU101">
         <v>0.55</v>
@@ -20616,7 +20652,7 @@
         <v>149</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q102">
         <v>2</v>
@@ -20703,7 +20739,7 @@
         <v>1.33</v>
       </c>
       <c r="AS102">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT102">
         <v>1.64</v>
@@ -20807,7 +20843,7 @@
         <v>84</v>
       </c>
       <c r="P103" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20998,7 +21034,7 @@
         <v>150</v>
       </c>
       <c r="P104" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q104">
         <v>2</v>
@@ -21085,7 +21121,7 @@
         <v>1.5</v>
       </c>
       <c r="AS104">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT104">
         <v>1.8</v>
@@ -21279,7 +21315,7 @@
         <v>1.92</v>
       </c>
       <c r="AT105">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU105">
         <v>1.28</v>
@@ -21380,7 +21416,7 @@
         <v>84</v>
       </c>
       <c r="P106" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21470,7 +21506,7 @@
         <v>0.83</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU106">
         <v>1.02</v>
@@ -21571,7 +21607,7 @@
         <v>84</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21762,7 +21798,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -22040,10 +22076,10 @@
         <v>1.4</v>
       </c>
       <c r="AS109">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT109">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22144,7 +22180,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22425,7 +22461,7 @@
         <v>1.75</v>
       </c>
       <c r="AT111">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU111">
         <v>1.43</v>
@@ -22526,7 +22562,7 @@
         <v>154</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -22613,7 +22649,7 @@
         <v>1.14</v>
       </c>
       <c r="AS112">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT112">
         <v>1.64</v>
@@ -22717,7 +22753,7 @@
         <v>84</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22995,10 +23031,10 @@
         <v>0.8</v>
       </c>
       <c r="AS114">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT114">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU114">
         <v>1.47</v>
@@ -23099,7 +23135,7 @@
         <v>121</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23290,7 +23326,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23377,7 +23413,7 @@
         <v>1.33</v>
       </c>
       <c r="AS116">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>1.46</v>
@@ -23481,7 +23517,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -23568,10 +23604,10 @@
         <v>2</v>
       </c>
       <c r="AS117">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT117">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU117">
         <v>1.21</v>
@@ -23759,7 +23795,7 @@
         <v>1.88</v>
       </c>
       <c r="AS118">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AT118">
         <v>1.8</v>
@@ -23953,7 +23989,7 @@
         <v>1.92</v>
       </c>
       <c r="AT119">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU119">
         <v>1.39</v>
@@ -24141,10 +24177,10 @@
         <v>1.17</v>
       </c>
       <c r="AS120">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT120">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU120">
         <v>1.1</v>
@@ -24245,7 +24281,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24523,10 +24559,10 @@
         <v>0.5</v>
       </c>
       <c r="AS122">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT122">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU122">
         <v>1.66</v>
@@ -24627,7 +24663,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24905,10 +24941,10 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT124">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU124">
         <v>1.17</v>
@@ -25009,7 +25045,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25096,10 +25132,10 @@
         <v>1.6</v>
       </c>
       <c r="AS125">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT125">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU125">
         <v>1.83</v>
@@ -25287,10 +25323,10 @@
         <v>1.57</v>
       </c>
       <c r="AS126">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT126">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU126">
         <v>1.4</v>
@@ -25391,7 +25427,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25478,7 +25514,7 @@
         <v>2.25</v>
       </c>
       <c r="AS127">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT127">
         <v>2.15</v>
@@ -25582,7 +25618,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25773,7 +25809,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -26242,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT131">
         <v>0</v>
@@ -26346,7 +26382,7 @@
         <v>168</v>
       </c>
       <c r="P132" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26436,7 +26472,7 @@
         <v>1.75</v>
       </c>
       <c r="AT132">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU132">
         <v>1.57</v>
@@ -26537,7 +26573,7 @@
         <v>169</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26624,10 +26660,10 @@
         <v>1</v>
       </c>
       <c r="AS133">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT133">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU133">
         <v>2.39</v>
@@ -27009,7 +27045,7 @@
         <v>0.82</v>
       </c>
       <c r="AT135">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU135">
         <v>1.02</v>
@@ -27197,7 +27233,7 @@
         <v>0.43</v>
       </c>
       <c r="AS136">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT136">
         <v>0.33</v>
@@ -27301,7 +27337,7 @@
         <v>84</v>
       </c>
       <c r="P137" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27388,7 +27424,7 @@
         <v>1.8</v>
       </c>
       <c r="AS137">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT137">
         <v>1.8</v>
@@ -27579,10 +27615,10 @@
         <v>0.88</v>
       </c>
       <c r="AS138">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT138">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU138">
         <v>1.54</v>
@@ -27773,7 +27809,7 @@
         <v>0.83</v>
       </c>
       <c r="AT139">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU139">
         <v>0.97</v>
@@ -27874,7 +27910,7 @@
         <v>174</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -27961,7 +27997,7 @@
         <v>1.25</v>
       </c>
       <c r="AS140">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT140">
         <v>1.46</v>
@@ -28152,10 +28188,10 @@
         <v>1.22</v>
       </c>
       <c r="AS141">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AT141">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU141">
         <v>1.11</v>
@@ -28447,7 +28483,7 @@
         <v>154</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>6</v>
@@ -28534,10 +28570,10 @@
         <v>1.83</v>
       </c>
       <c r="AS143">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT143">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU143">
         <v>1.6</v>
@@ -28919,7 +28955,7 @@
         <v>1.92</v>
       </c>
       <c r="AT145">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU145">
         <v>1.33</v>
@@ -29020,7 +29056,7 @@
         <v>176</v>
       </c>
       <c r="P146" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q146">
         <v>7</v>
@@ -29107,7 +29143,7 @@
         <v>0</v>
       </c>
       <c r="AS146">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT146">
         <v>0</v>
@@ -29402,7 +29438,7 @@
         <v>177</v>
       </c>
       <c r="P148" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29489,7 +29525,7 @@
         <v>2.75</v>
       </c>
       <c r="AS148">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AT148">
         <v>2.42</v>
@@ -29593,7 +29629,7 @@
         <v>134</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29680,7 +29716,7 @@
         <v>2.56</v>
       </c>
       <c r="AS149">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT149">
         <v>2.42</v>
@@ -29874,7 +29910,7 @@
         <v>1.92</v>
       </c>
       <c r="AT150">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU150">
         <v>1.28</v>
@@ -29975,7 +30011,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>10</v>
@@ -30065,7 +30101,7 @@
         <v>1.92</v>
       </c>
       <c r="AT151">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU151">
         <v>1.33</v>
@@ -30166,7 +30202,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="Q152">
         <v>5</v>
@@ -30253,10 +30289,10 @@
         <v>0.78</v>
       </c>
       <c r="AS152">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT152">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU152">
         <v>1.17</v>
@@ -30357,7 +30393,7 @@
         <v>179</v>
       </c>
       <c r="P153" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>8</v>
@@ -30444,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="AS153">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT153">
         <v>0</v>
@@ -30635,10 +30671,10 @@
         <v>1.29</v>
       </c>
       <c r="AS154">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT154">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU154">
         <v>1.27</v>
@@ -30739,7 +30775,7 @@
         <v>181</v>
       </c>
       <c r="P155" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -30826,10 +30862,10 @@
         <v>0.67</v>
       </c>
       <c r="AS155">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT155">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU155">
         <v>2.39</v>
@@ -30930,7 +30966,7 @@
         <v>182</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>3</v>
@@ -31017,7 +31053,7 @@
         <v>1.38</v>
       </c>
       <c r="AS156">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT156">
         <v>1.64</v>
@@ -31121,7 +31157,7 @@
         <v>84</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31399,10 +31435,10 @@
         <v>0.43</v>
       </c>
       <c r="AS158">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT158">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU158">
         <v>1.4</v>
@@ -31590,10 +31626,10 @@
         <v>1.83</v>
       </c>
       <c r="AS159">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT159">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU159">
         <v>1.4</v>
@@ -31781,7 +31817,7 @@
         <v>1.91</v>
       </c>
       <c r="AS160">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT160">
         <v>1.8</v>
@@ -31885,7 +31921,7 @@
         <v>98</v>
       </c>
       <c r="P161" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -31972,10 +32008,10 @@
         <v>1.71</v>
       </c>
       <c r="AS161">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT161">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU161">
         <v>1.62</v>
@@ -32076,7 +32112,7 @@
         <v>185</v>
       </c>
       <c r="P162" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32163,10 +32199,10 @@
         <v>1</v>
       </c>
       <c r="AS162">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT162">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU162">
         <v>1.14</v>
@@ -32354,10 +32390,10 @@
         <v>1</v>
       </c>
       <c r="AS163">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT163">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU163">
         <v>1.3</v>
@@ -32458,7 +32494,7 @@
         <v>84</v>
       </c>
       <c r="P164" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q164">
         <v>2</v>
@@ -32548,7 +32584,7 @@
         <v>0.27</v>
       </c>
       <c r="AT164">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU164">
         <v>0.6899999999999999</v>
@@ -32739,7 +32775,7 @@
         <v>1.92</v>
       </c>
       <c r="AT165">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU165">
         <v>1.26</v>
@@ -32927,7 +32963,7 @@
         <v>2.6</v>
       </c>
       <c r="AS166">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT166">
         <v>2.42</v>
@@ -33031,7 +33067,7 @@
         <v>188</v>
       </c>
       <c r="P167" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q167">
         <v>1</v>
@@ -33121,7 +33157,7 @@
         <v>0.83</v>
       </c>
       <c r="AT167">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU167">
         <v>1.01</v>
@@ -33222,7 +33258,7 @@
         <v>84</v>
       </c>
       <c r="P168" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33309,10 +33345,10 @@
         <v>1.36</v>
       </c>
       <c r="AS168">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT168">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU168">
         <v>1.57</v>
@@ -33500,7 +33536,7 @@
         <v>0.33</v>
       </c>
       <c r="AS169">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT169">
         <v>0.33</v>
@@ -33604,7 +33640,7 @@
         <v>116</v>
       </c>
       <c r="P170" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q170">
         <v>3</v>
@@ -33795,7 +33831,7 @@
         <v>84</v>
       </c>
       <c r="P171" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -33882,7 +33918,7 @@
         <v>1.75</v>
       </c>
       <c r="AS171">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT171">
         <v>1.8</v>
@@ -33986,7 +34022,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34073,7 +34109,7 @@
         <v>1.33</v>
       </c>
       <c r="AS172">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT172">
         <v>1.64</v>
@@ -34458,7 +34494,7 @@
         <v>0.82</v>
       </c>
       <c r="AT174">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU174">
         <v>1.05</v>
@@ -34559,7 +34595,7 @@
         <v>84</v>
       </c>
       <c r="P175" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -34750,7 +34786,7 @@
         <v>190</v>
       </c>
       <c r="P176" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="Q176">
         <v>6</v>
@@ -34837,10 +34873,10 @@
         <v>1.75</v>
       </c>
       <c r="AS176">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT176">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU176">
         <v>1.27</v>
@@ -35028,7 +35064,7 @@
         <v>1.85</v>
       </c>
       <c r="AS177">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT177">
         <v>1.8</v>
@@ -35132,7 +35168,7 @@
         <v>192</v>
       </c>
       <c r="P178" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q178">
         <v>3</v>
@@ -35219,7 +35255,7 @@
         <v>2.25</v>
       </c>
       <c r="AS178">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT178">
         <v>2.15</v>
@@ -35281,7 +35317,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>3239323</v>
+        <v>3239320</v>
       </c>
       <c r="C179" t="s">
         <v>63</v>
@@ -35296,85 +35332,85 @@
         <v>22</v>
       </c>
       <c r="G179" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H179" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I179">
         <v>0</v>
       </c>
       <c r="J179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M179">
         <v>3</v>
       </c>
       <c r="N179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O179" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="P179" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Q179">
         <v>5</v>
       </c>
       <c r="R179">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S179">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T179">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="U179">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="V179">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X179">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Y179">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="Z179">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="AA179">
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
       <c r="AB179">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AC179">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="AD179">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AE179">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="AF179">
         <v>1.05</v>
       </c>
       <c r="AG179">
-        <v>8</v>
+        <v>11.75</v>
       </c>
       <c r="AH179">
         <v>1.29</v>
@@ -35383,88 +35419,88 @@
         <v>3.3</v>
       </c>
       <c r="AJ179">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AK179">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AL179">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AM179">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AN179">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="AO179">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AP179">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AQ179">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="AR179">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AS179">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT179">
+        <v>1.46</v>
+      </c>
+      <c r="AU179">
+        <v>1.14</v>
+      </c>
+      <c r="AV179">
+        <v>1.4</v>
+      </c>
+      <c r="AW179">
+        <v>2.54</v>
+      </c>
+      <c r="AX179">
+        <v>6</v>
+      </c>
+      <c r="AY179">
+        <v>9.9</v>
+      </c>
+      <c r="AZ179">
         <v>1.2</v>
       </c>
-      <c r="AU179">
-        <v>1.1</v>
-      </c>
-      <c r="AV179">
-        <v>1.49</v>
-      </c>
-      <c r="AW179">
-        <v>2.59</v>
-      </c>
-      <c r="AX179">
-        <v>4.44</v>
-      </c>
-      <c r="AY179">
-        <v>8.5</v>
-      </c>
-      <c r="AZ179">
-        <v>1.31</v>
-      </c>
       <c r="BA179">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="BB179">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="BC179">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="BD179">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="BE179">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="BF179">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG179">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH179">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI179">
         <v>6</v>
       </c>
       <c r="BJ179">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK179">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:63">
@@ -35472,7 +35508,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>3239320</v>
+        <v>3239323</v>
       </c>
       <c r="C180" t="s">
         <v>63</v>
@@ -35487,85 +35523,85 @@
         <v>22</v>
       </c>
       <c r="G180" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H180" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M180">
         <v>3</v>
       </c>
       <c r="N180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O180" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="P180" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q180">
         <v>5</v>
       </c>
       <c r="R180">
+        <v>4</v>
+      </c>
+      <c r="S180">
+        <v>9</v>
+      </c>
+      <c r="T180">
         <v>6</v>
       </c>
-      <c r="S180">
-        <v>11</v>
-      </c>
-      <c r="T180">
-        <v>9.5</v>
-      </c>
       <c r="U180">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="W180">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X180">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Y180">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="Z180">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AA180">
-        <v>7.75</v>
+        <v>7.25</v>
       </c>
       <c r="AB180">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AC180">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="AD180">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AE180">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="AF180">
         <v>1.05</v>
       </c>
       <c r="AG180">
-        <v>11.75</v>
+        <v>8</v>
       </c>
       <c r="AH180">
         <v>1.29</v>
@@ -35574,88 +35610,88 @@
         <v>3.3</v>
       </c>
       <c r="AJ180">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="AK180">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AL180">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AM180">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AN180">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="AO180">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AP180">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="AQ180">
-        <v>0.73</v>
+        <v>0.89</v>
       </c>
       <c r="AR180">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AS180">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="AT180">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="AU180">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AV180">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AW180">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="AX180">
+        <v>4.44</v>
+      </c>
+      <c r="AY180">
+        <v>8.5</v>
+      </c>
+      <c r="AZ180">
+        <v>1.31</v>
+      </c>
+      <c r="BA180">
+        <v>1.32</v>
+      </c>
+      <c r="BB180">
+        <v>1.62</v>
+      </c>
+      <c r="BC180">
+        <v>2.1</v>
+      </c>
+      <c r="BD180">
+        <v>2.8</v>
+      </c>
+      <c r="BE180">
+        <v>4.1</v>
+      </c>
+      <c r="BF180">
+        <v>2</v>
+      </c>
+      <c r="BG180">
         <v>6</v>
       </c>
-      <c r="AY180">
-        <v>9.9</v>
-      </c>
-      <c r="AZ180">
-        <v>1.2</v>
-      </c>
-      <c r="BA180">
-        <v>1.45</v>
-      </c>
-      <c r="BB180">
-        <v>1.85</v>
-      </c>
-      <c r="BC180">
-        <v>2.45</v>
-      </c>
-      <c r="BD180">
-        <v>3.3</v>
-      </c>
-      <c r="BE180">
-        <v>5.1</v>
-      </c>
-      <c r="BF180">
-        <v>5</v>
-      </c>
-      <c r="BG180">
+      <c r="BH180">
         <v>8</v>
-      </c>
-      <c r="BH180">
-        <v>10</v>
       </c>
       <c r="BI180">
         <v>6</v>
       </c>
       <c r="BJ180">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BK180">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:63">
@@ -35795,7 +35831,7 @@
         <v>1.3</v>
       </c>
       <c r="AT181">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU181">
         <v>1.21</v>
@@ -35986,7 +36022,7 @@
         <v>1.92</v>
       </c>
       <c r="AT182">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU182">
         <v>1.46</v>
@@ -36087,7 +36123,7 @@
         <v>194</v>
       </c>
       <c r="P183" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="Q183">
         <v>2</v>
@@ -36174,7 +36210,7 @@
         <v>1.36</v>
       </c>
       <c r="AS183">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT183">
         <v>1.46</v>
@@ -36278,7 +36314,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36365,7 +36401,7 @@
         <v>1.5</v>
       </c>
       <c r="AS184">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT184">
         <v>1.64</v>
@@ -36556,10 +36592,10 @@
         <v>1.5</v>
       </c>
       <c r="AS185">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT185">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU185">
         <v>1.48</v>
@@ -36747,7 +36783,7 @@
         <v>0.4</v>
       </c>
       <c r="AS186">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AT186">
         <v>0.33</v>
@@ -36941,7 +36977,7 @@
         <v>1.1</v>
       </c>
       <c r="AT187">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU187">
         <v>1.27</v>
@@ -37233,7 +37269,7 @@
         <v>198</v>
       </c>
       <c r="P189" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q189">
         <v>6</v>
@@ -37323,7 +37359,7 @@
         <v>1.92</v>
       </c>
       <c r="AT189">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU189">
         <v>1.26</v>
@@ -37511,10 +37547,10 @@
         <v>0.86</v>
       </c>
       <c r="AS190">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT190">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU190">
         <v>2.48</v>
@@ -37615,7 +37651,7 @@
         <v>84</v>
       </c>
       <c r="P191" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q191">
         <v>-1</v>
@@ -37705,7 +37741,7 @@
         <v>0.27</v>
       </c>
       <c r="AT191">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU191">
         <v>0.73</v>
@@ -37893,10 +37929,10 @@
         <v>1.33</v>
       </c>
       <c r="AS192">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT192">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU192">
         <v>1.23</v>
@@ -37997,7 +38033,7 @@
         <v>101</v>
       </c>
       <c r="P193" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="Q193">
         <v>5</v>
@@ -38087,7 +38123,7 @@
         <v>1.92</v>
       </c>
       <c r="AT193">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU193">
         <v>1.3</v>
@@ -38188,7 +38224,7 @@
         <v>84</v>
       </c>
       <c r="P194" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q194">
         <v>4</v>
@@ -38278,7 +38314,7 @@
         <v>1.3</v>
       </c>
       <c r="AT194">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU194">
         <v>1.17</v>
@@ -38379,7 +38415,7 @@
         <v>201</v>
       </c>
       <c r="P195" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q195">
         <v>9</v>
@@ -38466,7 +38502,7 @@
         <v>0.36</v>
       </c>
       <c r="AS195">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT195">
         <v>0.33</v>
@@ -38657,7 +38693,7 @@
         <v>1.71</v>
       </c>
       <c r="AS196">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT196">
         <v>1.8</v>
@@ -38910,7 +38946,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>3239411</v>
+        <v>3239300</v>
       </c>
       <c r="C198" t="s">
         <v>63</v>
@@ -38919,180 +38955,2281 @@
         <v>64</v>
       </c>
       <c r="E198" s="2">
-        <v>44897.83333333334</v>
+        <v>44864.35416666666</v>
       </c>
       <c r="F198">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G198" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H198" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O198" t="s">
         <v>203</v>
       </c>
       <c r="P198" t="s">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c r="Q198">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R198">
         <v>3</v>
       </c>
       <c r="S198">
+        <v>8</v>
+      </c>
+      <c r="T198">
+        <v>2.05</v>
+      </c>
+      <c r="U198">
+        <v>2.38</v>
+      </c>
+      <c r="V198">
+        <v>6</v>
+      </c>
+      <c r="W198">
+        <v>1.36</v>
+      </c>
+      <c r="X198">
+        <v>3</v>
+      </c>
+      <c r="Y198">
+        <v>2.75</v>
+      </c>
+      <c r="Z198">
+        <v>1.4</v>
+      </c>
+      <c r="AA198">
+        <v>7</v>
+      </c>
+      <c r="AB198">
+        <v>1.1</v>
+      </c>
+      <c r="AC198">
+        <v>1.5</v>
+      </c>
+      <c r="AD198">
+        <v>4.2</v>
+      </c>
+      <c r="AE198">
+        <v>7</v>
+      </c>
+      <c r="AF198">
+        <v>1</v>
+      </c>
+      <c r="AG198">
+        <v>10.5</v>
+      </c>
+      <c r="AH198">
+        <v>1.21</v>
+      </c>
+      <c r="AI198">
+        <v>3.74</v>
+      </c>
+      <c r="AJ198">
+        <v>1.75</v>
+      </c>
+      <c r="AK198">
+        <v>2.05</v>
+      </c>
+      <c r="AL198">
+        <v>1.8</v>
+      </c>
+      <c r="AM198">
+        <v>1.95</v>
+      </c>
+      <c r="AN198">
+        <v>1.14</v>
+      </c>
+      <c r="AO198">
+        <v>1.22</v>
+      </c>
+      <c r="AP198">
+        <v>2.5</v>
+      </c>
+      <c r="AQ198">
+        <v>1.23</v>
+      </c>
+      <c r="AR198">
+        <v>1</v>
+      </c>
+      <c r="AS198">
+        <v>1.36</v>
+      </c>
+      <c r="AT198">
+        <v>0.9</v>
+      </c>
+      <c r="AU198">
+        <v>1.53</v>
+      </c>
+      <c r="AV198">
+        <v>1.17</v>
+      </c>
+      <c r="AW198">
+        <v>2.7</v>
+      </c>
+      <c r="AX198">
+        <v>1.26</v>
+      </c>
+      <c r="AY198">
+        <v>7</v>
+      </c>
+      <c r="AZ198">
+        <v>4.75</v>
+      </c>
+      <c r="BA198">
+        <v>1.34</v>
+      </c>
+      <c r="BB198">
+        <v>1.6</v>
+      </c>
+      <c r="BC198">
+        <v>2</v>
+      </c>
+      <c r="BD198">
+        <v>2.6</v>
+      </c>
+      <c r="BE198">
+        <v>3.6</v>
+      </c>
+      <c r="BF198">
+        <v>4</v>
+      </c>
+      <c r="BG198">
         <v>5</v>
       </c>
-      <c r="T198">
+      <c r="BH198">
+        <v>12</v>
+      </c>
+      <c r="BI198">
+        <v>3</v>
+      </c>
+      <c r="BJ198">
+        <v>16</v>
+      </c>
+      <c r="BK198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>3239299</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44864.35416666666</v>
+      </c>
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199" t="s">
+        <v>65</v>
+      </c>
+      <c r="H199" t="s">
+        <v>68</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>3</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>4</v>
+      </c>
+      <c r="O199" t="s">
+        <v>204</v>
+      </c>
+      <c r="P199" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q199">
+        <v>3</v>
+      </c>
+      <c r="R199">
+        <v>4</v>
+      </c>
+      <c r="S199">
+        <v>7</v>
+      </c>
+      <c r="T199">
+        <v>3.4</v>
+      </c>
+      <c r="U199">
+        <v>2.05</v>
+      </c>
+      <c r="V199">
+        <v>3.4</v>
+      </c>
+      <c r="W199">
+        <v>1.38</v>
+      </c>
+      <c r="X199">
+        <v>2.8</v>
+      </c>
+      <c r="Y199">
+        <v>2.76</v>
+      </c>
+      <c r="Z199">
+        <v>1.39</v>
+      </c>
+      <c r="AA199">
+        <v>6.9</v>
+      </c>
+      <c r="AB199">
+        <v>1.07</v>
+      </c>
+      <c r="AC199">
+        <v>2.7</v>
+      </c>
+      <c r="AD199">
+        <v>3.25</v>
+      </c>
+      <c r="AE199">
+        <v>2.75</v>
+      </c>
+      <c r="AF199">
+        <v>1.06</v>
+      </c>
+      <c r="AG199">
+        <v>8</v>
+      </c>
+      <c r="AH199">
+        <v>1.33</v>
+      </c>
+      <c r="AI199">
+        <v>3.25</v>
+      </c>
+      <c r="AJ199">
+        <v>2.1</v>
+      </c>
+      <c r="AK199">
+        <v>1.7</v>
+      </c>
+      <c r="AL199">
+        <v>1.8</v>
+      </c>
+      <c r="AM199">
+        <v>1.95</v>
+      </c>
+      <c r="AN199">
+        <v>1.34</v>
+      </c>
+      <c r="AO199">
+        <v>1.29</v>
+      </c>
+      <c r="AP199">
+        <v>1.7</v>
+      </c>
+      <c r="AQ199">
+        <v>2.75</v>
+      </c>
+      <c r="AR199">
+        <v>1.89</v>
+      </c>
+      <c r="AS199">
+        <v>2.8</v>
+      </c>
+      <c r="AT199">
+        <v>1.7</v>
+      </c>
+      <c r="AU199">
+        <v>1.77</v>
+      </c>
+      <c r="AV199">
+        <v>1.48</v>
+      </c>
+      <c r="AW199">
+        <v>3.25</v>
+      </c>
+      <c r="AX199">
+        <v>1.6</v>
+      </c>
+      <c r="AY199">
+        <v>5.75</v>
+      </c>
+      <c r="AZ199">
+        <v>2.75</v>
+      </c>
+      <c r="BA199">
+        <v>1.4</v>
+      </c>
+      <c r="BB199">
+        <v>1.66</v>
+      </c>
+      <c r="BC199">
+        <v>2.05</v>
+      </c>
+      <c r="BD199">
+        <v>2.85</v>
+      </c>
+      <c r="BE199">
+        <v>4</v>
+      </c>
+      <c r="BF199">
+        <v>5</v>
+      </c>
+      <c r="BG199">
+        <v>4</v>
+      </c>
+      <c r="BH199">
+        <v>7</v>
+      </c>
+      <c r="BI199">
+        <v>5</v>
+      </c>
+      <c r="BJ199">
+        <v>12</v>
+      </c>
+      <c r="BK199">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>3239330</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44868.1875</v>
+      </c>
+      <c r="F200">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
+        <v>70</v>
+      </c>
+      <c r="H200" t="s">
+        <v>77</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200" t="s">
+        <v>84</v>
+      </c>
+      <c r="P200" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q200">
+        <v>5</v>
+      </c>
+      <c r="R200">
+        <v>4</v>
+      </c>
+      <c r="S200">
+        <v>9</v>
+      </c>
+      <c r="T200">
+        <v>3.75</v>
+      </c>
+      <c r="U200">
+        <v>2.05</v>
+      </c>
+      <c r="V200">
+        <v>3.1</v>
+      </c>
+      <c r="W200">
+        <v>1.42</v>
+      </c>
+      <c r="X200">
+        <v>2.65</v>
+      </c>
+      <c r="Y200">
+        <v>2.98</v>
+      </c>
+      <c r="Z200">
+        <v>1.34</v>
+      </c>
+      <c r="AA200">
+        <v>7.6</v>
+      </c>
+      <c r="AB200">
+        <v>1.05</v>
+      </c>
+      <c r="AC200">
+        <v>2.8</v>
+      </c>
+      <c r="AD200">
+        <v>3.1</v>
+      </c>
+      <c r="AE200">
+        <v>2.4</v>
+      </c>
+      <c r="AF200">
+        <v>1.03</v>
+      </c>
+      <c r="AG200">
+        <v>8.5</v>
+      </c>
+      <c r="AH200">
+        <v>1.33</v>
+      </c>
+      <c r="AI200">
+        <v>3.1</v>
+      </c>
+      <c r="AJ200">
+        <v>2.13</v>
+      </c>
+      <c r="AK200">
+        <v>1.72</v>
+      </c>
+      <c r="AL200">
+        <v>1.88</v>
+      </c>
+      <c r="AM200">
+        <v>1.8</v>
+      </c>
+      <c r="AN200">
+        <v>1.55</v>
+      </c>
+      <c r="AO200">
+        <v>1.3</v>
+      </c>
+      <c r="AP200">
+        <v>1.4</v>
+      </c>
+      <c r="AQ200">
+        <v>1.23</v>
+      </c>
+      <c r="AR200">
+        <v>1.78</v>
+      </c>
+      <c r="AS200">
+        <v>1.21</v>
+      </c>
+      <c r="AT200">
+        <v>1.7</v>
+      </c>
+      <c r="AU200">
+        <v>1.2</v>
+      </c>
+      <c r="AV200">
+        <v>1.23</v>
+      </c>
+      <c r="AW200">
+        <v>2.43</v>
+      </c>
+      <c r="AX200">
+        <v>2.12</v>
+      </c>
+      <c r="AY200">
+        <v>6.6</v>
+      </c>
+      <c r="AZ200">
+        <v>2.1</v>
+      </c>
+      <c r="BA200">
+        <v>1.43</v>
+      </c>
+      <c r="BB200">
+        <v>1.8</v>
+      </c>
+      <c r="BC200">
+        <v>2.34</v>
+      </c>
+      <c r="BD200">
+        <v>3.2</v>
+      </c>
+      <c r="BE200">
+        <v>5.5</v>
+      </c>
+      <c r="BF200">
+        <v>4</v>
+      </c>
+      <c r="BG200">
+        <v>3</v>
+      </c>
+      <c r="BH200">
+        <v>5</v>
+      </c>
+      <c r="BI200">
+        <v>6</v>
+      </c>
+      <c r="BJ200">
+        <v>9</v>
+      </c>
+      <c r="BK200">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>3239331</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44868.27083333334</v>
+      </c>
+      <c r="F201">
+        <v>23</v>
+      </c>
+      <c r="G201" t="s">
+        <v>65</v>
+      </c>
+      <c r="H201" t="s">
+        <v>81</v>
+      </c>
+      <c r="I201">
+        <v>3</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>3</v>
+      </c>
+      <c r="L201">
+        <v>4</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>5</v>
+      </c>
+      <c r="O201" t="s">
+        <v>205</v>
+      </c>
+      <c r="P201" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q201">
+        <v>2</v>
+      </c>
+      <c r="R201">
+        <v>1</v>
+      </c>
+      <c r="S201">
+        <v>3</v>
+      </c>
+      <c r="T201">
+        <v>1.8</v>
+      </c>
+      <c r="U201">
+        <v>2.75</v>
+      </c>
+      <c r="V201">
+        <v>7</v>
+      </c>
+      <c r="W201">
+        <v>1.3</v>
+      </c>
+      <c r="X201">
+        <v>3.2</v>
+      </c>
+      <c r="Y201">
+        <v>2.35</v>
+      </c>
+      <c r="Z201">
+        <v>1.52</v>
+      </c>
+      <c r="AA201">
+        <v>5.5</v>
+      </c>
+      <c r="AB201">
+        <v>1.13</v>
+      </c>
+      <c r="AC201">
+        <v>1.56</v>
+      </c>
+      <c r="AD201">
+        <v>4.46</v>
+      </c>
+      <c r="AE201">
+        <v>5.35</v>
+      </c>
+      <c r="AF201">
+        <v>1.03</v>
+      </c>
+      <c r="AG201">
+        <v>12.5</v>
+      </c>
+      <c r="AH201">
+        <v>1.19</v>
+      </c>
+      <c r="AI201">
+        <v>4.2</v>
+      </c>
+      <c r="AJ201">
+        <v>1.6</v>
+      </c>
+      <c r="AK201">
+        <v>2.2</v>
+      </c>
+      <c r="AL201">
+        <v>1.78</v>
+      </c>
+      <c r="AM201">
+        <v>1.9</v>
+      </c>
+      <c r="AN201">
+        <v>1.08</v>
+      </c>
+      <c r="AO201">
+        <v>1.16</v>
+      </c>
+      <c r="AP201">
+        <v>3.1</v>
+      </c>
+      <c r="AQ201">
+        <v>2.78</v>
+      </c>
+      <c r="AR201">
+        <v>1.5</v>
+      </c>
+      <c r="AS201">
+        <v>2.8</v>
+      </c>
+      <c r="AT201">
+        <v>1.38</v>
+      </c>
+      <c r="AU201">
+        <v>1.72</v>
+      </c>
+      <c r="AV201">
+        <v>1.39</v>
+      </c>
+      <c r="AW201">
+        <v>3.11</v>
+      </c>
+      <c r="AX201">
+        <v>1.24</v>
+      </c>
+      <c r="AY201">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ201">
+        <v>5.6</v>
+      </c>
+      <c r="BA201">
         <v>1.44</v>
       </c>
-      <c r="U198">
+      <c r="BB201">
+        <v>1.83</v>
+      </c>
+      <c r="BC201">
+        <v>2.38</v>
+      </c>
+      <c r="BD201">
+        <v>3.2</v>
+      </c>
+      <c r="BE201">
+        <v>5</v>
+      </c>
+      <c r="BF201">
+        <v>7</v>
+      </c>
+      <c r="BG201">
+        <v>6</v>
+      </c>
+      <c r="BH201">
+        <v>4</v>
+      </c>
+      <c r="BI201">
+        <v>7</v>
+      </c>
+      <c r="BJ201">
+        <v>11</v>
+      </c>
+      <c r="BK201">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>3239325</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44868.33333333334</v>
+      </c>
+      <c r="F202">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>76</v>
+      </c>
+      <c r="H202" t="s">
+        <v>69</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+      <c r="K202">
+        <v>2</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>84</v>
+      </c>
+      <c r="P202" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q202">
+        <v>9</v>
+      </c>
+      <c r="R202">
+        <v>5</v>
+      </c>
+      <c r="S202">
+        <v>14</v>
+      </c>
+      <c r="T202">
+        <v>1.95</v>
+      </c>
+      <c r="U202">
+        <v>2.4</v>
+      </c>
+      <c r="V202">
+        <v>6.5</v>
+      </c>
+      <c r="W202">
+        <v>1.35</v>
+      </c>
+      <c r="X202">
+        <v>2.93</v>
+      </c>
+      <c r="Y202">
+        <v>2.65</v>
+      </c>
+      <c r="Z202">
+        <v>1.42</v>
+      </c>
+      <c r="AA202">
+        <v>6.45</v>
+      </c>
+      <c r="AB202">
+        <v>1.08</v>
+      </c>
+      <c r="AC202">
+        <v>1.45</v>
+      </c>
+      <c r="AD202">
+        <v>4.75</v>
+      </c>
+      <c r="AE202">
+        <v>6.5</v>
+      </c>
+      <c r="AF202">
+        <v>1.02</v>
+      </c>
+      <c r="AG202">
+        <v>11</v>
+      </c>
+      <c r="AH202">
+        <v>1.26</v>
+      </c>
+      <c r="AI202">
+        <v>3.55</v>
+      </c>
+      <c r="AJ202">
+        <v>1.67</v>
+      </c>
+      <c r="AK202">
+        <v>2.15</v>
+      </c>
+      <c r="AL202">
+        <v>1.83</v>
+      </c>
+      <c r="AM202">
+        <v>1.91</v>
+      </c>
+      <c r="AN202">
+        <v>1.13</v>
+      </c>
+      <c r="AO202">
+        <v>1.23</v>
+      </c>
+      <c r="AP202">
+        <v>2.45</v>
+      </c>
+      <c r="AQ202">
+        <v>2.22</v>
+      </c>
+      <c r="AR202">
+        <v>0.92</v>
+      </c>
+      <c r="AS202">
+        <v>2</v>
+      </c>
+      <c r="AT202">
+        <v>1.08</v>
+      </c>
+      <c r="AU202">
+        <v>1.64</v>
+      </c>
+      <c r="AV202">
+        <v>1.36</v>
+      </c>
+      <c r="AW202">
+        <v>3</v>
+      </c>
+      <c r="AX202">
+        <v>1.42</v>
+      </c>
+      <c r="AY202">
+        <v>7.6</v>
+      </c>
+      <c r="AZ202">
+        <v>3.8</v>
+      </c>
+      <c r="BA202">
+        <v>1.29</v>
+      </c>
+      <c r="BB202">
+        <v>1.53</v>
+      </c>
+      <c r="BC202">
+        <v>1.95</v>
+      </c>
+      <c r="BD202">
+        <v>2.5</v>
+      </c>
+      <c r="BE202">
+        <v>3.7</v>
+      </c>
+      <c r="BF202">
+        <v>3</v>
+      </c>
+      <c r="BG202">
+        <v>5</v>
+      </c>
+      <c r="BH202">
+        <v>13</v>
+      </c>
+      <c r="BI202">
+        <v>6</v>
+      </c>
+      <c r="BJ202">
+        <v>16</v>
+      </c>
+      <c r="BK202">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>3239332</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44868.35416666666</v>
+      </c>
+      <c r="F203">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>78</v>
+      </c>
+      <c r="H203" t="s">
+        <v>67</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>6</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>6</v>
+      </c>
+      <c r="O203" t="s">
+        <v>206</v>
+      </c>
+      <c r="P203" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q203">
+        <v>7</v>
+      </c>
+      <c r="R203">
+        <v>1</v>
+      </c>
+      <c r="S203">
+        <v>8</v>
+      </c>
+      <c r="T203">
+        <v>1.22</v>
+      </c>
+      <c r="U203">
+        <v>4.5</v>
+      </c>
+      <c r="V203">
+        <v>34</v>
+      </c>
+      <c r="W203">
+        <v>1.23</v>
+      </c>
+      <c r="X203">
+        <v>3.75</v>
+      </c>
+      <c r="Y203">
+        <v>1.98</v>
+      </c>
+      <c r="Z203">
+        <v>1.71</v>
+      </c>
+      <c r="AA203">
+        <v>4.1</v>
+      </c>
+      <c r="AB203">
+        <v>1.2</v>
+      </c>
+      <c r="AC203">
+        <v>1.03</v>
+      </c>
+      <c r="AD203">
+        <v>19</v>
+      </c>
+      <c r="AE203">
+        <v>41</v>
+      </c>
+      <c r="AF203">
+        <v>1.01</v>
+      </c>
+      <c r="AG203">
+        <v>31</v>
+      </c>
+      <c r="AH203">
+        <v>1.11</v>
+      </c>
+      <c r="AI203">
+        <v>6.75</v>
+      </c>
+      <c r="AJ203">
+        <v>1.22</v>
+      </c>
+      <c r="AK203">
+        <v>4.2</v>
+      </c>
+      <c r="AL203">
+        <v>4.5</v>
+      </c>
+      <c r="AM203">
+        <v>1.17</v>
+      </c>
+      <c r="AN203">
+        <v>1</v>
+      </c>
+      <c r="AO203">
+        <v>1.04</v>
+      </c>
+      <c r="AP203">
+        <v>8.5</v>
+      </c>
+      <c r="AQ203">
+        <v>1.14</v>
+      </c>
+      <c r="AR203">
+        <v>0</v>
+      </c>
+      <c r="AS203">
+        <v>1.38</v>
+      </c>
+      <c r="AT203">
+        <v>0</v>
+      </c>
+      <c r="AU203">
+        <v>1.36</v>
+      </c>
+      <c r="AV203">
+        <v>0.71</v>
+      </c>
+      <c r="AW203">
+        <v>2.07</v>
+      </c>
+      <c r="AX203">
+        <v>1.03</v>
+      </c>
+      <c r="AY203">
+        <v>19</v>
+      </c>
+      <c r="AZ203">
+        <v>13.5</v>
+      </c>
+      <c r="BA203">
+        <v>1.32</v>
+      </c>
+      <c r="BB203">
+        <v>1.56</v>
+      </c>
+      <c r="BC203">
+        <v>1.94</v>
+      </c>
+      <c r="BD203">
+        <v>2.5</v>
+      </c>
+      <c r="BE203">
+        <v>3.4</v>
+      </c>
+      <c r="BF203">
+        <v>11</v>
+      </c>
+      <c r="BG203">
+        <v>0</v>
+      </c>
+      <c r="BH203">
+        <v>14</v>
+      </c>
+      <c r="BI203">
+        <v>5</v>
+      </c>
+      <c r="BJ203">
+        <v>25</v>
+      </c>
+      <c r="BK203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>3239324</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44868.35416666666</v>
+      </c>
+      <c r="F204">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>74</v>
+      </c>
+      <c r="H204" t="s">
+        <v>82</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>3</v>
+      </c>
+      <c r="L204">
+        <v>4</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>5</v>
+      </c>
+      <c r="O204" t="s">
+        <v>207</v>
+      </c>
+      <c r="P204" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q204">
+        <v>7</v>
+      </c>
+      <c r="R204">
+        <v>1</v>
+      </c>
+      <c r="S204">
+        <v>8</v>
+      </c>
+      <c r="T204">
+        <v>1.25</v>
+      </c>
+      <c r="U204">
+        <v>4</v>
+      </c>
+      <c r="V204">
+        <v>23</v>
+      </c>
+      <c r="W204">
+        <v>1.23</v>
+      </c>
+      <c r="X204">
+        <v>3.75</v>
+      </c>
+      <c r="Y204">
+        <v>2</v>
+      </c>
+      <c r="Z204">
+        <v>1.7</v>
+      </c>
+      <c r="AA204">
+        <v>4.2</v>
+      </c>
+      <c r="AB204">
+        <v>1.19</v>
+      </c>
+      <c r="AC204">
+        <v>1.05</v>
+      </c>
+      <c r="AD204">
+        <v>15</v>
+      </c>
+      <c r="AE204">
+        <v>34</v>
+      </c>
+      <c r="AF204">
+        <v>1.02</v>
+      </c>
+      <c r="AG204">
+        <v>16</v>
+      </c>
+      <c r="AH204">
+        <v>1.14</v>
+      </c>
+      <c r="AI204">
+        <v>5.25</v>
+      </c>
+      <c r="AJ204">
+        <v>1.29</v>
+      </c>
+      <c r="AK204">
+        <v>3.6</v>
+      </c>
+      <c r="AL204">
+        <v>2.85</v>
+      </c>
+      <c r="AM204">
+        <v>1.37</v>
+      </c>
+      <c r="AN204">
+        <v>1.02</v>
+      </c>
+      <c r="AO204">
+        <v>1.09</v>
+      </c>
+      <c r="AP204">
+        <v>5.25</v>
+      </c>
+      <c r="AQ204">
+        <v>2.4</v>
+      </c>
+      <c r="AR204">
+        <v>0.73</v>
+      </c>
+      <c r="AS204">
+        <v>2.45</v>
+      </c>
+      <c r="AT204">
+        <v>0.67</v>
+      </c>
+      <c r="AU204">
+        <v>2.32</v>
+      </c>
+      <c r="AV204">
+        <v>0.8</v>
+      </c>
+      <c r="AW204">
+        <v>3.12</v>
+      </c>
+      <c r="AX204">
+        <v>1.09</v>
+      </c>
+      <c r="AY204">
+        <v>14</v>
+      </c>
+      <c r="AZ204">
+        <v>9.1</v>
+      </c>
+      <c r="BA204">
+        <v>1.29</v>
+      </c>
+      <c r="BB204">
+        <v>1.53</v>
+      </c>
+      <c r="BC204">
+        <v>2.25</v>
+      </c>
+      <c r="BD204">
+        <v>2.5</v>
+      </c>
+      <c r="BE204">
+        <v>3.5</v>
+      </c>
+      <c r="BF204">
+        <v>12</v>
+      </c>
+      <c r="BG204">
+        <v>2</v>
+      </c>
+      <c r="BH204">
+        <v>14</v>
+      </c>
+      <c r="BI204">
+        <v>1</v>
+      </c>
+      <c r="BJ204">
+        <v>26</v>
+      </c>
+      <c r="BK204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>3239326</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44869.27083333334</v>
+      </c>
+      <c r="F205">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>68</v>
+      </c>
+      <c r="H205" t="s">
+        <v>79</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>2</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>3</v>
+      </c>
+      <c r="O205" t="s">
+        <v>208</v>
+      </c>
+      <c r="P205" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q205">
+        <v>3</v>
+      </c>
+      <c r="R205">
+        <v>3</v>
+      </c>
+      <c r="S205">
+        <v>6</v>
+      </c>
+      <c r="T205">
+        <v>1.57</v>
+      </c>
+      <c r="U205">
+        <v>2.88</v>
+      </c>
+      <c r="V205">
+        <v>11</v>
+      </c>
+      <c r="W205">
+        <v>1.29</v>
+      </c>
+      <c r="X205">
+        <v>3.5</v>
+      </c>
+      <c r="Y205">
+        <v>2.38</v>
+      </c>
+      <c r="Z205">
+        <v>1.53</v>
+      </c>
+      <c r="AA205">
+        <v>5.5</v>
+      </c>
+      <c r="AB205">
+        <v>1.14</v>
+      </c>
+      <c r="AC205">
+        <v>1.21</v>
+      </c>
+      <c r="AD205">
+        <v>5.8</v>
+      </c>
+      <c r="AE205">
+        <v>7</v>
+      </c>
+      <c r="AF205">
+        <v>1.03</v>
+      </c>
+      <c r="AG205">
+        <v>13</v>
+      </c>
+      <c r="AH205">
+        <v>1.17</v>
+      </c>
+      <c r="AI205">
+        <v>4.25</v>
+      </c>
+      <c r="AJ205">
+        <v>1.76</v>
+      </c>
+      <c r="AK205">
+        <v>2.07</v>
+      </c>
+      <c r="AL205">
+        <v>2.2</v>
+      </c>
+      <c r="AM205">
+        <v>1.62</v>
+      </c>
+      <c r="AN205">
+        <v>1.03</v>
+      </c>
+      <c r="AO205">
+        <v>1.13</v>
+      </c>
+      <c r="AP205">
+        <v>3.64</v>
+      </c>
+      <c r="AQ205">
+        <v>1.92</v>
+      </c>
+      <c r="AR205">
+        <v>0.75</v>
+      </c>
+      <c r="AS205">
+        <v>2</v>
+      </c>
+      <c r="AT205">
+        <v>0.67</v>
+      </c>
+      <c r="AU205">
+        <v>1.59</v>
+      </c>
+      <c r="AV205">
+        <v>1.48</v>
+      </c>
+      <c r="AW205">
+        <v>3.07</v>
+      </c>
+      <c r="AX205">
+        <v>1.21</v>
+      </c>
+      <c r="AY205">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ205">
+        <v>5.65</v>
+      </c>
+      <c r="BA205">
+        <v>1.3</v>
+      </c>
+      <c r="BB205">
+        <v>1.56</v>
+      </c>
+      <c r="BC205">
+        <v>1.95</v>
+      </c>
+      <c r="BD205">
+        <v>2.54</v>
+      </c>
+      <c r="BE205">
+        <v>3.48</v>
+      </c>
+      <c r="BF205">
+        <v>6</v>
+      </c>
+      <c r="BG205">
+        <v>3</v>
+      </c>
+      <c r="BH205">
+        <v>3</v>
+      </c>
+      <c r="BI205">
+        <v>10</v>
+      </c>
+      <c r="BJ205">
+        <v>9</v>
+      </c>
+      <c r="BK205">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>3239327</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44869.33333333334</v>
+      </c>
+      <c r="F206">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>66</v>
+      </c>
+      <c r="H206" t="s">
+        <v>80</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206">
+        <v>2</v>
+      </c>
+      <c r="K206">
+        <v>4</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
+      <c r="M206">
+        <v>3</v>
+      </c>
+      <c r="N206">
+        <v>6</v>
+      </c>
+      <c r="O206" t="s">
+        <v>209</v>
+      </c>
+      <c r="P206" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q206">
+        <v>2</v>
+      </c>
+      <c r="R206">
+        <v>13</v>
+      </c>
+      <c r="S206">
+        <v>15</v>
+      </c>
+      <c r="T206">
+        <v>9</v>
+      </c>
+      <c r="U206">
+        <v>2.63</v>
+      </c>
+      <c r="V206">
+        <v>1.67</v>
+      </c>
+      <c r="W206">
+        <v>1.4</v>
+      </c>
+      <c r="X206">
+        <v>2.75</v>
+      </c>
+      <c r="Y206">
+        <v>2.75</v>
+      </c>
+      <c r="Z206">
+        <v>1.4</v>
+      </c>
+      <c r="AA206">
+        <v>8</v>
+      </c>
+      <c r="AB206">
+        <v>1.08</v>
+      </c>
+      <c r="AC206">
+        <v>11</v>
+      </c>
+      <c r="AD206">
+        <v>6</v>
+      </c>
+      <c r="AE206">
+        <v>1.25</v>
+      </c>
+      <c r="AF206">
+        <v>1.02</v>
+      </c>
+      <c r="AG206">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH206">
+        <v>1.27</v>
+      </c>
+      <c r="AI206">
+        <v>3.28</v>
+      </c>
+      <c r="AJ206">
+        <v>1.57</v>
+      </c>
+      <c r="AK206">
+        <v>2.35</v>
+      </c>
+      <c r="AL206">
+        <v>2.05</v>
+      </c>
+      <c r="AM206">
+        <v>1.7</v>
+      </c>
+      <c r="AN206">
+        <v>2.4</v>
+      </c>
+      <c r="AO206">
+        <v>1.22</v>
+      </c>
+      <c r="AP206">
+        <v>1.11</v>
+      </c>
+      <c r="AQ206">
+        <v>0.8</v>
+      </c>
+      <c r="AR206">
+        <v>1.45</v>
+      </c>
+      <c r="AS206">
+        <v>0.82</v>
+      </c>
+      <c r="AT206">
+        <v>1.42</v>
+      </c>
+      <c r="AU206">
+        <v>1.11</v>
+      </c>
+      <c r="AV206">
+        <v>1.15</v>
+      </c>
+      <c r="AW206">
+        <v>2.26</v>
+      </c>
+      <c r="AX206">
+        <v>4.1</v>
+      </c>
+      <c r="AY206">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ206">
+        <v>1.35</v>
+      </c>
+      <c r="BA206">
+        <v>1.3</v>
+      </c>
+      <c r="BB206">
+        <v>1.56</v>
+      </c>
+      <c r="BC206">
+        <v>1.96</v>
+      </c>
+      <c r="BD206">
+        <v>2.54</v>
+      </c>
+      <c r="BE206">
+        <v>3.48</v>
+      </c>
+      <c r="BF206">
+        <v>6</v>
+      </c>
+      <c r="BG206">
+        <v>8</v>
+      </c>
+      <c r="BH206">
+        <v>4</v>
+      </c>
+      <c r="BI206">
+        <v>16</v>
+      </c>
+      <c r="BJ206">
+        <v>10</v>
+      </c>
+      <c r="BK206">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>3239329</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44869.35416666666</v>
+      </c>
+      <c r="F207">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>73</v>
+      </c>
+      <c r="H207" t="s">
+        <v>72</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207" t="s">
+        <v>210</v>
+      </c>
+      <c r="P207" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q207">
+        <v>2</v>
+      </c>
+      <c r="R207">
+        <v>7</v>
+      </c>
+      <c r="S207">
+        <v>9</v>
+      </c>
+      <c r="T207">
+        <v>3.25</v>
+      </c>
+      <c r="U207">
+        <v>2.1</v>
+      </c>
+      <c r="V207">
+        <v>3.4</v>
+      </c>
+      <c r="W207">
+        <v>1.4</v>
+      </c>
+      <c r="X207">
+        <v>2.75</v>
+      </c>
+      <c r="Y207">
+        <v>2.75</v>
+      </c>
+      <c r="Z207">
+        <v>1.4</v>
+      </c>
+      <c r="AA207">
+        <v>8</v>
+      </c>
+      <c r="AB207">
+        <v>1.08</v>
+      </c>
+      <c r="AC207">
+        <v>2.55</v>
+      </c>
+      <c r="AD207">
+        <v>3.4</v>
+      </c>
+      <c r="AE207">
+        <v>2.75</v>
+      </c>
+      <c r="AF207">
+        <v>1.02</v>
+      </c>
+      <c r="AG207">
+        <v>9</v>
+      </c>
+      <c r="AH207">
+        <v>1.27</v>
+      </c>
+      <c r="AI207">
+        <v>3.28</v>
+      </c>
+      <c r="AJ207">
+        <v>2.1</v>
+      </c>
+      <c r="AK207">
+        <v>1.7</v>
+      </c>
+      <c r="AL207">
+        <v>1.8</v>
+      </c>
+      <c r="AM207">
+        <v>1.95</v>
+      </c>
+      <c r="AN207">
+        <v>1.4</v>
+      </c>
+      <c r="AO207">
+        <v>1.3</v>
+      </c>
+      <c r="AP207">
+        <v>1.55</v>
+      </c>
+      <c r="AQ207">
+        <v>1.73</v>
+      </c>
+      <c r="AR207">
+        <v>1.67</v>
+      </c>
+      <c r="AS207">
+        <v>1.83</v>
+      </c>
+      <c r="AT207">
+        <v>1.5</v>
+      </c>
+      <c r="AU207">
+        <v>1.86</v>
+      </c>
+      <c r="AV207">
+        <v>1.46</v>
+      </c>
+      <c r="AW207">
+        <v>3.32</v>
+      </c>
+      <c r="AX207">
+        <v>1.8</v>
+      </c>
+      <c r="AY207">
+        <v>7.9</v>
+      </c>
+      <c r="AZ207">
+        <v>2.4</v>
+      </c>
+      <c r="BA207">
+        <v>1.29</v>
+      </c>
+      <c r="BB207">
+        <v>1.52</v>
+      </c>
+      <c r="BC207">
+        <v>1.87</v>
+      </c>
+      <c r="BD207">
+        <v>2.4</v>
+      </c>
+      <c r="BE207">
+        <v>3.2</v>
+      </c>
+      <c r="BF207">
+        <v>7</v>
+      </c>
+      <c r="BG207">
+        <v>5</v>
+      </c>
+      <c r="BH207">
+        <v>10</v>
+      </c>
+      <c r="BI207">
+        <v>15</v>
+      </c>
+      <c r="BJ207">
+        <v>17</v>
+      </c>
+      <c r="BK207">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>3239328</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44869.35416666666</v>
+      </c>
+      <c r="F208">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s">
+        <v>75</v>
+      </c>
+      <c r="H208" t="s">
+        <v>71</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208" t="s">
+        <v>84</v>
+      </c>
+      <c r="P208" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>1</v>
+      </c>
+      <c r="S208">
+        <v>1</v>
+      </c>
+      <c r="T208">
+        <v>5.5</v>
+      </c>
+      <c r="U208">
+        <v>2.38</v>
+      </c>
+      <c r="V208">
+        <v>2.05</v>
+      </c>
+      <c r="W208">
+        <v>1.3</v>
+      </c>
+      <c r="X208">
+        <v>3.4</v>
+      </c>
+      <c r="Y208">
+        <v>2.5</v>
+      </c>
+      <c r="Z208">
+        <v>1.5</v>
+      </c>
+      <c r="AA208">
+        <v>6</v>
+      </c>
+      <c r="AB208">
+        <v>1.13</v>
+      </c>
+      <c r="AC208">
+        <v>6</v>
+      </c>
+      <c r="AD208">
+        <v>4.33</v>
+      </c>
+      <c r="AE208">
+        <v>1.53</v>
+      </c>
+      <c r="AF208">
+        <v>1.03</v>
+      </c>
+      <c r="AG208">
+        <v>12.5</v>
+      </c>
+      <c r="AH208">
+        <v>1.18</v>
+      </c>
+      <c r="AI208">
+        <v>4.15</v>
+      </c>
+      <c r="AJ208">
+        <v>1.67</v>
+      </c>
+      <c r="AK208">
+        <v>2.15</v>
+      </c>
+      <c r="AL208">
+        <v>1.8</v>
+      </c>
+      <c r="AM208">
+        <v>1.95</v>
+      </c>
+      <c r="AN208">
+        <v>2.67</v>
+      </c>
+      <c r="AO208">
+        <v>1.18</v>
+      </c>
+      <c r="AP208">
+        <v>1.1</v>
+      </c>
+      <c r="AQ208">
+        <v>0.67</v>
+      </c>
+      <c r="AR208">
+        <v>1.2</v>
+      </c>
+      <c r="AS208">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT208">
+        <v>1.18</v>
+      </c>
+      <c r="AU208">
+        <v>1.18</v>
+      </c>
+      <c r="AV208">
+        <v>1.47</v>
+      </c>
+      <c r="AW208">
+        <v>2.65</v>
+      </c>
+      <c r="AX208">
+        <v>4.38</v>
+      </c>
+      <c r="AY208">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ208">
+        <v>1.32</v>
+      </c>
+      <c r="BA208">
+        <v>1.38</v>
+      </c>
+      <c r="BB208">
+        <v>1.65</v>
+      </c>
+      <c r="BC208">
+        <v>2.08</v>
+      </c>
+      <c r="BD208">
+        <v>2.75</v>
+      </c>
+      <c r="BE208">
+        <v>3.8</v>
+      </c>
+      <c r="BF208">
+        <v>0</v>
+      </c>
+      <c r="BG208">
+        <v>3</v>
+      </c>
+      <c r="BH208">
+        <v>9</v>
+      </c>
+      <c r="BI208">
+        <v>15</v>
+      </c>
+      <c r="BJ208">
+        <v>9</v>
+      </c>
+      <c r="BK208">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>3239411</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44897.83333333334</v>
+      </c>
+      <c r="F209">
+        <v>32</v>
+      </c>
+      <c r="G209" t="s">
+        <v>82</v>
+      </c>
+      <c r="H209" t="s">
+        <v>67</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>4</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>211</v>
+      </c>
+      <c r="P209" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q209">
+        <v>2</v>
+      </c>
+      <c r="R209">
+        <v>3</v>
+      </c>
+      <c r="S209">
+        <v>5</v>
+      </c>
+      <c r="T209">
+        <v>1.44</v>
+      </c>
+      <c r="U209">
         <v>3.1</v>
       </c>
-      <c r="V198">
+      <c r="V209">
         <v>17</v>
       </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-      <c r="X198">
-        <v>0</v>
-      </c>
-      <c r="Y198">
-        <v>0</v>
-      </c>
-      <c r="Z198">
-        <v>0</v>
-      </c>
-      <c r="AA198">
-        <v>0</v>
-      </c>
-      <c r="AB198">
-        <v>0</v>
-      </c>
-      <c r="AC198">
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+      <c r="AB209">
+        <v>0</v>
+      </c>
+      <c r="AC209">
         <v>1.11</v>
       </c>
-      <c r="AD198">
+      <c r="AD209">
         <v>8.5</v>
       </c>
-      <c r="AE198">
+      <c r="AE209">
         <v>26</v>
       </c>
-      <c r="AF198">
-        <v>0</v>
-      </c>
-      <c r="AG198">
-        <v>0</v>
-      </c>
-      <c r="AH198">
-        <v>0</v>
-      </c>
-      <c r="AI198">
-        <v>0</v>
-      </c>
-      <c r="AJ198">
+      <c r="AF209">
+        <v>0</v>
+      </c>
+      <c r="AG209">
+        <v>0</v>
+      </c>
+      <c r="AH209">
+        <v>0</v>
+      </c>
+      <c r="AI209">
+        <v>0</v>
+      </c>
+      <c r="AJ209">
         <v>1.48</v>
       </c>
-      <c r="AK198">
+      <c r="AK209">
         <v>2.6</v>
       </c>
-      <c r="AL198">
+      <c r="AL209">
         <v>2.63</v>
       </c>
-      <c r="AM198">
+      <c r="AM209">
         <v>1.44</v>
       </c>
-      <c r="AN198">
-        <v>0</v>
-      </c>
-      <c r="AO198">
-        <v>0</v>
-      </c>
-      <c r="AP198">
-        <v>0</v>
-      </c>
-      <c r="AQ198">
+      <c r="AN209">
+        <v>0</v>
+      </c>
+      <c r="AO209">
+        <v>0</v>
+      </c>
+      <c r="AP209">
+        <v>0</v>
+      </c>
+      <c r="AQ209">
         <v>0.64</v>
       </c>
-      <c r="AR198">
-        <v>0</v>
-      </c>
-      <c r="AS198">
+      <c r="AR209">
+        <v>0</v>
+      </c>
+      <c r="AS209">
         <v>0.83</v>
       </c>
-      <c r="AT198">
-        <v>0</v>
-      </c>
-      <c r="AU198">
+      <c r="AT209">
+        <v>0</v>
+      </c>
+      <c r="AU209">
         <v>1.05</v>
       </c>
-      <c r="AV198">
-        <v>0.71</v>
-      </c>
-      <c r="AW198">
-        <v>1.76</v>
-      </c>
-      <c r="AX198">
-        <v>0</v>
-      </c>
-      <c r="AY198">
-        <v>0</v>
-      </c>
-      <c r="AZ198">
-        <v>0</v>
-      </c>
-      <c r="BA198">
-        <v>0</v>
-      </c>
-      <c r="BB198">
-        <v>0</v>
-      </c>
-      <c r="BC198">
-        <v>0</v>
-      </c>
-      <c r="BD198">
-        <v>0</v>
-      </c>
-      <c r="BE198">
-        <v>0</v>
-      </c>
-      <c r="BF198">
+      <c r="AV209">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AW209">
+        <v>1.74</v>
+      </c>
+      <c r="AX209">
+        <v>0</v>
+      </c>
+      <c r="AY209">
+        <v>0</v>
+      </c>
+      <c r="AZ209">
+        <v>0</v>
+      </c>
+      <c r="BA209">
+        <v>0</v>
+      </c>
+      <c r="BB209">
+        <v>0</v>
+      </c>
+      <c r="BC209">
+        <v>0</v>
+      </c>
+      <c r="BD209">
+        <v>0</v>
+      </c>
+      <c r="BE209">
+        <v>0</v>
+      </c>
+      <c r="BF209">
         <v>11</v>
       </c>
-      <c r="BG198">
-        <v>2</v>
-      </c>
-      <c r="BH198">
+      <c r="BG209">
+        <v>2</v>
+      </c>
+      <c r="BH209">
         <v>10</v>
       </c>
-      <c r="BI198">
+      <c r="BI209">
         <v>6</v>
       </c>
-      <c r="BJ198">
+      <c r="BJ209">
         <v>21</v>
       </c>
-      <c r="BK198">
+      <c r="BK209">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK235"/>
+  <dimension ref="A1:BK257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT6" t="n">
         <v>1.8</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT8" t="n">
         <v>1.5</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT19" t="n">
         <v>1.08</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU20" t="n">
         <v>1.1</v>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU21" t="n">
         <v>1.43</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU22" t="n">
         <v>0.58</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT23" t="n">
         <v>2</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
       <c r="AU24" t="n">
         <v>1.81</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT25" t="n">
         <v>1.8</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU28" t="n">
         <v>1.16</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU29" t="n">
         <v>0.9399999999999999</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU30" t="n">
         <v>0.65</v>
@@ -6787,10 +6787,10 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU31" t="n">
         <v>1.27</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU32" t="n">
         <v>0.46</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT33" t="n">
         <v>1.8</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU34" t="n">
         <v>1.16</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.11</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.24</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU37" t="n">
         <v>1.15</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU38" t="n">
         <v>2.38</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU40" t="n">
         <v>1.75</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU41" t="n">
         <v>1.33</v>
@@ -9020,10 +9020,10 @@
         <v>0.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU42" t="n">
         <v>0.62</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT44" t="n">
         <v>1.08</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT45" t="n">
         <v>1.5</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
       <c r="AU46" t="n">
         <v>1.44</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>0.98</v>
@@ -10238,10 +10238,10 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU48" t="n">
         <v>1.29</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU49" t="n">
         <v>0.96</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU50" t="n">
         <v>1.02</v>
@@ -10847,10 +10847,10 @@
         <v>1.67</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU51" t="n">
         <v>1.12</v>
@@ -11050,7 +11050,7 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT52" t="n">
         <v>2</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT53" t="n">
         <v>0</v>
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU54" t="n">
         <v>1.48</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="AT55" t="n">
         <v>1.08</v>
@@ -11862,10 +11862,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU56" t="n">
         <v>1.58</v>
@@ -12065,10 +12065,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
       <c r="AU57" t="n">
         <v>1.12</v>
@@ -12268,10 +12268,10 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU58" t="n">
         <v>1.2</v>
@@ -12471,10 +12471,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU59" t="n">
         <v>1.05</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT60" t="n">
         <v>1.5</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU61" t="n">
         <v>1.24</v>
@@ -13080,10 +13080,10 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU62" t="n">
         <v>1.18</v>
@@ -13283,7 +13283,7 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT63" t="n">
         <v>1.8</v>
@@ -13486,10 +13486,10 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU64" t="n">
         <v>0.55</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT65" t="n">
         <v>1.08</v>
@@ -13892,10 +13892,10 @@
         <v>1.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU66" t="n">
         <v>1.21</v>
@@ -14095,10 +14095,10 @@
         <v>1.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.31</v>
@@ -14298,10 +14298,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU68" t="n">
         <v>1.59</v>
@@ -14501,10 +14501,10 @@
         <v>2.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU69" t="n">
         <v>2.59</v>
@@ -14704,10 +14704,10 @@
         <v>1.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU70" t="n">
         <v>1.3</v>
@@ -14907,10 +14907,10 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU71" t="n">
         <v>1.11</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT72" t="n">
         <v>0</v>
@@ -15313,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.37</v>
@@ -15516,10 +15516,10 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
       <c r="AU74" t="n">
         <v>1.53</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT75" t="n">
         <v>2</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT76" t="n">
         <v>0</v>
@@ -16125,10 +16125,10 @@
         <v>1.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU77" t="n">
         <v>1.43</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT78" t="n">
         <v>1.08</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU79" t="n">
         <v>1.33</v>
@@ -16734,7 +16734,7 @@
         <v>1.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -16937,10 +16937,10 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU81" t="n">
         <v>2.4</v>
@@ -17140,10 +17140,10 @@
         <v>1.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU82" t="n">
         <v>1.11</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT83" t="n">
         <v>2</v>
@@ -17546,10 +17546,10 @@
         <v>0.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU84" t="n">
         <v>1.36</v>
@@ -17749,7 +17749,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT85" t="n">
         <v>1.8</v>
@@ -17952,10 +17952,10 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU86" t="n">
         <v>1.3</v>
@@ -18158,7 +18158,7 @@
         <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.15</v>
@@ -18358,10 +18358,10 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU88" t="n">
         <v>0.55</v>
@@ -18561,10 +18561,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU89" t="n">
         <v>1.2</v>
@@ -18764,10 +18764,10 @@
         <v>2.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -18967,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU91" t="n">
         <v>1.32</v>
@@ -19170,10 +19170,10 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.59</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AT93" t="n">
         <v>1.8</v>
@@ -19576,10 +19576,10 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.45</v>
@@ -19779,10 +19779,10 @@
         <v>1.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU95" t="n">
         <v>1.45</v>
@@ -19982,10 +19982,10 @@
         <v>2.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU96" t="n">
         <v>1.11</v>
@@ -20185,7 +20185,7 @@
         <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT97" t="n">
         <v>2</v>
@@ -20391,7 +20391,7 @@
         <v>2</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU98" t="n">
         <v>1.32</v>
@@ -20591,10 +20591,10 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU99" t="n">
         <v>1.31</v>
@@ -20794,10 +20794,10 @@
         <v>0.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU100" t="n">
         <v>0.9399999999999999</v>
@@ -20997,7 +20997,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AT101" t="n">
         <v>1.5</v>
@@ -21200,10 +21200,10 @@
         <v>1.33</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU102" t="n">
         <v>2.52</v>
@@ -21403,7 +21403,7 @@
         <v>2</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT103" t="n">
         <v>2</v>
@@ -21606,7 +21606,7 @@
         <v>1.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT104" t="n">
         <v>1.8</v>
@@ -21812,7 +21812,7 @@
         <v>2</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU105" t="n">
         <v>1.28</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU106" t="n">
         <v>1.02</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -22418,7 +22418,7 @@
         <v>2.14</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AT108" t="n">
         <v>2</v>
@@ -22621,7 +22621,7 @@
         <v>1.4</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT109" t="n">
         <v>1.08</v>
@@ -22824,7 +22824,7 @@
         <v>1.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT110" t="n">
         <v>1.8</v>
@@ -23030,7 +23030,7 @@
         <v>2</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU111" t="n">
         <v>1.18</v>
@@ -23230,10 +23230,10 @@
         <v>1.14</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU112" t="n">
         <v>1.18</v>
@@ -23433,10 +23433,10 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU113" t="n">
         <v>1.43</v>
@@ -23636,10 +23636,10 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.47</v>
@@ -23839,10 +23839,10 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU115" t="n">
         <v>0.58</v>
@@ -24042,10 +24042,10 @@
         <v>1.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU116" t="n">
         <v>1.5</v>
@@ -24245,7 +24245,7 @@
         <v>1.88</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT117" t="n">
         <v>1.8</v>
@@ -24448,10 +24448,10 @@
         <v>2</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU118" t="n">
         <v>1.21</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT119" t="n">
         <v>1.5</v>
@@ -24854,7 +24854,7 @@
         <v>1.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT120" t="n">
         <v>1.08</v>
@@ -25057,10 +25057,10 @@
         <v>0.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU121" t="n">
         <v>1.66</v>
@@ -25260,10 +25260,10 @@
         <v>2.71</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU122" t="n">
         <v>1.59</v>
@@ -25463,10 +25463,10 @@
         <v>1.29</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU123" t="n">
         <v>0.95</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
       <c r="AU124" t="n">
         <v>1.17</v>
@@ -25869,10 +25869,10 @@
         <v>1.6</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU125" t="n">
         <v>1.83</v>
@@ -26072,7 +26072,7 @@
         <v>1.57</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT126" t="n">
         <v>1.5</v>
@@ -26275,7 +26275,7 @@
         <v>2.25</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT127" t="n">
         <v>2</v>
@@ -26478,7 +26478,7 @@
         <v>1.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT128" t="n">
         <v>1.8</v>
@@ -26681,10 +26681,10 @@
         <v>1.25</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU129" t="n">
         <v>0.97</v>
@@ -26887,7 +26887,7 @@
         <v>2</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU130" t="n">
         <v>1.24</v>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT131" t="n">
         <v>0</v>
@@ -27290,7 +27290,7 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT132" t="n">
         <v>1.08</v>
@@ -27493,10 +27493,10 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
       <c r="AU133" t="n">
         <v>1.57</v>
@@ -27696,7 +27696,7 @@
         <v>2.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT134" t="n">
         <v>2</v>
@@ -27899,10 +27899,10 @@
         <v>1.67</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU135" t="n">
         <v>1.02</v>
@@ -28102,10 +28102,10 @@
         <v>0.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU136" t="n">
         <v>1.58</v>
@@ -28305,7 +28305,7 @@
         <v>0.88</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT137" t="n">
         <v>1.08</v>
@@ -28508,7 +28508,7 @@
         <v>1.8</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT138" t="n">
         <v>1.8</v>
@@ -28711,7 +28711,7 @@
         <v>1.38</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT139" t="n">
         <v>1.5</v>
@@ -28914,10 +28914,10 @@
         <v>1.25</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU140" t="n">
         <v>1.83</v>
@@ -29117,7 +29117,7 @@
         <v>1.22</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT141" t="n">
         <v>1.5</v>
@@ -29320,7 +29320,7 @@
         <v>0</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT142" t="n">
         <v>0</v>
@@ -29523,10 +29523,10 @@
         <v>1.83</v>
       </c>
       <c r="AS143" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU143" t="n">
         <v>1.6</v>
@@ -29726,10 +29726,10 @@
         <v>0.38</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU144" t="n">
         <v>0.97</v>
@@ -29929,10 +29929,10 @@
         <v>2.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU145" t="n">
         <v>1.69</v>
@@ -30132,7 +30132,7 @@
         <v>0</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT146" t="n">
         <v>0</v>
@@ -30538,10 +30538,10 @@
         <v>1.22</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU148" t="n">
         <v>1.73</v>
@@ -30741,10 +30741,10 @@
         <v>1.5</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU149" t="n">
         <v>1.28</v>
@@ -30944,10 +30944,10 @@
         <v>2.56</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU150" t="n">
         <v>1.21</v>
@@ -31147,7 +31147,7 @@
         <v>0</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT151" t="n">
         <v>0</v>
@@ -31353,7 +31353,7 @@
         <v>2</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU152" t="n">
         <v>1.33</v>
@@ -31553,7 +31553,7 @@
         <v>0.78</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT153" t="n">
         <v>1.08</v>
@@ -31756,10 +31756,10 @@
         <v>1.29</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU154" t="n">
         <v>1.27</v>
@@ -31959,10 +31959,10 @@
         <v>0.67</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU155" t="n">
         <v>2.39</v>
@@ -32162,10 +32162,10 @@
         <v>1.38</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU156" t="n">
         <v>1.67</v>
@@ -32365,7 +32365,7 @@
         <v>2.1</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT157" t="n">
         <v>2</v>
@@ -32568,10 +32568,10 @@
         <v>0.43</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU158" t="n">
         <v>1.4</v>
@@ -32771,10 +32771,10 @@
         <v>1.83</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU159" t="n">
         <v>1.4</v>
@@ -32974,7 +32974,7 @@
         <v>1.91</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT160" t="n">
         <v>1.8</v>
@@ -33177,10 +33177,10 @@
         <v>1</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU161" t="n">
         <v>1.14</v>
@@ -33380,10 +33380,10 @@
         <v>1.71</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU162" t="n">
         <v>1.62</v>
@@ -33583,7 +33583,7 @@
         <v>1</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT163" t="n">
         <v>1.08</v>
@@ -33786,10 +33786,10 @@
         <v>1.25</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU164" t="n">
         <v>0.6899999999999999</v>
@@ -33989,10 +33989,10 @@
         <v>1.71</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU165" t="n">
         <v>1.26</v>
@@ -34192,10 +34192,10 @@
         <v>2.6</v>
       </c>
       <c r="AS166" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU166" t="n">
         <v>1.66</v>
@@ -34395,7 +34395,7 @@
         <v>0.91</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT167" t="n">
         <v>1.08</v>
@@ -34598,7 +34598,7 @@
         <v>1.36</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT168" t="n">
         <v>1.5</v>
@@ -34801,10 +34801,10 @@
         <v>0.33</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU169" t="n">
         <v>1.29</v>
@@ -35004,7 +35004,7 @@
         <v>1.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT170" t="n">
         <v>1.8</v>
@@ -35207,10 +35207,10 @@
         <v>1.33</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU171" t="n">
         <v>1.47</v>
@@ -35410,7 +35410,7 @@
         <v>2.18</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT172" t="n">
         <v>2</v>
@@ -35816,10 +35816,10 @@
         <v>0.38</v>
       </c>
       <c r="AS174" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU174" t="n">
         <v>1.05</v>
@@ -36019,10 +36019,10 @@
         <v>2.36</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT175" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU175" t="n">
         <v>1.3</v>
@@ -36222,10 +36222,10 @@
         <v>1.75</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU176" t="n">
         <v>1.27</v>
@@ -36425,7 +36425,7 @@
         <v>2.25</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT177" t="n">
         <v>2</v>
@@ -36628,10 +36628,10 @@
         <v>1.2</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU178" t="n">
         <v>1.14</v>
@@ -36831,7 +36831,7 @@
         <v>1.85</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT179" t="n">
         <v>1.8</v>
@@ -37034,10 +37034,10 @@
         <v>1.29</v>
       </c>
       <c r="AS180" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU180" t="n">
         <v>1.1</v>
@@ -37237,10 +37237,10 @@
         <v>1.88</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU181" t="n">
         <v>1.21</v>
@@ -37443,7 +37443,7 @@
         <v>2</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU182" t="n">
         <v>1.46</v>
@@ -37643,10 +37643,10 @@
         <v>1.36</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU183" t="n">
         <v>1.39</v>
@@ -37846,10 +37846,10 @@
         <v>1.5</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU184" t="n">
         <v>1.25</v>
@@ -38049,10 +38049,10 @@
         <v>1.5</v>
       </c>
       <c r="AS185" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU185" t="n">
         <v>1.48</v>
@@ -38252,10 +38252,10 @@
         <v>0.4</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU186" t="n">
         <v>1.73</v>
@@ -38455,10 +38455,10 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU187" t="n">
         <v>1.27</v>
@@ -38658,7 +38658,7 @@
         <v>0</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT188" t="n">
         <v>0</v>
@@ -38861,10 +38861,10 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU189" t="n">
         <v>1.26</v>
@@ -39064,10 +39064,10 @@
         <v>0.86</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
       <c r="AU190" t="n">
         <v>2.48</v>
@@ -39267,10 +39267,10 @@
         <v>0.5</v>
       </c>
       <c r="AS191" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU191" t="n">
         <v>0.73</v>
@@ -39470,10 +39470,10 @@
         <v>1.33</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU192" t="n">
         <v>1.23</v>
@@ -39673,10 +39673,10 @@
         <v>1.3</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU193" t="n">
         <v>1.3</v>
@@ -39876,10 +39876,10 @@
         <v>1.5</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU194" t="n">
         <v>1.17</v>
@@ -40079,10 +40079,10 @@
         <v>0.36</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU195" t="n">
         <v>1.83</v>
@@ -40282,7 +40282,7 @@
         <v>1.71</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT196" t="n">
         <v>1.8</v>
@@ -40485,10 +40485,10 @@
         <v>1.33</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU197" t="n">
         <v>1.35</v>
@@ -40688,10 +40688,10 @@
         <v>1.89</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU198" t="n">
         <v>1.77</v>
@@ -40891,10 +40891,10 @@
         <v>1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU199" t="n">
         <v>1.53</v>
@@ -41094,10 +41094,10 @@
         <v>1.78</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU200" t="n">
         <v>1.2</v>
@@ -41297,7 +41297,7 @@
         <v>1.5</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT201" t="n">
         <v>1.5</v>
@@ -41500,7 +41500,7 @@
         <v>0.92</v>
       </c>
       <c r="AS202" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT202" t="n">
         <v>1.08</v>
@@ -41703,7 +41703,7 @@
         <v>0</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="AT203" t="n">
         <v>0</v>
@@ -41906,10 +41906,10 @@
         <v>0.73</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU204" t="n">
         <v>2.32</v>
@@ -42109,10 +42109,10 @@
         <v>0.75</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
       <c r="AU205" t="n">
         <v>1.59</v>
@@ -42312,10 +42312,10 @@
         <v>1.45</v>
       </c>
       <c r="AS206" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU206" t="n">
         <v>1.11</v>
@@ -42515,10 +42515,10 @@
         <v>1.2</v>
       </c>
       <c r="AS207" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU207" t="n">
         <v>1.18</v>
@@ -42718,10 +42718,10 @@
         <v>1.67</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU208" t="n">
         <v>1.86</v>
@@ -42921,10 +42921,10 @@
         <v>1.7</v>
       </c>
       <c r="AS209" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU209" t="n">
         <v>1.7</v>
@@ -43124,7 +43124,7 @@
         <v>0</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT210" t="n">
         <v>0</v>
@@ -43327,10 +43327,10 @@
         <v>1.44</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU211" t="n">
         <v>1.55</v>
@@ -43530,10 +43530,10 @@
         <v>1.46</v>
       </c>
       <c r="AS212" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU212" t="n">
         <v>1.13</v>
@@ -43733,10 +43733,10 @@
         <v>0.67</v>
       </c>
       <c r="AS213" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
       <c r="AU213" t="n">
         <v>1.15</v>
@@ -43936,10 +43936,10 @@
         <v>1.42</v>
       </c>
       <c r="AS214" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU214" t="n">
         <v>1.56</v>
@@ -44139,10 +44139,10 @@
         <v>1.5</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU215" t="n">
         <v>1.77</v>
@@ -44342,10 +44342,10 @@
         <v>2.42</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT216" t="n">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU216" t="n">
         <v>1.86</v>
@@ -44545,10 +44545,10 @@
         <v>0.67</v>
       </c>
       <c r="AS217" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT217" t="n">
         <v>1.23</v>
-      </c>
-      <c r="AT217" t="n">
-        <v>0.91</v>
       </c>
       <c r="AU217" t="n">
         <v>1.15</v>
@@ -44748,7 +44748,7 @@
         <v>0</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.83</v>
+        <v>2.64</v>
       </c>
       <c r="AT218" t="n">
         <v>0</v>
@@ -44951,7 +44951,7 @@
         <v>1.38</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT219" t="n">
         <v>1.5</v>
@@ -45154,10 +45154,10 @@
         <v>1.18</v>
       </c>
       <c r="AS220" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU220" t="n">
         <v>1.05</v>
@@ -45357,10 +45357,10 @@
         <v>1.55</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU221" t="n">
         <v>1.75</v>
@@ -45560,10 +45560,10 @@
         <v>0.33</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU222" t="n">
         <v>1.54</v>
@@ -45763,10 +45763,10 @@
         <v>1.7</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU223" t="n">
         <v>1.16</v>
@@ -45966,10 +45966,10 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU224" t="n">
         <v>1.8</v>
@@ -46169,10 +46169,10 @@
         <v>1.31</v>
       </c>
       <c r="AS225" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU225" t="n">
         <v>1.64</v>
@@ -46372,10 +46372,10 @@
         <v>1.36</v>
       </c>
       <c r="AS226" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU226" t="n">
         <v>2.37</v>
@@ -46575,10 +46575,10 @@
         <v>1.42</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU227" t="n">
         <v>1.48</v>
@@ -46778,7 +46778,7 @@
         <v>0</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT228" t="n">
         <v>0</v>
@@ -46981,10 +46981,10 @@
         <v>1.64</v>
       </c>
       <c r="AS229" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU229" t="n">
         <v>1.03</v>
@@ -47184,10 +47184,10 @@
         <v>1.33</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU230" t="n">
         <v>2.3</v>
@@ -47387,7 +47387,7 @@
         <v>2.15</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="AT231" t="n">
         <v>2</v>
@@ -47590,10 +47590,10 @@
         <v>0.9</v>
       </c>
       <c r="AS232" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.91</v>
+        <v>1.23</v>
       </c>
       <c r="AU232" t="n">
         <v>1.03</v>
@@ -47796,7 +47796,7 @@
         <v>2</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AU233" t="n">
         <v>1.48</v>
@@ -47996,10 +47996,10 @@
         <v>1.82</v>
       </c>
       <c r="AS234" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AU234" t="n">
         <v>1.66</v>
@@ -48199,10 +48199,10 @@
         <v>0.38</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU235" t="n">
         <v>1.15</v>
@@ -48254,6 +48254,4472 @@
       </c>
       <c r="BK235" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3239366</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>44890.33333333334</v>
+      </c>
+      <c r="F236" t="n">
+        <v>27</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Guangzhou R&amp;F</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>3</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>3</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['58', '66', '82']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>9</v>
+      </c>
+      <c r="R236" t="n">
+        <v>2</v>
+      </c>
+      <c r="S236" t="n">
+        <v>11</v>
+      </c>
+      <c r="T236" t="n">
+        <v>2</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V236" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>3239365</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>44890.35416666666</v>
+      </c>
+      <c r="F237" t="n">
+        <v>27</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>2</v>
+      </c>
+      <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['54', '76']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>2</v>
+      </c>
+      <c r="R237" t="n">
+        <v>4</v>
+      </c>
+      <c r="S237" t="n">
+        <v>6</v>
+      </c>
+      <c r="T237" t="n">
+        <v>6</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V237" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3239364</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>44891.16666666666</v>
+      </c>
+      <c r="F238" t="n">
+        <v>27</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="n">
+        <v>3</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['27', '90+2']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>4</v>
+      </c>
+      <c r="R238" t="n">
+        <v>6</v>
+      </c>
+      <c r="S238" t="n">
+        <v>10</v>
+      </c>
+      <c r="T238" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X238" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3239360</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>44891.16666666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>27</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>2</v>
+      </c>
+      <c r="N239" t="n">
+        <v>2</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['36', '80']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>9</v>
+      </c>
+      <c r="R239" t="n">
+        <v>1</v>
+      </c>
+      <c r="S239" t="n">
+        <v>10</v>
+      </c>
+      <c r="T239" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V239" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X239" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3239367</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>44891.27083333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>27</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Wuhan Zall</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>3</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>3</v>
+      </c>
+      <c r="L240" t="n">
+        <v>5</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>5</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['6', '19', '35', '68', '79']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>6</v>
+      </c>
+      <c r="R240" t="n">
+        <v>3</v>
+      </c>
+      <c r="S240" t="n">
+        <v>9</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U240" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V240" t="n">
+        <v>17</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X240" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3239368</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>44891.33333333334</v>
+      </c>
+      <c r="F241" t="n">
+        <v>27</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Hebei CFFC</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>2</v>
+      </c>
+      <c r="K241" t="n">
+        <v>3</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>6</v>
+      </c>
+      <c r="N241" t="n">
+        <v>7</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['21', '45+2', '47', '62', '82', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>2</v>
+      </c>
+      <c r="R241" t="n">
+        <v>7</v>
+      </c>
+      <c r="S241" t="n">
+        <v>9</v>
+      </c>
+      <c r="T241" t="n">
+        <v>34</v>
+      </c>
+      <c r="U241" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V241" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X241" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>20</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3239260</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>44891.35416666666</v>
+      </c>
+      <c r="F242" t="n">
+        <v>27</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>4</v>
+      </c>
+      <c r="N242" t="n">
+        <v>4</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['45+4', '52', '76', '89']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>1</v>
+      </c>
+      <c r="R242" t="n">
+        <v>10</v>
+      </c>
+      <c r="S242" t="n">
+        <v>11</v>
+      </c>
+      <c r="T242" t="n">
+        <v>41</v>
+      </c>
+      <c r="U242" t="n">
+        <v>6</v>
+      </c>
+      <c r="V242" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X242" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>18</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3239361</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>44891.35416666666</v>
+      </c>
+      <c r="F243" t="n">
+        <v>27</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Guangzhou Evergrande</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="n">
+        <v>2</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>6</v>
+      </c>
+      <c r="R243" t="n">
+        <v>10</v>
+      </c>
+      <c r="S243" t="n">
+        <v>16</v>
+      </c>
+      <c r="T243" t="n">
+        <v>8</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X243" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3239363</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>44891.375</v>
+      </c>
+      <c r="F244" t="n">
+        <v>27</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>1</v>
+      </c>
+      <c r="R244" t="n">
+        <v>8</v>
+      </c>
+      <c r="S244" t="n">
+        <v>9</v>
+      </c>
+      <c r="T244" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X244" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3239371</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>44895.16666666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>28</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>2</v>
+      </c>
+      <c r="K245" t="n">
+        <v>2</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2</v>
+      </c>
+      <c r="M245" t="n">
+        <v>3</v>
+      </c>
+      <c r="N245" t="n">
+        <v>5</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['80', '90+5']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['8', '32', '89']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>7</v>
+      </c>
+      <c r="R245" t="n">
+        <v>3</v>
+      </c>
+      <c r="S245" t="n">
+        <v>10</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U245" t="n">
+        <v>3</v>
+      </c>
+      <c r="V245" t="n">
+        <v>9</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X245" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3239377</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>44895.33333333334</v>
+      </c>
+      <c r="F246" t="n">
+        <v>28</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Hebei CFFC</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="n">
+        <v>4</v>
+      </c>
+      <c r="N246" t="n">
+        <v>5</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['16', '67', '81', '86']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>2</v>
+      </c>
+      <c r="R246" t="n">
+        <v>6</v>
+      </c>
+      <c r="S246" t="n">
+        <v>8</v>
+      </c>
+      <c r="T246" t="n">
+        <v>15</v>
+      </c>
+      <c r="U246" t="n">
+        <v>4</v>
+      </c>
+      <c r="V246" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X246" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>77</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3239262</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>44895.33333333334</v>
+      </c>
+      <c r="F247" t="n">
+        <v>28</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Guangzhou R&amp;F</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>4</v>
+      </c>
+      <c r="R247" t="n">
+        <v>4</v>
+      </c>
+      <c r="S247" t="n">
+        <v>8</v>
+      </c>
+      <c r="T247" t="n">
+        <v>4</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V247" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X247" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3239372</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>44895.35416666666</v>
+      </c>
+      <c r="F248" t="n">
+        <v>28</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2</v>
+      </c>
+      <c r="M248" t="n">
+        <v>3</v>
+      </c>
+      <c r="N248" t="n">
+        <v>5</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['64', '88']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['39', '50', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>9</v>
+      </c>
+      <c r="R248" t="n">
+        <v>2</v>
+      </c>
+      <c r="S248" t="n">
+        <v>11</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U248" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V248" t="n">
+        <v>11</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X248" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3239376</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>44895.35416666666</v>
+      </c>
+      <c r="F249" t="n">
+        <v>28</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Wuhan Zall</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="n">
+        <v>2</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="n">
+        <v>2</v>
+      </c>
+      <c r="N249" t="n">
+        <v>3</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>['29', '85']</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>3</v>
+      </c>
+      <c r="R249" t="n">
+        <v>6</v>
+      </c>
+      <c r="S249" t="n">
+        <v>9</v>
+      </c>
+      <c r="T249" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V249" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X249" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3239369</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>44895.35416666666</v>
+      </c>
+      <c r="F250" t="n">
+        <v>28</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="n">
+        <v>2</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>3</v>
+      </c>
+      <c r="N250" t="n">
+        <v>4</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['14', '55', '82']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>10</v>
+      </c>
+      <c r="R250" t="n">
+        <v>4</v>
+      </c>
+      <c r="S250" t="n">
+        <v>14</v>
+      </c>
+      <c r="T250" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V250" t="n">
+        <v>4</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>3239375</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>44895.35416666666</v>
+      </c>
+      <c r="F251" t="n">
+        <v>28</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['45+2', '62']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>3</v>
+      </c>
+      <c r="R251" t="n">
+        <v>5</v>
+      </c>
+      <c r="S251" t="n">
+        <v>8</v>
+      </c>
+      <c r="T251" t="n">
+        <v>3</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3239370</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>44896.33333333334</v>
+      </c>
+      <c r="F252" t="n">
+        <v>28</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Guangzhou Evergrande</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>2</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>2</v>
+      </c>
+      <c r="L252" t="n">
+        <v>2</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['20', '29']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>5</v>
+      </c>
+      <c r="R252" t="n">
+        <v>7</v>
+      </c>
+      <c r="S252" t="n">
+        <v>12</v>
+      </c>
+      <c r="T252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V252" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X252" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3239373</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>44896.35416666666</v>
+      </c>
+      <c r="F253" t="n">
+        <v>28</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>1</v>
+      </c>
+      <c r="R253" t="n">
+        <v>6</v>
+      </c>
+      <c r="S253" t="n">
+        <v>7</v>
+      </c>
+      <c r="T253" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V253" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3239379</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>44899.33333333334</v>
+      </c>
+      <c r="F254" t="n">
+        <v>29</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>2</v>
+      </c>
+      <c r="K254" t="n">
+        <v>2</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>4</v>
+      </c>
+      <c r="N254" t="n">
+        <v>4</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['43', '45+2', '51', '80']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>1</v>
+      </c>
+      <c r="R254" t="n">
+        <v>4</v>
+      </c>
+      <c r="S254" t="n">
+        <v>5</v>
+      </c>
+      <c r="T254" t="n">
+        <v>8</v>
+      </c>
+      <c r="U254" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V254" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X254" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>3239380</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>44899.35416666666</v>
+      </c>
+      <c r="F255" t="n">
+        <v>29</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Guangzhou R&amp;F</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>2</v>
+      </c>
+      <c r="K255" t="n">
+        <v>3</v>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="n">
+        <v>2</v>
+      </c>
+      <c r="N255" t="n">
+        <v>3</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['39', '45']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>2</v>
+      </c>
+      <c r="R255" t="n">
+        <v>14</v>
+      </c>
+      <c r="S255" t="n">
+        <v>16</v>
+      </c>
+      <c r="T255" t="n">
+        <v>23</v>
+      </c>
+      <c r="U255" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V255" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X255" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>23</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3239386</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>44899.35416666666</v>
+      </c>
+      <c r="F256" t="n">
+        <v>29</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Wuhan Zall</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
+      <c r="K256" t="n">
+        <v>2</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="n">
+        <v>2</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>5</v>
+      </c>
+      <c r="R256" t="n">
+        <v>9</v>
+      </c>
+      <c r="S256" t="n">
+        <v>14</v>
+      </c>
+      <c r="T256" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V256" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X256" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3239384</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>44900.1875</v>
+      </c>
+      <c r="F257" t="n">
+        <v>29</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="n">
+        <v>3</v>
+      </c>
+      <c r="N257" t="n">
+        <v>4</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>['49', '78', '88']</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>3</v>
+      </c>
+      <c r="R257" t="n">
+        <v>3</v>
+      </c>
+      <c r="S257" t="n">
+        <v>6</v>
+      </c>
+      <c r="T257" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V257" t="n">
+        <v>5</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X257" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK257"/>
+  <dimension ref="A1:BK261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT4" t="n">
         <v>2.53</v>
@@ -1715,7 +1715,7 @@
         <v>1.07</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT9" t="n">
         <v>1.23</v>
@@ -2730,7 +2730,7 @@
         <v>2.14</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
         <v>1.64</v>
@@ -4151,7 +4151,7 @@
         <v>0.77</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT19" t="n">
         <v>1.08</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU21" t="n">
         <v>1.43</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT22" t="n">
         <v>1.64</v>
@@ -5572,7 +5572,7 @@
         <v>0.77</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU25" t="n">
         <v>0.96</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
         <v>2.53</v>
@@ -6181,7 +6181,7 @@
         <v>1.07</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU28" t="n">
         <v>1.16</v>
@@ -6384,7 +6384,7 @@
         <v>1.93</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU29" t="n">
         <v>0.9399999999999999</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT32" t="n">
         <v>1.43</v>
@@ -7193,10 +7193,10 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU33" t="n">
         <v>1.05</v>
@@ -7399,7 +7399,7 @@
         <v>1.44</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU34" t="n">
         <v>1.16</v>
@@ -8617,7 +8617,7 @@
         <v>1.85</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU40" t="n">
         <v>1.75</v>
@@ -9023,7 +9023,7 @@
         <v>0.5</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU42" t="n">
         <v>0.62</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
         <v>0.86</v>
@@ -10847,10 +10847,10 @@
         <v>1.67</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU51" t="n">
         <v>1.12</v>
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU54" t="n">
         <v>1.48</v>
@@ -12880,7 +12880,7 @@
         <v>1.18</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU61" t="n">
         <v>1.24</v>
@@ -13286,7 +13286,7 @@
         <v>1.67</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU63" t="n">
         <v>1.48</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT64" t="n">
         <v>0.86</v>
@@ -13892,7 +13892,7 @@
         <v>1.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT66" t="n">
         <v>1.71</v>
@@ -14910,7 +14910,7 @@
         <v>0.87</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU71" t="n">
         <v>1.11</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
         <v>0</v>
@@ -16128,7 +16128,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU77" t="n">
         <v>1.43</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT79" t="n">
         <v>0.53</v>
@@ -17752,7 +17752,7 @@
         <v>1.71</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU85" t="n">
         <v>1.31</v>
@@ -18155,7 +18155,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT87" t="n">
         <v>1.5</v>
@@ -18358,10 +18358,10 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU88" t="n">
         <v>0.55</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT91" t="n">
         <v>1.5</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT92" t="n">
         <v>1.5</v>
@@ -19373,10 +19373,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU93" t="n">
         <v>0.59</v>
@@ -19579,7 +19579,7 @@
         <v>1.07</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU94" t="n">
         <v>1.45</v>
@@ -20185,7 +20185,7 @@
         <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT97" t="n">
         <v>2</v>
@@ -20388,7 +20388,7 @@
         <v>1.6</v>
       </c>
       <c r="AS98" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT98" t="n">
         <v>1.71</v>
@@ -20797,7 +20797,7 @@
         <v>0.77</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU100" t="n">
         <v>0.9399999999999999</v>
@@ -20997,7 +20997,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT101" t="n">
         <v>1.5</v>
@@ -21609,7 +21609,7 @@
         <v>0.77</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU104" t="n">
         <v>1.06</v>
@@ -21809,10 +21809,10 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU105" t="n">
         <v>1.28</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT107" t="n">
         <v>1.5</v>
@@ -22418,7 +22418,7 @@
         <v>2.14</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT108" t="n">
         <v>2</v>
@@ -22824,10 +22824,10 @@
         <v>1.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU110" t="n">
         <v>1.39</v>
@@ -23027,7 +23027,7 @@
         <v>2.67</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT111" t="n">
         <v>2.53</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT115" t="n">
         <v>1.5</v>
@@ -24045,7 +24045,7 @@
         <v>1.93</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU116" t="n">
         <v>1.5</v>
@@ -24248,7 +24248,7 @@
         <v>2.64</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU117" t="n">
         <v>1.78</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT119" t="n">
         <v>1.5</v>
@@ -25466,7 +25466,7 @@
         <v>0.77</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU123" t="n">
         <v>0.95</v>
@@ -26481,7 +26481,7 @@
         <v>0.5</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU128" t="n">
         <v>1.02</v>
@@ -26884,10 +26884,10 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU130" t="n">
         <v>1.24</v>
@@ -27696,7 +27696,7 @@
         <v>2.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT134" t="n">
         <v>2</v>
@@ -28105,7 +28105,7 @@
         <v>2.08</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU136" t="n">
         <v>1.58</v>
@@ -28511,7 +28511,7 @@
         <v>1.18</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU138" t="n">
         <v>1.2</v>
@@ -28917,7 +28917,7 @@
         <v>1.67</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU140" t="n">
         <v>1.83</v>
@@ -29729,7 +29729,7 @@
         <v>0.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU144" t="n">
         <v>0.97</v>
@@ -30335,7 +30335,7 @@
         <v>1.2</v>
       </c>
       <c r="AS147" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT147" t="n">
         <v>1.5</v>
@@ -30541,7 +30541,7 @@
         <v>1.71</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU148" t="n">
         <v>1.73</v>
@@ -30741,10 +30741,10 @@
         <v>1.5</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU149" t="n">
         <v>1.28</v>
@@ -31350,7 +31350,7 @@
         <v>1.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT152" t="n">
         <v>1.64</v>
@@ -32977,7 +32977,7 @@
         <v>1.93</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU160" t="n">
         <v>1.48</v>
@@ -33786,7 +33786,7 @@
         <v>1.25</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT164" t="n">
         <v>1.5</v>
@@ -33989,7 +33989,7 @@
         <v>1.71</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT165" t="n">
         <v>1.57</v>
@@ -34804,7 +34804,7 @@
         <v>1.18</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU169" t="n">
         <v>1.29</v>
@@ -35007,7 +35007,7 @@
         <v>0.87</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU170" t="n">
         <v>1.16</v>
@@ -35613,7 +35613,7 @@
         <v>0</v>
       </c>
       <c r="AS173" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT173" t="n">
         <v>0</v>
@@ -36019,7 +36019,7 @@
         <v>2.36</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT175" t="n">
         <v>2.53</v>
@@ -36631,7 +36631,7 @@
         <v>0.87</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU178" t="n">
         <v>1.14</v>
@@ -36834,7 +36834,7 @@
         <v>1.44</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU179" t="n">
         <v>1.58</v>
@@ -37037,7 +37037,7 @@
         <v>0.77</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU180" t="n">
         <v>1.1</v>
@@ -37440,7 +37440,7 @@
         <v>1.44</v>
       </c>
       <c r="AS182" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT182" t="n">
         <v>1.5</v>
@@ -37646,7 +37646,7 @@
         <v>1.85</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU183" t="n">
         <v>1.39</v>
@@ -38052,7 +38052,7 @@
         <v>1.93</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU185" t="n">
         <v>1.48</v>
@@ -38255,7 +38255,7 @@
         <v>2.64</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU186" t="n">
         <v>1.73</v>
@@ -38455,7 +38455,7 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT187" t="n">
         <v>0.86</v>
@@ -38861,7 +38861,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT189" t="n">
         <v>0.53</v>
@@ -39267,7 +39267,7 @@
         <v>0.5</v>
       </c>
       <c r="AS191" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT191" t="n">
         <v>0.53</v>
@@ -39473,7 +39473,7 @@
         <v>1.18</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU192" t="n">
         <v>1.23</v>
@@ -39673,7 +39673,7 @@
         <v>1.3</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT193" t="n">
         <v>1.5</v>
@@ -40082,7 +40082,7 @@
         <v>1.67</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU195" t="n">
         <v>1.83</v>
@@ -40285,7 +40285,7 @@
         <v>2.14</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AU196" t="n">
         <v>2.45</v>
@@ -40485,10 +40485,10 @@
         <v>1.33</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU197" t="n">
         <v>1.35</v>
@@ -42518,7 +42518,7 @@
         <v>0.87</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU207" t="n">
         <v>1.18</v>
@@ -43124,7 +43124,7 @@
         <v>0</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT210" t="n">
         <v>0</v>
@@ -43533,7 +43533,7 @@
         <v>0.77</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU212" t="n">
         <v>1.13</v>
@@ -45157,7 +45157,7 @@
         <v>0.5</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU220" t="n">
         <v>1.05</v>
@@ -45563,7 +45563,7 @@
         <v>1.44</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU222" t="n">
         <v>1.54</v>
@@ -46575,7 +46575,7 @@
         <v>1.42</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT227" t="n">
         <v>1.43</v>
@@ -47187,7 +47187,7 @@
         <v>2.14</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU230" t="n">
         <v>2.3</v>
@@ -47793,7 +47793,7 @@
         <v>0.82</v>
       </c>
       <c r="AS233" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT233" t="n">
         <v>0.86</v>
@@ -48202,7 +48202,7 @@
         <v>1.07</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU235" t="n">
         <v>1.15</v>
@@ -48605,7 +48605,7 @@
         <v>1.75</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT237" t="n">
         <v>1.71</v>
@@ -48811,7 +48811,7 @@
         <v>1.44</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AU238" t="n">
         <v>1.57</v>
@@ -49417,10 +49417,10 @@
         <v>1.57</v>
       </c>
       <c r="AS241" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AU241" t="n">
         <v>0.73</v>
@@ -50026,7 +50026,7 @@
         <v>1.67</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT244" t="n">
         <v>1.64</v>
@@ -50432,7 +50432,7 @@
         <v>0.91</v>
       </c>
       <c r="AS246" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AT246" t="n">
         <v>1.23</v>
@@ -50635,7 +50635,7 @@
         <v>0.57</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT247" t="n">
         <v>0.53</v>
@@ -51653,7 +51653,7 @@
         <v>1.85</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU252" t="n">
         <v>1.75</v>
@@ -52720,6 +52720,818 @@
       </c>
       <c r="BK257" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3239278</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>44900.33333333334</v>
+      </c>
+      <c r="F258" t="n">
+        <v>29</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Hebei CFFC</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>3</v>
+      </c>
+      <c r="K258" t="n">
+        <v>3</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>4</v>
+      </c>
+      <c r="N258" t="n">
+        <v>4</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['2', '8', '28', '68']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>2</v>
+      </c>
+      <c r="R258" t="n">
+        <v>2</v>
+      </c>
+      <c r="S258" t="n">
+        <v>4</v>
+      </c>
+      <c r="T258" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U258" t="n">
+        <v>3</v>
+      </c>
+      <c r="V258" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X258" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3239383</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>44900.33333333334</v>
+      </c>
+      <c r="F259" t="n">
+        <v>29</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Guangzhou Evergrande</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>2</v>
+      </c>
+      <c r="R259" t="n">
+        <v>3</v>
+      </c>
+      <c r="S259" t="n">
+        <v>5</v>
+      </c>
+      <c r="T259" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V259" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X259" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3239378</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>44900.35416666666</v>
+      </c>
+      <c r="F260" t="n">
+        <v>29</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>5</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2</v>
+      </c>
+      <c r="S260" t="n">
+        <v>7</v>
+      </c>
+      <c r="T260" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U260" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V260" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X260" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>3239385</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>44900.35416666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>29</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>2</v>
+      </c>
+      <c r="N261" t="n">
+        <v>2</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>['74', '89']</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>8</v>
+      </c>
+      <c r="R261" t="n">
+        <v>5</v>
+      </c>
+      <c r="S261" t="n">
+        <v>13</v>
+      </c>
+      <c r="T261" t="n">
+        <v>5</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V261" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X261" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK270"/>
+  <dimension ref="A1:BK279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT10" t="n">
         <v>1.5</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.87</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>1.36</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT15" t="n">
         <v>0.5600000000000001</v>
@@ -3745,7 +3745,7 @@
         <v>1.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.56</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT20" t="n">
         <v>0.8</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU22" t="n">
         <v>0.58</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0.93</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU25" t="n">
         <v>0.96</v>
@@ -5775,7 +5775,7 @@
         <v>1.56</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU27" t="n">
         <v>1.33</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU30" t="n">
         <v>0.65</v>
@@ -6787,10 +6787,10 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU31" t="n">
         <v>1.27</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU32" t="n">
         <v>0.46</v>
@@ -7196,7 +7196,7 @@
         <v>1.56</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU33" t="n">
         <v>1.05</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT34" t="n">
         <v>1.75</v>
@@ -7602,7 +7602,7 @@
         <v>2.64</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.11</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT37" t="n">
         <v>1.8</v>
@@ -8211,7 +8211,7 @@
         <v>2.07</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU38" t="n">
         <v>2.38</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>1.18</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU41" t="n">
         <v>1.33</v>
@@ -9020,7 +9020,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT42" t="n">
         <v>1.75</v>
@@ -9426,10 +9426,10 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.54</v>
@@ -9632,7 +9632,7 @@
         <v>0.93</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU45" t="n">
         <v>0.83</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>0.98</v>
@@ -10238,10 +10238,10 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.29</v>
@@ -10644,10 +10644,10 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU50" t="n">
         <v>1.02</v>
@@ -11050,10 +11050,10 @@
         <v>1.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU52" t="n">
         <v>1.86</v>
@@ -11662,7 +11662,7 @@
         <v>1.79</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.13</v>
@@ -11865,7 +11865,7 @@
         <v>2.64</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.58</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT57" t="n">
         <v>1.36</v>
@@ -12271,7 +12271,7 @@
         <v>1.93</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU58" t="n">
         <v>1.2</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT59" t="n">
         <v>1.5</v>
@@ -12677,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU60" t="n">
         <v>1.26</v>
@@ -13080,10 +13080,10 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU62" t="n">
         <v>1.18</v>
@@ -13283,10 +13283,10 @@
         <v>0.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU63" t="n">
         <v>1.48</v>
@@ -13486,7 +13486,7 @@
         <v>2</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT64" t="n">
         <v>0.8</v>
@@ -13689,10 +13689,10 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.4</v>
@@ -14095,10 +14095,10 @@
         <v>1.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.31</v>
@@ -14504,7 +14504,7 @@
         <v>2.07</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU69" t="n">
         <v>2.59</v>
@@ -14704,10 +14704,10 @@
         <v>1.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.3</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT71" t="n">
         <v>0.38</v>
@@ -15516,7 +15516,7 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT74" t="n">
         <v>1.36</v>
@@ -15722,7 +15722,7 @@
         <v>1.18</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU75" t="n">
         <v>1.31</v>
@@ -16125,7 +16125,7 @@
         <v>1.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT77" t="n">
         <v>1.19</v>
@@ -16331,7 +16331,7 @@
         <v>0.93</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.02</v>
@@ -16737,7 +16737,7 @@
         <v>1.79</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU80" t="n">
         <v>1.51</v>
@@ -17140,10 +17140,10 @@
         <v>1.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU82" t="n">
         <v>1.11</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU83" t="n">
         <v>1.52</v>
@@ -17546,7 +17546,7 @@
         <v>0.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5600000000000001</v>
@@ -17749,10 +17749,10 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU85" t="n">
         <v>1.31</v>
@@ -18158,7 +18158,7 @@
         <v>1.87</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.15</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT88" t="n">
         <v>0.38</v>
@@ -18561,10 +18561,10 @@
         <v>1.75</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU89" t="n">
         <v>1.2</v>
@@ -18767,7 +18767,7 @@
         <v>1.93</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -19173,7 +19173,7 @@
         <v>1.56</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.59</v>
@@ -19373,10 +19373,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU93" t="n">
         <v>0.59</v>
@@ -19779,10 +19779,10 @@
         <v>1.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU95" t="n">
         <v>1.45</v>
@@ -19982,10 +19982,10 @@
         <v>2.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU96" t="n">
         <v>1.11</v>
@@ -20188,7 +20188,7 @@
         <v>1.56</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.38</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT99" t="n">
         <v>0.8</v>
@@ -20997,10 +20997,10 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU101" t="n">
         <v>0.55</v>
@@ -21406,7 +21406,7 @@
         <v>0.93</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU103" t="n">
         <v>0.98</v>
@@ -21606,10 +21606,10 @@
         <v>1.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU104" t="n">
         <v>1.06</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT106" t="n">
         <v>0.8</v>
@@ -22218,7 +22218,7 @@
         <v>1.56</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -22418,10 +22418,10 @@
         <v>2.14</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU108" t="n">
         <v>0.58</v>
@@ -22624,7 +22624,7 @@
         <v>1.93</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU109" t="n">
         <v>1.55</v>
@@ -22827,7 +22827,7 @@
         <v>1.56</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU110" t="n">
         <v>1.39</v>
@@ -23030,7 +23030,7 @@
         <v>1.87</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU111" t="n">
         <v>1.18</v>
@@ -23230,7 +23230,7 @@
         <v>1.14</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT112" t="n">
         <v>1.8</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT113" t="n">
         <v>0.5600000000000001</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT114" t="n">
         <v>1.5</v>
@@ -23839,10 +23839,10 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU115" t="n">
         <v>0.58</v>
@@ -24248,7 +24248,7 @@
         <v>2.64</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU117" t="n">
         <v>1.78</v>
@@ -24448,10 +24448,10 @@
         <v>2</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.21</v>
@@ -24654,7 +24654,7 @@
         <v>1.56</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU119" t="n">
         <v>1.39</v>
@@ -24854,10 +24854,10 @@
         <v>1.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.1</v>
@@ -25057,7 +25057,7 @@
         <v>0.5</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT121" t="n">
         <v>0.5600000000000001</v>
@@ -25260,10 +25260,10 @@
         <v>2.71</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU122" t="n">
         <v>1.59</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT124" t="n">
         <v>1.36</v>
@@ -25869,10 +25869,10 @@
         <v>1.6</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU125" t="n">
         <v>1.83</v>
@@ -26075,7 +26075,7 @@
         <v>1.93</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU126" t="n">
         <v>1.4</v>
@@ -26275,10 +26275,10 @@
         <v>2.25</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU127" t="n">
         <v>1.22</v>
@@ -26478,10 +26478,10 @@
         <v>1.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU128" t="n">
         <v>1.02</v>
@@ -26684,7 +26684,7 @@
         <v>0.93</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU129" t="n">
         <v>0.97</v>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT131" t="n">
         <v>0</v>
@@ -27293,7 +27293,7 @@
         <v>2.07</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU132" t="n">
         <v>2.39</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT133" t="n">
         <v>1.36</v>
@@ -27699,7 +27699,7 @@
         <v>1.56</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU134" t="n">
         <v>1.33</v>
@@ -27902,7 +27902,7 @@
         <v>0.93</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU135" t="n">
         <v>1.02</v>
@@ -28102,7 +28102,7 @@
         <v>0.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT136" t="n">
         <v>0.38</v>
@@ -28305,10 +28305,10 @@
         <v>0.88</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.54</v>
@@ -28511,7 +28511,7 @@
         <v>1.18</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU138" t="n">
         <v>1.2</v>
@@ -28711,10 +28711,10 @@
         <v>1.38</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU139" t="n">
         <v>0.97</v>
@@ -28914,7 +28914,7 @@
         <v>1.25</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT140" t="n">
         <v>1.75</v>
@@ -29117,10 +29117,10 @@
         <v>1.22</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU141" t="n">
         <v>1.11</v>
@@ -29320,7 +29320,7 @@
         <v>0</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT142" t="n">
         <v>0</v>
@@ -29523,10 +29523,10 @@
         <v>1.83</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU143" t="n">
         <v>1.6</v>
@@ -29726,7 +29726,7 @@
         <v>0.38</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT144" t="n">
         <v>0.38</v>
@@ -29932,7 +29932,7 @@
         <v>2.64</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU145" t="n">
         <v>1.69</v>
@@ -30132,7 +30132,7 @@
         <v>0</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT146" t="n">
         <v>0</v>
@@ -30338,7 +30338,7 @@
         <v>1.87</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU147" t="n">
         <v>1.33</v>
@@ -30538,7 +30538,7 @@
         <v>1.22</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT148" t="n">
         <v>1.75</v>
@@ -30947,7 +30947,7 @@
         <v>1.18</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU150" t="n">
         <v>1.21</v>
@@ -31147,7 +31147,7 @@
         <v>0</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT151" t="n">
         <v>0</v>
@@ -31353,7 +31353,7 @@
         <v>1.87</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU152" t="n">
         <v>1.33</v>
@@ -31553,10 +31553,10 @@
         <v>0.78</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>1.17</v>
@@ -32162,7 +32162,7 @@
         <v>1.38</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT156" t="n">
         <v>1.8</v>
@@ -32368,7 +32368,7 @@
         <v>1</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU157" t="n">
         <v>1.31</v>
@@ -32774,7 +32774,7 @@
         <v>1.79</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU159" t="n">
         <v>1.4</v>
@@ -32977,7 +32977,7 @@
         <v>1.93</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU160" t="n">
         <v>1.48</v>
@@ -33177,7 +33177,7 @@
         <v>1</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT161" t="n">
         <v>1.5</v>
@@ -33380,10 +33380,10 @@
         <v>1.71</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU162" t="n">
         <v>1.62</v>
@@ -33586,7 +33586,7 @@
         <v>1.18</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.3</v>
@@ -33786,7 +33786,7 @@
         <v>1.25</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT164" t="n">
         <v>1.5</v>
@@ -33992,7 +33992,7 @@
         <v>1.56</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU165" t="n">
         <v>1.26</v>
@@ -34192,10 +34192,10 @@
         <v>2.6</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU166" t="n">
         <v>1.66</v>
@@ -34395,10 +34395,10 @@
         <v>0.91</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.01</v>
@@ -34598,10 +34598,10 @@
         <v>1.36</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU168" t="n">
         <v>1.57</v>
@@ -35004,10 +35004,10 @@
         <v>1.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU170" t="n">
         <v>1.16</v>
@@ -35410,10 +35410,10 @@
         <v>2.18</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU172" t="n">
         <v>1.78</v>
@@ -36022,7 +36022,7 @@
         <v>1.56</v>
       </c>
       <c r="AT175" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU175" t="n">
         <v>1.3</v>
@@ -36225,7 +36225,7 @@
         <v>1.18</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU176" t="n">
         <v>1.27</v>
@@ -36425,10 +36425,10 @@
         <v>2.25</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU177" t="n">
         <v>1.91</v>
@@ -36628,7 +36628,7 @@
         <v>1.2</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT178" t="n">
         <v>1.75</v>
@@ -36831,10 +36831,10 @@
         <v>1.85</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU179" t="n">
         <v>1.58</v>
@@ -37034,7 +37034,7 @@
         <v>1.29</v>
       </c>
       <c r="AS180" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT180" t="n">
         <v>1.19</v>
@@ -37240,7 +37240,7 @@
         <v>1</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU181" t="n">
         <v>1.21</v>
@@ -39267,7 +39267,7 @@
         <v>0.5</v>
       </c>
       <c r="AS191" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT191" t="n">
         <v>0.5600000000000001</v>
@@ -39879,7 +39879,7 @@
         <v>1</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU194" t="n">
         <v>1.17</v>
@@ -40079,7 +40079,7 @@
         <v>0.36</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT195" t="n">
         <v>0.38</v>
@@ -40285,7 +40285,7 @@
         <v>2.07</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU196" t="n">
         <v>2.45</v>
@@ -40691,7 +40691,7 @@
         <v>2.64</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU198" t="n">
         <v>1.77</v>
@@ -40891,7 +40891,7 @@
         <v>1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT199" t="n">
         <v>0.8</v>
@@ -41097,7 +41097,7 @@
         <v>1.18</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU200" t="n">
         <v>1.2</v>
@@ -41300,7 +41300,7 @@
         <v>2.64</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU201" t="n">
         <v>1.72</v>
@@ -41500,10 +41500,10 @@
         <v>0.92</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU202" t="n">
         <v>1.64</v>
@@ -42312,7 +42312,7 @@
         <v>1.45</v>
       </c>
       <c r="AS206" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT206" t="n">
         <v>1.5</v>
@@ -42515,7 +42515,7 @@
         <v>1.2</v>
       </c>
       <c r="AS207" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT207" t="n">
         <v>1.19</v>
@@ -42718,10 +42718,10 @@
         <v>1.67</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU208" t="n">
         <v>1.86</v>
@@ -42924,7 +42924,7 @@
         <v>2.64</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU209" t="n">
         <v>1.7</v>
@@ -43330,7 +43330,7 @@
         <v>1.79</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU211" t="n">
         <v>1.55</v>
@@ -43530,7 +43530,7 @@
         <v>1.46</v>
       </c>
       <c r="AS212" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT212" t="n">
         <v>1.75</v>
@@ -43733,7 +43733,7 @@
         <v>0.67</v>
       </c>
       <c r="AS213" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT213" t="n">
         <v>0.5600000000000001</v>
@@ -44139,10 +44139,10 @@
         <v>1.5</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU215" t="n">
         <v>1.77</v>
@@ -44342,10 +44342,10 @@
         <v>2.42</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT216" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU216" t="n">
         <v>1.86</v>
@@ -44954,7 +44954,7 @@
         <v>1.18</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU219" t="n">
         <v>1.21</v>
@@ -45154,7 +45154,7 @@
         <v>1.18</v>
       </c>
       <c r="AS220" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT220" t="n">
         <v>1.19</v>
@@ -45360,7 +45360,7 @@
         <v>1.79</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU221" t="n">
         <v>1.75</v>
@@ -45560,7 +45560,7 @@
         <v>0.33</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT222" t="n">
         <v>0.38</v>
@@ -45766,7 +45766,7 @@
         <v>1</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU223" t="n">
         <v>1.16</v>
@@ -45966,7 +45966,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT224" t="n">
         <v>0.8</v>
@@ -46169,7 +46169,7 @@
         <v>1.31</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT225" t="n">
         <v>1.5</v>
@@ -46375,7 +46375,7 @@
         <v>2.07</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU226" t="n">
         <v>2.37</v>
@@ -46578,7 +46578,7 @@
         <v>1.56</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU227" t="n">
         <v>1.48</v>
@@ -46981,7 +46981,7 @@
         <v>1.64</v>
       </c>
       <c r="AS229" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT229" t="n">
         <v>1.8</v>
@@ -47390,7 +47390,7 @@
         <v>1.79</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU231" t="n">
         <v>1.82</v>
@@ -47996,10 +47996,10 @@
         <v>1.82</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU234" t="n">
         <v>1.66</v>
@@ -48808,7 +48808,7 @@
         <v>1.23</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT238" t="n">
         <v>1.19</v>
@@ -49417,7 +49417,7 @@
         <v>1.57</v>
       </c>
       <c r="AS241" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT241" t="n">
         <v>1.75</v>
@@ -49623,7 +49623,7 @@
         <v>1</v>
       </c>
       <c r="AT242" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU242" t="n">
         <v>1.18</v>
@@ -49823,10 +49823,10 @@
         <v>1.5</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU243" t="n">
         <v>1.16</v>
@@ -50029,7 +50029,7 @@
         <v>1.56</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU244" t="n">
         <v>1.45</v>
@@ -50432,7 +50432,7 @@
         <v>0.91</v>
       </c>
       <c r="AS246" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT246" t="n">
         <v>1.36</v>
@@ -50841,7 +50841,7 @@
         <v>2.07</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU248" t="n">
         <v>2.34</v>
@@ -51247,7 +51247,7 @@
         <v>1.93</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU250" t="n">
         <v>1.51</v>
@@ -51447,7 +51447,7 @@
         <v>1.85</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT251" t="n">
         <v>1.8</v>
@@ -51853,10 +51853,10 @@
         <v>1.31</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU253" t="n">
         <v>1.79</v>
@@ -52059,7 +52059,7 @@
         <v>0.93</v>
       </c>
       <c r="AT254" t="n">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AU254" t="n">
         <v>1.09</v>
@@ -52259,10 +52259,10 @@
         <v>1.54</v>
       </c>
       <c r="AS255" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU255" t="n">
         <v>1.04</v>
@@ -52462,10 +52462,10 @@
         <v>1.55</v>
       </c>
       <c r="AS256" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU256" t="n">
         <v>1.15</v>
@@ -52665,7 +52665,7 @@
         <v>1.08</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT257" t="n">
         <v>1.36</v>
@@ -52868,7 +52868,7 @@
         <v>1.14</v>
       </c>
       <c r="AS258" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT258" t="n">
         <v>1.19</v>
@@ -53277,7 +53277,7 @@
         <v>1.87</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AU260" t="n">
         <v>1.5</v>
@@ -54089,7 +54089,7 @@
         <v>2.07</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AU264" t="n">
         <v>2.33</v>
@@ -54292,7 +54292,7 @@
         <v>1.79</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AU265" t="n">
         <v>1.8</v>
@@ -54492,7 +54492,7 @@
         <v>1.71</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="AT266" t="n">
         <v>1.8</v>
@@ -54698,7 +54698,7 @@
         <v>1</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AU267" t="n">
         <v>1.11</v>
@@ -54898,7 +54898,7 @@
         <v>0.53</v>
       </c>
       <c r="AS268" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT268" t="n">
         <v>0.5600000000000001</v>
@@ -55101,7 +55101,7 @@
         <v>1.27</v>
       </c>
       <c r="AS269" t="n">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT269" t="n">
         <v>1.19</v>
@@ -55307,7 +55307,7 @@
         <v>1.56</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AU270" t="n">
         <v>1.4</v>
@@ -55359,6 +55359,1833 @@
       </c>
       <c r="BK270" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3239402</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>44909.16666666666</v>
+      </c>
+      <c r="F271" t="n">
+        <v>31</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="n">
+        <v>2</v>
+      </c>
+      <c r="N271" t="n">
+        <v>3</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['85', '86']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>8</v>
+      </c>
+      <c r="R271" t="n">
+        <v>4</v>
+      </c>
+      <c r="S271" t="n">
+        <v>12</v>
+      </c>
+      <c r="T271" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V271" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X271" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3239398</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>44909.25</v>
+      </c>
+      <c r="F272" t="n">
+        <v>31</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Wuhan Zall</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>2</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>3</v>
+      </c>
+      <c r="N272" t="n">
+        <v>3</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['10', '31', '76']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>4</v>
+      </c>
+      <c r="R272" t="n">
+        <v>11</v>
+      </c>
+      <c r="S272" t="n">
+        <v>15</v>
+      </c>
+      <c r="T272" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V272" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3239396</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>44909.35416666666</v>
+      </c>
+      <c r="F273" t="n">
+        <v>31</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Guangzhou R&amp;F</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>2</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>3</v>
+      </c>
+      <c r="R273" t="n">
+        <v>1</v>
+      </c>
+      <c r="S273" t="n">
+        <v>4</v>
+      </c>
+      <c r="T273" t="n">
+        <v>4</v>
+      </c>
+      <c r="U273" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X273" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3239399</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>44910.16666666666</v>
+      </c>
+      <c r="F274" t="n">
+        <v>31</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="n">
+        <v>3</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>3</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['31', '51', '63']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>14</v>
+      </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
+      <c r="S274" t="n">
+        <v>14</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V274" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X274" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>30</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3239400</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>44910.33333333334</v>
+      </c>
+      <c r="F275" t="n">
+        <v>31</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="n">
+        <v>2</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>2</v>
+      </c>
+      <c r="R275" t="n">
+        <v>1</v>
+      </c>
+      <c r="S275" t="n">
+        <v>3</v>
+      </c>
+      <c r="T275" t="n">
+        <v>4</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V275" t="n">
+        <v>3</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X275" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3239289</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>44910.35416666666</v>
+      </c>
+      <c r="F276" t="n">
+        <v>31</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Guangzhou Evergrande</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>2</v>
+      </c>
+      <c r="J276" t="n">
+        <v>2</v>
+      </c>
+      <c r="K276" t="n">
+        <v>4</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2</v>
+      </c>
+      <c r="M276" t="n">
+        <v>4</v>
+      </c>
+      <c r="N276" t="n">
+        <v>6</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['13', '30']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>['3', '45+1', '58', '62']</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>4</v>
+      </c>
+      <c r="R276" t="n">
+        <v>3</v>
+      </c>
+      <c r="S276" t="n">
+        <v>7</v>
+      </c>
+      <c r="T276" t="n">
+        <v>8</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V276" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X276" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3239403</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>44910.35416666666</v>
+      </c>
+      <c r="F277" t="n">
+        <v>31</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1</v>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>4</v>
+      </c>
+      <c r="R277" t="n">
+        <v>14</v>
+      </c>
+      <c r="S277" t="n">
+        <v>18</v>
+      </c>
+      <c r="T277" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V277" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>3239397</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>44910.35416666666</v>
+      </c>
+      <c r="F278" t="n">
+        <v>31</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
+        <v>2</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>1</v>
+      </c>
+      <c r="R278" t="n">
+        <v>7</v>
+      </c>
+      <c r="S278" t="n">
+        <v>8</v>
+      </c>
+      <c r="T278" t="n">
+        <v>3</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V278" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3239296</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>44910.375</v>
+      </c>
+      <c r="F279" t="n">
+        <v>31</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Hebei CFFC</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>2</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>2</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['57', '90+2']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>2</v>
+      </c>
+      <c r="R279" t="n">
+        <v>7</v>
+      </c>
+      <c r="S279" t="n">
+        <v>9</v>
+      </c>
+      <c r="T279" t="n">
+        <v>8</v>
+      </c>
+      <c r="U279" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V279" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X279" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>54</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK289"/>
+  <dimension ref="A1:BK297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT2" t="n">
         <v>1.75</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT6" t="n">
         <v>1.82</v>
@@ -1918,7 +1918,7 @@
         <v>1.18</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT10" t="n">
         <v>1.5</v>
@@ -3136,7 +3136,7 @@
         <v>2.13</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT14" t="n">
         <v>1.88</v>
@@ -3542,7 +3542,7 @@
         <v>1.56</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.35</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT17" t="n">
         <v>1.88</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT19" t="n">
         <v>0.88</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU20" t="n">
         <v>1.1</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT21" t="n">
         <v>1.75</v>
@@ -4963,7 +4963,7 @@
         <v>0.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU22" t="n">
         <v>0.58</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>1.82</v>
@@ -5572,7 +5572,7 @@
         <v>1.18</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU25" t="n">
         <v>1.81</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU28" t="n">
         <v>1.16</v>
@@ -6993,7 +6993,7 @@
         <v>0.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU32" t="n">
         <v>0.46</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT33" t="n">
         <v>1.82</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.11</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT36" t="n">
         <v>1.5</v>
@@ -8211,7 +8211,7 @@
         <v>2.07</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU38" t="n">
         <v>2.38</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT39" t="n">
         <v>0</v>
@@ -8614,10 +8614,10 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU40" t="n">
         <v>1.75</v>
@@ -9226,7 +9226,7 @@
         <v>1.56</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9426,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT44" t="n">
         <v>0.88</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
         <v>1.5</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU46" t="n">
         <v>1.44</v>
@@ -10038,7 +10038,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>0.98</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT49" t="n">
         <v>1.88</v>
@@ -10644,10 +10644,10 @@
         <v>1.67</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU50" t="n">
         <v>1.12</v>
@@ -11053,7 +11053,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU52" t="n">
         <v>1.02</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT55" t="n">
         <v>0.88</v>
@@ -11862,7 +11862,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT56" t="n">
         <v>1.5</v>
@@ -12068,7 +12068,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU57" t="n">
         <v>1.12</v>
@@ -12271,7 +12271,7 @@
         <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU58" t="n">
         <v>1.2</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT60" t="n">
         <v>1.5</v>
@@ -13080,7 +13080,7 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT62" t="n">
         <v>2.41</v>
@@ -13286,7 +13286,7 @@
         <v>0.38</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU63" t="n">
         <v>0.55</v>
@@ -13486,7 +13486,7 @@
         <v>0.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT64" t="n">
         <v>1.82</v>
@@ -13895,7 +13895,7 @@
         <v>1.35</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.31</v>
@@ -14095,7 +14095,7 @@
         <v>1.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT67" t="n">
         <v>1.88</v>
@@ -14298,10 +14298,10 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU68" t="n">
         <v>1.59</v>
@@ -14504,7 +14504,7 @@
         <v>2.07</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU69" t="n">
         <v>2.59</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT73" t="n">
         <v>1.5</v>
@@ -15519,7 +15519,7 @@
         <v>2.13</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU74" t="n">
         <v>1.53</v>
@@ -16125,10 +16125,10 @@
         <v>1.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU77" t="n">
         <v>1.43</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU78" t="n">
         <v>1.33</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT79" t="n">
         <v>0.88</v>
@@ -16734,7 +16734,7 @@
         <v>1.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -16940,7 +16940,7 @@
         <v>2.07</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU81" t="n">
         <v>2.4</v>
@@ -17140,10 +17140,10 @@
         <v>1.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU82" t="n">
         <v>1.11</v>
@@ -17549,7 +17549,7 @@
         <v>2.13</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU84" t="n">
         <v>1.36</v>
@@ -17952,10 +17952,10 @@
         <v>1.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU86" t="n">
         <v>1.15</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT88" t="n">
         <v>1.88</v>
@@ -18564,7 +18564,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU89" t="n">
         <v>1.2</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT91" t="n">
         <v>1.5</v>
@@ -19173,7 +19173,7 @@
         <v>1.56</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.59</v>
@@ -19576,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="AS94" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT94" t="n">
         <v>1.75</v>
@@ -19782,7 +19782,7 @@
         <v>1.35</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU95" t="n">
         <v>1.45</v>
@@ -20185,7 +20185,7 @@
         <v>1.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT97" t="n">
         <v>1.88</v>
@@ -20391,7 +20391,7 @@
         <v>1.69</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU98" t="n">
         <v>1.31</v>
@@ -20591,7 +20591,7 @@
         <v>1.6</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT99" t="n">
         <v>1.88</v>
@@ -20794,7 +20794,7 @@
         <v>0.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT100" t="n">
         <v>0.38</v>
@@ -21403,7 +21403,7 @@
         <v>1.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT103" t="n">
         <v>1.82</v>
@@ -21606,7 +21606,7 @@
         <v>2</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT104" t="n">
         <v>1.88</v>
@@ -21809,10 +21809,10 @@
         <v>1.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU105" t="n">
         <v>1.28</v>
@@ -22015,7 +22015,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU106" t="n">
         <v>1.02</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -23027,7 +23027,7 @@
         <v>2.67</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT111" t="n">
         <v>2.41</v>
@@ -23436,7 +23436,7 @@
         <v>1.69</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU113" t="n">
         <v>1.43</v>
@@ -23842,7 +23842,7 @@
         <v>0.38</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU115" t="n">
         <v>0.58</v>
@@ -24448,7 +24448,7 @@
         <v>1.88</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT118" t="n">
         <v>1.82</v>
@@ -24854,7 +24854,7 @@
         <v>1.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT120" t="n">
         <v>0.88</v>
@@ -25260,10 +25260,10 @@
         <v>0.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU122" t="n">
         <v>1.66</v>
@@ -25463,7 +25463,7 @@
         <v>1.29</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT123" t="n">
         <v>1.75</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU124" t="n">
         <v>1.17</v>
@@ -25869,10 +25869,10 @@
         <v>1.6</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU125" t="n">
         <v>1.83</v>
@@ -26681,10 +26681,10 @@
         <v>1.25</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU129" t="n">
         <v>0.97</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT130" t="n">
         <v>0.38</v>
@@ -27090,7 +27090,7 @@
         <v>1.69</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU131" t="n">
         <v>1.57</v>
@@ -27899,10 +27899,10 @@
         <v>1.67</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU135" t="n">
         <v>1.02</v>
@@ -28914,7 +28914,7 @@
         <v>1.25</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT140" t="n">
         <v>1.75</v>
@@ -29117,7 +29117,7 @@
         <v>1.22</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT141" t="n">
         <v>1.5</v>
@@ -29323,7 +29323,7 @@
         <v>2.13</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU142" t="n">
         <v>1.6</v>
@@ -29929,7 +29929,7 @@
         <v>0</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT145" t="n">
         <v>0</v>
@@ -30335,7 +30335,7 @@
         <v>2.75</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT147" t="n">
         <v>2.41</v>
@@ -30538,7 +30538,7 @@
         <v>1.2</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT148" t="n">
         <v>1.5</v>
@@ -30947,7 +30947,7 @@
         <v>1.56</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU150" t="n">
         <v>1.28</v>
@@ -31350,10 +31350,10 @@
         <v>1.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU152" t="n">
         <v>1.33</v>
@@ -31759,7 +31759,7 @@
         <v>1.18</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU154" t="n">
         <v>1.27</v>
@@ -32365,7 +32365,7 @@
         <v>2.1</v>
       </c>
       <c r="AS157" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT157" t="n">
         <v>1.88</v>
@@ -32571,7 +32571,7 @@
         <v>2</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU158" t="n">
         <v>1.4</v>
@@ -32771,7 +32771,7 @@
         <v>1.83</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT159" t="n">
         <v>1.5</v>
@@ -33383,7 +33383,7 @@
         <v>1.35</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU162" t="n">
         <v>1.62</v>
@@ -35613,7 +35613,7 @@
         <v>0</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT173" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>2.36</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT174" t="n">
         <v>2.41</v>
@@ -36019,10 +36019,10 @@
         <v>0.38</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU175" t="n">
         <v>1.05</v>
@@ -36225,7 +36225,7 @@
         <v>1.18</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU176" t="n">
         <v>1.27</v>
@@ -36425,10 +36425,10 @@
         <v>1.29</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU177" t="n">
         <v>1.1</v>
@@ -36628,7 +36628,7 @@
         <v>2.25</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT178" t="n">
         <v>1.88</v>
@@ -37237,10 +37237,10 @@
         <v>1.88</v>
       </c>
       <c r="AS181" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU181" t="n">
         <v>1.21</v>
@@ -37440,7 +37440,7 @@
         <v>1.36</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT182" t="n">
         <v>1.75</v>
@@ -37643,7 +37643,7 @@
         <v>1.44</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT183" t="n">
         <v>1.5</v>
@@ -38052,7 +38052,7 @@
         <v>2</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU185" t="n">
         <v>1.48</v>
@@ -38252,7 +38252,7 @@
         <v>0.4</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT186" t="n">
         <v>0.38</v>
@@ -38455,7 +38455,7 @@
         <v>0</v>
       </c>
       <c r="AS187" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT187" t="n">
         <v>0</v>
@@ -38658,10 +38658,10 @@
         <v>1.13</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU188" t="n">
         <v>1.27</v>
@@ -38864,7 +38864,7 @@
         <v>1.56</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU189" t="n">
         <v>1.26</v>
@@ -39067,7 +39067,7 @@
         <v>2.07</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU190" t="n">
         <v>2.48</v>
@@ -39270,7 +39270,7 @@
         <v>0.38</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU191" t="n">
         <v>0.73</v>
@@ -39473,7 +39473,7 @@
         <v>1.18</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU192" t="n">
         <v>1.23</v>
@@ -39876,7 +39876,7 @@
         <v>1.5</v>
       </c>
       <c r="AS194" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT194" t="n">
         <v>1.5</v>
@@ -40282,7 +40282,7 @@
         <v>0.36</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT196" t="n">
         <v>0.38</v>
@@ -40485,7 +40485,7 @@
         <v>1.33</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT197" t="n">
         <v>1.75</v>
@@ -40688,10 +40688,10 @@
         <v>1.89</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU198" t="n">
         <v>1.77</v>
@@ -40894,7 +40894,7 @@
         <v>1.35</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU199" t="n">
         <v>1.53</v>
@@ -41097,7 +41097,7 @@
         <v>1.18</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU200" t="n">
         <v>1.2</v>
@@ -41297,7 +41297,7 @@
         <v>1.5</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT201" t="n">
         <v>1.5</v>
@@ -41703,7 +41703,7 @@
         <v>0</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT203" t="n">
         <v>0</v>
@@ -41909,7 +41909,7 @@
         <v>2.07</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU204" t="n">
         <v>2.32</v>
@@ -42112,7 +42112,7 @@
         <v>2</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU205" t="n">
         <v>1.59</v>
@@ -42312,7 +42312,7 @@
         <v>1.45</v>
       </c>
       <c r="AS206" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT206" t="n">
         <v>1.5</v>
@@ -42518,7 +42518,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU207" t="n">
         <v>1.18</v>
@@ -42718,7 +42718,7 @@
         <v>1.67</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT208" t="n">
         <v>1.5</v>
@@ -42921,10 +42921,10 @@
         <v>1.7</v>
       </c>
       <c r="AS209" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU209" t="n">
         <v>1.7</v>
@@ -43124,7 +43124,7 @@
         <v>0</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT210" t="n">
         <v>0</v>
@@ -43327,10 +43327,10 @@
         <v>1.44</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU211" t="n">
         <v>1.55</v>
@@ -43530,7 +43530,7 @@
         <v>1.46</v>
       </c>
       <c r="AS212" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT212" t="n">
         <v>1.75</v>
@@ -43736,7 +43736,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU213" t="n">
         <v>1.15</v>
@@ -44342,7 +44342,7 @@
         <v>2.42</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT216" t="n">
         <v>2.41</v>
@@ -44545,10 +44545,10 @@
         <v>0.67</v>
       </c>
       <c r="AS217" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU217" t="n">
         <v>1.15</v>
@@ -44748,7 +44748,7 @@
         <v>0</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT218" t="n">
         <v>0</v>
@@ -45157,7 +45157,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU220" t="n">
         <v>1.05</v>
@@ -45357,10 +45357,10 @@
         <v>1.55</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU221" t="n">
         <v>1.75</v>
@@ -45763,10 +45763,10 @@
         <v>1.7</v>
       </c>
       <c r="AS223" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU223" t="n">
         <v>1.16</v>
@@ -45966,10 +45966,10 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU224" t="n">
         <v>1.8</v>
@@ -46778,10 +46778,10 @@
         <v>1.42</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU228" t="n">
         <v>1.48</v>
@@ -47187,7 +47187,7 @@
         <v>2.07</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU230" t="n">
         <v>2.3</v>
@@ -47387,7 +47387,7 @@
         <v>2.15</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT231" t="n">
         <v>1.88</v>
@@ -47590,10 +47590,10 @@
         <v>0.9</v>
       </c>
       <c r="AS232" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU232" t="n">
         <v>1.03</v>
@@ -47793,7 +47793,7 @@
         <v>0.38</v>
       </c>
       <c r="AS233" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT233" t="n">
         <v>0.38</v>
@@ -47999,7 +47999,7 @@
         <v>2.13</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU234" t="n">
         <v>1.66</v>
@@ -48199,10 +48199,10 @@
         <v>0.82</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU235" t="n">
         <v>1.48</v>
@@ -48402,10 +48402,10 @@
         <v>0.62</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU236" t="n">
         <v>1.74</v>
@@ -49014,7 +49014,7 @@
         <v>1.35</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU239" t="n">
         <v>1.57</v>
@@ -49214,10 +49214,10 @@
         <v>0.75</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU240" t="n">
         <v>1.84</v>
@@ -49620,7 +49620,7 @@
         <v>2.46</v>
       </c>
       <c r="AS242" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT242" t="n">
         <v>2.41</v>
@@ -49823,7 +49823,7 @@
         <v>1.5</v>
       </c>
       <c r="AS243" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT243" t="n">
         <v>1.5</v>
@@ -50026,10 +50026,10 @@
         <v>1.67</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU244" t="n">
         <v>1.45</v>
@@ -50229,7 +50229,7 @@
         <v>1.4</v>
       </c>
       <c r="AS245" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT245" t="n">
         <v>1.5</v>
@@ -50432,10 +50432,10 @@
         <v>0.57</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT246" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU246" t="n">
         <v>1.39</v>
@@ -50638,7 +50638,7 @@
         <v>0.38</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU247" t="n">
         <v>0.74</v>
@@ -50838,10 +50838,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS248" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU248" t="n">
         <v>1.12</v>
@@ -51247,7 +51247,7 @@
         <v>2.07</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU250" t="n">
         <v>2.34</v>
@@ -51650,7 +51650,7 @@
         <v>0.36</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT252" t="n">
         <v>0.38</v>
@@ -51856,7 +51856,7 @@
         <v>1.69</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU253" t="n">
         <v>1.79</v>
@@ -52056,7 +52056,7 @@
         <v>2.5</v>
       </c>
       <c r="AS254" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT254" t="n">
         <v>2.41</v>
@@ -52262,7 +52262,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU255" t="n">
         <v>1.04</v>
@@ -52465,7 +52465,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU256" t="n">
         <v>1.15</v>
@@ -52665,10 +52665,10 @@
         <v>1.08</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU257" t="n">
         <v>1.8</v>
@@ -52868,7 +52868,7 @@
         <v>0.33</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT258" t="n">
         <v>0.38</v>
@@ -53074,7 +53074,7 @@
         <v>0.38</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU259" t="n">
         <v>0.74</v>
@@ -53274,7 +53274,7 @@
         <v>1.8</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT260" t="n">
         <v>1.82</v>
@@ -53680,10 +53680,10 @@
         <v>0.86</v>
       </c>
       <c r="AS262" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU262" t="n">
         <v>1.06</v>
@@ -53886,7 +53886,7 @@
         <v>1.56</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU263" t="n">
         <v>1.25</v>
@@ -54492,10 +54492,10 @@
         <v>1.64</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU266" t="n">
         <v>1.8</v>
@@ -54695,10 +54695,10 @@
         <v>1.5</v>
       </c>
       <c r="AS267" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU267" t="n">
         <v>1.11</v>
@@ -54901,7 +54901,7 @@
         <v>2.13</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU268" t="n">
         <v>1.63</v>
@@ -55101,10 +55101,10 @@
         <v>0.53</v>
       </c>
       <c r="AS269" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU269" t="n">
         <v>1.17</v>
@@ -55304,7 +55304,7 @@
         <v>1.57</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT270" t="n">
         <v>1.5</v>
@@ -55916,7 +55916,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU273" t="n">
         <v>1.01</v>
@@ -56116,10 +56116,10 @@
         <v>1.62</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU274" t="n">
         <v>1.81</v>
@@ -56319,7 +56319,7 @@
         <v>1.53</v>
       </c>
       <c r="AS275" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT275" t="n">
         <v>1.5</v>
@@ -56728,7 +56728,7 @@
         <v>1.69</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AU277" t="n">
         <v>1.72</v>
@@ -56928,7 +56928,7 @@
         <v>1.93</v>
       </c>
       <c r="AS278" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT278" t="n">
         <v>1.88</v>
@@ -57334,7 +57334,7 @@
         <v>1</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AT280" t="n">
         <v>0.88</v>
@@ -57540,7 +57540,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AU281" t="n">
         <v>1.17</v>
@@ -57743,7 +57743,7 @@
         <v>1.69</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AU282" t="n">
         <v>1.66</v>
@@ -57943,7 +57943,7 @@
         <v>0.93</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT283" t="n">
         <v>0.88</v>
@@ -58552,7 +58552,7 @@
         <v>1.8</v>
       </c>
       <c r="AS286" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT286" t="n">
         <v>1.88</v>
@@ -58755,10 +58755,10 @@
         <v>1.4</v>
       </c>
       <c r="AS287" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU287" t="n">
         <v>1.07</v>
@@ -58958,7 +58958,7 @@
         <v>2.56</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT288" t="n">
         <v>2.41</v>
@@ -59216,6 +59216,1630 @@
       </c>
       <c r="BK289" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>3239416</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>44921.04166666666</v>
+      </c>
+      <c r="F290" t="n">
+        <v>33</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Hebei CFFC</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>3</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>3</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>1</v>
+      </c>
+      <c r="R290" t="n">
+        <v>6</v>
+      </c>
+      <c r="S290" t="n">
+        <v>7</v>
+      </c>
+      <c r="T290" t="n">
+        <v>0</v>
+      </c>
+      <c r="U290" t="n">
+        <v>0</v>
+      </c>
+      <c r="V290" t="n">
+        <v>0</v>
+      </c>
+      <c r="W290" t="n">
+        <v>0</v>
+      </c>
+      <c r="X290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>3239417</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>44921.04166666666</v>
+      </c>
+      <c r="F291" t="n">
+        <v>33</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>3</v>
+      </c>
+      <c r="N291" t="n">
+        <v>3</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>6</v>
+      </c>
+      <c r="R291" t="n">
+        <v>6</v>
+      </c>
+      <c r="S291" t="n">
+        <v>12</v>
+      </c>
+      <c r="T291" t="n">
+        <v>0</v>
+      </c>
+      <c r="U291" t="n">
+        <v>0</v>
+      </c>
+      <c r="V291" t="n">
+        <v>0</v>
+      </c>
+      <c r="W291" t="n">
+        <v>0</v>
+      </c>
+      <c r="X291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3239419</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>44921.04166666666</v>
+      </c>
+      <c r="F292" t="n">
+        <v>33</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Shandong Luneng</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>3</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>3</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T292" t="n">
+        <v>0</v>
+      </c>
+      <c r="U292" t="n">
+        <v>0</v>
+      </c>
+      <c r="V292" t="n">
+        <v>0</v>
+      </c>
+      <c r="W292" t="n">
+        <v>0</v>
+      </c>
+      <c r="X292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3239421</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>44922.16666666666</v>
+      </c>
+      <c r="F293" t="n">
+        <v>33</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Guangzhou Evergrande</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="n">
+        <v>4</v>
+      </c>
+      <c r="N293" t="n">
+        <v>5</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>2</v>
+      </c>
+      <c r="R293" t="n">
+        <v>7</v>
+      </c>
+      <c r="S293" t="n">
+        <v>9</v>
+      </c>
+      <c r="T293" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V293" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X293" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>3239414</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>44922.16666666666</v>
+      </c>
+      <c r="F294" t="n">
+        <v>33</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>3</v>
+      </c>
+      <c r="N294" t="n">
+        <v>3</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T294" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V294" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X294" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3239415</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>44922.16666666666</v>
+      </c>
+      <c r="F295" t="n">
+        <v>33</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Guangzhou R&amp;F</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>2</v>
+      </c>
+      <c r="K295" t="n">
+        <v>2</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>3</v>
+      </c>
+      <c r="N295" t="n">
+        <v>3</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>['15', '45+2', '89']</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>2</v>
+      </c>
+      <c r="R295" t="n">
+        <v>7</v>
+      </c>
+      <c r="S295" t="n">
+        <v>9</v>
+      </c>
+      <c r="T295" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V295" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X295" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>3239418</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>44922.16666666666</v>
+      </c>
+      <c r="F296" t="n">
+        <v>33</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Wuhan Zall</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>1</v>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="n">
+        <v>3</v>
+      </c>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+      <c r="N296" t="n">
+        <v>4</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['57', '80', '82']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>8</v>
+      </c>
+      <c r="R296" t="n">
+        <v>5</v>
+      </c>
+      <c r="S296" t="n">
+        <v>13</v>
+      </c>
+      <c r="T296" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V296" t="n">
+        <v>13</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X296" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>3239420</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>44922.16666666666</v>
+      </c>
+      <c r="F297" t="n">
+        <v>33</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+      <c r="N297" t="n">
+        <v>2</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>4</v>
+      </c>
+      <c r="R297" t="n">
+        <v>2</v>
+      </c>
+      <c r="S297" t="n">
+        <v>6</v>
+      </c>
+      <c r="T297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V297" t="n">
+        <v>5</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X297" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK297"/>
+  <dimension ref="A1:BK298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.69</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT11" t="n">
         <v>0.38</v>
@@ -4760,7 +4760,7 @@
         <v>1.88</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU21" t="n">
         <v>1.43</v>
@@ -7399,7 +7399,7 @@
         <v>1.35</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU34" t="n">
         <v>1.16</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT38" t="n">
         <v>1.76</v>
@@ -9023,7 +9023,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU42" t="n">
         <v>0.62</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT53" t="n">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>1.18</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU61" t="n">
         <v>1.24</v>
@@ -14501,7 +14501,7 @@
         <v>2.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT69" t="n">
         <v>1.47</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT81" t="n">
         <v>0.75</v>
@@ -19579,7 +19579,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU94" t="n">
         <v>1.45</v>
@@ -21200,7 +21200,7 @@
         <v>1.33</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT102" t="n">
         <v>1.88</v>
@@ -24045,7 +24045,7 @@
         <v>2</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU116" t="n">
         <v>1.5</v>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU123" t="n">
         <v>0.95</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT133" t="n">
         <v>0.88</v>
@@ -28917,7 +28917,7 @@
         <v>1.65</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU140" t="n">
         <v>1.83</v>
@@ -30135,7 +30135,7 @@
         <v>1.69</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU146" t="n">
         <v>1.73</v>
@@ -31959,7 +31959,7 @@
         <v>0.67</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT155" t="n">
         <v>1.5</v>
@@ -36834,7 +36834,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU179" t="n">
         <v>1.14</v>
@@ -37443,7 +37443,7 @@
         <v>1.94</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU182" t="n">
         <v>1.39</v>
@@ -39064,7 +39064,7 @@
         <v>0.86</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT190" t="n">
         <v>1.38</v>
@@ -40079,7 +40079,7 @@
         <v>1.71</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT195" t="n">
         <v>1.82</v>
@@ -40488,7 +40488,7 @@
         <v>1.47</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU197" t="n">
         <v>1.35</v>
@@ -41906,7 +41906,7 @@
         <v>0.73</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT204" t="n">
         <v>0.71</v>
@@ -43533,7 +43533,7 @@
         <v>0.65</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU212" t="n">
         <v>1.13</v>
@@ -46372,7 +46372,7 @@
         <v>1.36</v>
       </c>
       <c r="AS226" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT226" t="n">
         <v>1.5</v>
@@ -47184,7 +47184,7 @@
         <v>1.33</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT230" t="n">
         <v>1.12</v>
@@ -49420,7 +49420,7 @@
         <v>0.38</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU241" t="n">
         <v>0.73</v>
@@ -51244,7 +51244,7 @@
         <v>1.4</v>
       </c>
       <c r="AS250" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT250" t="n">
         <v>1.5</v>
@@ -53480,7 +53480,7 @@
         <v>1.56</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AU261" t="n">
         <v>1.29</v>
@@ -54086,7 +54086,7 @@
         <v>2</v>
       </c>
       <c r="AS264" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT264" t="n">
         <v>1.88</v>
@@ -59223,7 +59223,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>3239416</v>
+        <v>3239421</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -59236,19 +59236,19 @@
         </is>
       </c>
       <c r="E290" s="2" t="n">
-        <v>44921.04166666666</v>
+        <v>44922.16666666666</v>
       </c>
       <c r="F290" t="n">
         <v>33</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Shijiazhuang Ever Bright</t>
+          <t>Guangzhou Evergrande</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Hebei CFFC</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I290" t="n">
@@ -59261,164 +59261,164 @@
         <v>0</v>
       </c>
       <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>4</v>
+      </c>
+      <c r="N290" t="n">
+        <v>5</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
         <v>3</v>
       </c>
-      <c r="M290" t="n">
-        <v>0</v>
-      </c>
-      <c r="N290" t="n">
-        <v>3</v>
-      </c>
-      <c r="O290" t="inlineStr">
-        <is>
-          <t>['-1', '-1', '-1']</t>
-        </is>
-      </c>
-      <c r="P290" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q290" t="n">
-        <v>1</v>
-      </c>
       <c r="R290" t="n">
+        <v>7</v>
+      </c>
+      <c r="S290" t="n">
+        <v>10</v>
+      </c>
+      <c r="T290" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V290" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X290" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH290" t="n">
         <v>6</v>
       </c>
-      <c r="S290" t="n">
-        <v>7</v>
-      </c>
-      <c r="T290" t="n">
-        <v>0</v>
-      </c>
-      <c r="U290" t="n">
-        <v>0</v>
-      </c>
-      <c r="V290" t="n">
-        <v>0</v>
-      </c>
-      <c r="W290" t="n">
-        <v>0</v>
-      </c>
-      <c r="X290" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y290" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ290" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AR290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS290" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU290" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AV290" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AW290" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AX290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY290" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ290" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA290" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB290" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC290" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD290" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE290" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF290" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG290" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH290" t="n">
-        <v>3</v>
-      </c>
       <c r="BI290" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ290" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BK290" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291">
@@ -59426,7 +59426,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>3239417</v>
+        <v>3239414</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -59439,19 +59439,19 @@
         </is>
       </c>
       <c r="E291" s="2" t="n">
-        <v>44921.04166666666</v>
+        <v>44922.16666666666</v>
       </c>
       <c r="F291" t="n">
         <v>33</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Tianjin Teda</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Dalian Yifang</t>
+          <t>Shanghai SIPG</t>
         </is>
       </c>
       <c r="I291" t="n">
@@ -59483,145 +59483,145 @@
         </is>
       </c>
       <c r="Q291" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R291" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S291" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T291" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V291" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X291" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC291" t="n">
         <v>6</v>
       </c>
-      <c r="R291" t="n">
-        <v>6</v>
-      </c>
-      <c r="S291" t="n">
-        <v>12</v>
-      </c>
-      <c r="T291" t="n">
-        <v>0</v>
-      </c>
-      <c r="U291" t="n">
-        <v>0</v>
-      </c>
-      <c r="V291" t="n">
-        <v>0</v>
-      </c>
-      <c r="W291" t="n">
-        <v>0</v>
-      </c>
-      <c r="X291" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y291" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z291" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA291" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB291" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC291" t="n">
-        <v>0</v>
-      </c>
       <c r="AD291" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE291" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF291" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG291" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH291" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI291" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ291" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AK291" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AL291" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AM291" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO291" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AP291" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AQ291" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB291" t="n">
         <v>1.56</v>
       </c>
-      <c r="AR291" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AS291" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AT291" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AU291" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AV291" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AW291" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AX291" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY291" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ291" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA291" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB291" t="n">
-        <v>0</v>
-      </c>
       <c r="BC291" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="BD291" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="BE291" t="n">
         <v>0</v>
       </c>
       <c r="BF291" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BG291" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BH291" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BI291" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BJ291" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BK291" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292">
@@ -59629,7 +59629,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>3239419</v>
+        <v>3239415</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -59642,189 +59642,189 @@
         </is>
       </c>
       <c r="E292" s="2" t="n">
-        <v>44921.04166666666</v>
+        <v>44922.16666666666</v>
       </c>
       <c r="F292" t="n">
         <v>33</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Shandong Luneng</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Guangzhou R&amp;F</t>
         </is>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
       <c r="J292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
         <v>3</v>
-      </c>
-      <c r="M292" t="n">
-        <v>0</v>
       </c>
       <c r="N292" t="n">
         <v>3</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['15', '45+2', '89']</t>
         </is>
       </c>
       <c r="Q292" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R292" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S292" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T292" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="U292" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="V292" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W292" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X292" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Y292" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Z292" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AA292" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB292" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC292" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD292" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AE292" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF292" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AG292" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH292" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI292" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ292" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK292" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AL292" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AM292" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AN292" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AO292" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP292" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ292" t="n">
-        <v>2.67</v>
+        <v>1</v>
       </c>
       <c r="AR292" t="n">
-        <v>1.19</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS292" t="n">
-        <v>2.69</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT292" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU292" t="n">
         <v>1.12</v>
       </c>
-      <c r="AU292" t="n">
-        <v>2.04</v>
-      </c>
       <c r="AV292" t="n">
-        <v>1.43</v>
+        <v>0.86</v>
       </c>
       <c r="AW292" t="n">
-        <v>3.47</v>
+        <v>1.98</v>
       </c>
       <c r="AX292" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AY292" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AZ292" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BA292" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BB292" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="BC292" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="BD292" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="BE292" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BF292" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG292" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH292" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI292" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ292" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK292" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293">
@@ -59832,7 +59832,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>3239421</v>
+        <v>3239416</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -59852,12 +59852,12 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Guangzhou Evergrande</t>
+          <t>Shijiazhuang Ever Bright</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Hebei CFFC</t>
         </is>
       </c>
       <c r="I293" t="n">
@@ -59870,164 +59870,164 @@
         <v>0</v>
       </c>
       <c r="L293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M293" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N293" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>['-1']</t>
+          <t>['-1', '-1', '-1']</t>
         </is>
       </c>
       <c r="P293" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1', '-1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R293" t="n">
+        <v>6</v>
+      </c>
+      <c r="S293" t="n">
         <v>7</v>
       </c>
-      <c r="S293" t="n">
-        <v>9</v>
-      </c>
       <c r="T293" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="U293" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V293" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="W293" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="X293" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Y293" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="Z293" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA293" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB293" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AC293" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="AD293" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AE293" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AF293" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AG293" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH293" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI293" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AJ293" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AK293" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AL293" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AM293" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AN293" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AO293" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AP293" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AQ293" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR293" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AS293" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AU293" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AV293" t="n">
-        <v>1.31</v>
+        <v>0.7</v>
       </c>
       <c r="AW293" t="n">
-        <v>2.46</v>
+        <v>1.77</v>
       </c>
       <c r="AX293" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AY293" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AZ293" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="BA293" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BB293" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="BC293" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="BD293" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BE293" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="BF293" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG293" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH293" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI293" t="n">
         <v>6</v>
       </c>
-      <c r="BI293" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ293" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BK293" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294">
@@ -60035,7 +60035,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>3239414</v>
+        <v>3239418</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -60055,182 +60055,182 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Chengdu Better City FC</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Shanghai SIPG</t>
+          <t>Wuhan Zall</t>
         </is>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
       <c r="J294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L294" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M294" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N294" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['57', '80', '82']</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1']</t>
+          <t>['45+1']</t>
         </is>
       </c>
       <c r="Q294" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R294" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S294" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T294" t="n">
-        <v>5.5</v>
+        <v>1.57</v>
       </c>
       <c r="U294" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="V294" t="n">
-        <v>2.05</v>
+        <v>13</v>
       </c>
       <c r="W294" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X294" t="n">
-        <v>3.25</v>
+        <v>3.14</v>
       </c>
       <c r="Y294" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL294" t="n">
         <v>2.63</v>
       </c>
-      <c r="Z294" t="n">
+      <c r="AM294" t="n">
         <v>1.44</v>
       </c>
-      <c r="AA294" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB294" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC294" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD294" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE294" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AF294" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG294" t="n">
+      <c r="AN294" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK294" t="n">
         <v>13</v>
-      </c>
-      <c r="AH294" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI294" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AJ294" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK294" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AL294" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AM294" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN294" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO294" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AP294" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AQ294" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AR294" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AS294" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AT294" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AU294" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AV294" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AW294" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AX294" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY294" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ294" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BA294" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB294" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="BC294" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="BD294" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="BE294" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF294" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BG294" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BH294" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BI294" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BJ294" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BK294" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="295">
@@ -60238,7 +60238,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>3239415</v>
+        <v>3239420</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -60258,164 +60258,164 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Henan Jianye</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Guangzhou R&amp;F</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M295" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>['15', '45+2', '89']</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q295" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R295" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S295" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T295" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="U295" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="V295" t="n">
-        <v>1.91</v>
+        <v>5</v>
       </c>
       <c r="W295" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="X295" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="Y295" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="Z295" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AA295" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AB295" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AC295" t="n">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="AD295" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE295" t="n">
         <v>4.75</v>
-      </c>
-      <c r="AE295" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF295" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG295" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH295" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI295" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ295" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AK295" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AL295" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AM295" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AN295" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AO295" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP295" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AQ295" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR295" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AS295" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT295" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU295" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AV295" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AW295" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AX295" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AY295" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ295" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="BA295" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BB295" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="BC295" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="BD295" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BE295" t="n">
-        <v>4.5</v>
       </c>
       <c r="BF295" t="n">
         <v>3</v>
@@ -60427,13 +60427,13 @@
         <v>5</v>
       </c>
       <c r="BI295" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ295" t="n">
         <v>8</v>
       </c>
       <c r="BK295" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296">
@@ -60441,7 +60441,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>3239418</v>
+        <v>3239417</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -60454,189 +60454,189 @@
         </is>
       </c>
       <c r="E296" s="2" t="n">
-        <v>44922.16666666666</v>
+        <v>44922.375</v>
       </c>
       <c r="F296" t="n">
         <v>33</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Chengdu Better City FC</t>
+          <t>Tianjin Teda</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Wuhan Zall</t>
+          <t>Dalian Yifang</t>
         </is>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
         <v>3</v>
       </c>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
       <c r="N296" t="n">
+        <v>3</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>6</v>
+      </c>
+      <c r="R296" t="n">
+        <v>6</v>
+      </c>
+      <c r="S296" t="n">
+        <v>12</v>
+      </c>
+      <c r="T296" t="n">
+        <v>0</v>
+      </c>
+      <c r="U296" t="n">
+        <v>0</v>
+      </c>
+      <c r="V296" t="n">
+        <v>0</v>
+      </c>
+      <c r="W296" t="n">
+        <v>0</v>
+      </c>
+      <c r="X296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF296" t="n">
         <v>4</v>
-      </c>
-      <c r="O296" t="inlineStr">
-        <is>
-          <t>['57', '80', '82']</t>
-        </is>
-      </c>
-      <c r="P296" t="inlineStr">
-        <is>
-          <t>['45+1']</t>
-        </is>
-      </c>
-      <c r="Q296" t="n">
-        <v>8</v>
-      </c>
-      <c r="R296" t="n">
-        <v>5</v>
-      </c>
-      <c r="S296" t="n">
-        <v>13</v>
-      </c>
-      <c r="T296" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U296" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V296" t="n">
-        <v>13</v>
-      </c>
-      <c r="W296" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X296" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Y296" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Z296" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA296" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AB296" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC296" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD296" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE296" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF296" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG296" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH296" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI296" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AJ296" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AK296" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AL296" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AM296" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN296" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AO296" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AP296" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="AQ296" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AR296" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AS296" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AT296" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AU296" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AV296" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW296" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AX296" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AY296" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AZ296" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="BA296" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BB296" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BC296" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD296" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BE296" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BF296" t="n">
-        <v>12</v>
       </c>
       <c r="BG296" t="n">
         <v>5</v>
       </c>
       <c r="BH296" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BI296" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ296" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="BK296" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297">
@@ -60644,7 +60644,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>3239420</v>
+        <v>3239419</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -60657,19 +60657,19 @@
         </is>
       </c>
       <c r="E297" s="2" t="n">
-        <v>44922.16666666666</v>
+        <v>44922.375</v>
       </c>
       <c r="F297" t="n">
         <v>33</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Henan Jianye</t>
+          <t>Shandong Luneng</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -60682,164 +60682,367 @@
         <v>0</v>
       </c>
       <c r="L297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['-1', '-1', '-1']</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>['87']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q297" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="R297" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S297" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="T297" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="U297" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V297" t="n">
+        <v>0</v>
+      </c>
+      <c r="W297" t="n">
+        <v>0</v>
+      </c>
+      <c r="X297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>3239422</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>44922.375</v>
+      </c>
+      <c r="F298" t="n">
+        <v>33</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="n">
+        <v>2</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>2</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['45+5', '90+5']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>3</v>
+      </c>
+      <c r="R298" t="n">
+        <v>2</v>
+      </c>
+      <c r="S298" t="n">
         <v>5</v>
       </c>
-      <c r="W297" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X297" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y297" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z297" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA297" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB297" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC297" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AD297" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE297" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AF297" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG297" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AH297" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI297" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ297" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK297" t="n">
+      <c r="T298" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V298" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X298" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AV298" t="n">
         <v>1.7</v>
       </c>
-      <c r="AL297" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM297" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN297" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO297" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP297" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AQ297" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AR297" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS297" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AT297" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AU297" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AV297" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AW297" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AX297" t="n">
+      <c r="AW298" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB298" t="n">
         <v>1.6</v>
       </c>
-      <c r="AY297" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ297" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BA297" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BB297" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BC297" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="BD297" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BE297" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="BF297" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG297" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH297" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI297" t="n">
+      <c r="BC298" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF298" t="n">
         <v>9</v>
       </c>
-      <c r="BJ297" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK297" t="n">
-        <v>17</v>
+      <c r="BG298" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK298"/>
+  <dimension ref="A1:BK300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT4" t="n">
         <v>2.41</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT15" t="n">
         <v>1.76</v>
@@ -4354,7 +4354,7 @@
         <v>1.47</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT22" t="n">
         <v>1.76</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT26" t="n">
         <v>2.41</v>
@@ -6587,7 +6587,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU30" t="n">
         <v>0.65</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT32" t="n">
         <v>1.47</v>
@@ -8820,7 +8820,7 @@
         <v>1.18</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU41" t="n">
         <v>1.33</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT43" t="n">
         <v>0.75</v>
@@ -9429,7 +9429,7 @@
         <v>1.65</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU44" t="n">
         <v>1.54</v>
@@ -10241,7 +10241,7 @@
         <v>1.35</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU48" t="n">
         <v>1.29</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT54" t="n">
         <v>0.38</v>
@@ -11662,7 +11662,7 @@
         <v>1.94</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU55" t="n">
         <v>1.13</v>
@@ -11865,7 +11865,7 @@
         <v>2.69</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU56" t="n">
         <v>1.58</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT63" t="n">
         <v>0.75</v>
@@ -13692,7 +13692,7 @@
         <v>1.69</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU65" t="n">
         <v>1.4</v>
@@ -14707,7 +14707,7 @@
         <v>2.13</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU70" t="n">
         <v>1.3</v>
@@ -15922,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT76" t="n">
         <v>0</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU79" t="n">
         <v>1.02</v>
@@ -18155,7 +18155,7 @@
         <v>0</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT87" t="n">
         <v>0.38</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT92" t="n">
         <v>1.5</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT93" t="n">
         <v>1.82</v>
@@ -20997,7 +20997,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT101" t="n">
         <v>1.5</v>
@@ -22418,7 +22418,7 @@
         <v>2.14</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT108" t="n">
         <v>1.88</v>
@@ -22624,7 +22624,7 @@
         <v>2</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU109" t="n">
         <v>1.55</v>
@@ -22824,7 +22824,7 @@
         <v>1.71</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT110" t="n">
         <v>1.82</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT115" t="n">
         <v>1.5</v>
@@ -24248,7 +24248,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU117" t="n">
         <v>1.21</v>
@@ -24651,7 +24651,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT119" t="n">
         <v>1.5</v>
@@ -24857,7 +24857,7 @@
         <v>0.65</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU120" t="n">
         <v>1.1</v>
@@ -27496,7 +27496,7 @@
         <v>2.13</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU133" t="n">
         <v>2.39</v>
@@ -27696,7 +27696,7 @@
         <v>2.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT134" t="n">
         <v>1.88</v>
@@ -28511,7 +28511,7 @@
         <v>1.35</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU138" t="n">
         <v>1.54</v>
@@ -30944,7 +30944,7 @@
         <v>1.5</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT150" t="n">
         <v>1.12</v>
@@ -31150,7 +31150,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU151" t="n">
         <v>1.17</v>
@@ -32774,7 +32774,7 @@
         <v>1.94</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU159" t="n">
         <v>1.4</v>
@@ -33586,7 +33586,7 @@
         <v>1.18</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU163" t="n">
         <v>1.3</v>
@@ -33786,7 +33786,7 @@
         <v>1.25</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT164" t="n">
         <v>1.5</v>
@@ -34192,10 +34192,10 @@
         <v>1.71</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU166" t="n">
         <v>1.26</v>
@@ -34601,7 +34601,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU168" t="n">
         <v>1.01</v>
@@ -38861,7 +38861,7 @@
         <v>0.44</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT189" t="n">
         <v>0.71</v>
@@ -39267,7 +39267,7 @@
         <v>0.5</v>
       </c>
       <c r="AS191" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT191" t="n">
         <v>0.71</v>
@@ -39673,7 +39673,7 @@
         <v>1.3</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT193" t="n">
         <v>1.5</v>
@@ -39879,7 +39879,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU194" t="n">
         <v>1.17</v>
@@ -41503,7 +41503,7 @@
         <v>2.13</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU202" t="n">
         <v>1.64</v>
@@ -42721,7 +42721,7 @@
         <v>1.65</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU208" t="n">
         <v>1.86</v>
@@ -44142,7 +44142,7 @@
         <v>1.69</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU215" t="n">
         <v>1.77</v>
@@ -46375,7 +46375,7 @@
         <v>2.13</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU226" t="n">
         <v>2.37</v>
@@ -48605,7 +48605,7 @@
         <v>1.75</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT237" t="n">
         <v>1.88</v>
@@ -49417,7 +49417,7 @@
         <v>1.57</v>
       </c>
       <c r="AS241" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT241" t="n">
         <v>1.65</v>
@@ -49826,7 +49826,7 @@
         <v>0.65</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU243" t="n">
         <v>1.16</v>
@@ -50635,7 +50635,7 @@
         <v>0.91</v>
       </c>
       <c r="AS247" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT247" t="n">
         <v>1.38</v>
@@ -51044,7 +51044,7 @@
         <v>2</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU249" t="n">
         <v>1.51</v>
@@ -53071,7 +53071,7 @@
         <v>1.14</v>
       </c>
       <c r="AS259" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT259" t="n">
         <v>1.12</v>
@@ -53477,7 +53477,7 @@
         <v>1.67</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT261" t="n">
         <v>1.65</v>
@@ -53883,7 +53883,7 @@
         <v>1.23</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT263" t="n">
         <v>1.38</v>
@@ -54289,7 +54289,7 @@
         <v>1.71</v>
       </c>
       <c r="AS265" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT265" t="n">
         <v>1.88</v>
@@ -55307,7 +55307,7 @@
         <v>1.47</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU270" t="n">
         <v>1.4</v>
@@ -56322,7 +56322,7 @@
         <v>1</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU275" t="n">
         <v>1.08</v>
@@ -57131,10 +57131,10 @@
         <v>1.08</v>
       </c>
       <c r="AS279" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AT279" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU279" t="n">
         <v>0.71</v>
@@ -57337,7 +57337,7 @@
         <v>2.69</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU280" t="n">
         <v>1.95</v>
@@ -57946,7 +57946,7 @@
         <v>1.88</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU283" t="n">
         <v>1.47</v>
@@ -61043,6 +61043,412 @@
       </c>
       <c r="BK298" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3239429</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>44925.16666666666</v>
+      </c>
+      <c r="F299" t="n">
+        <v>34</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Hebei CFFC</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>4</v>
+      </c>
+      <c r="N299" t="n">
+        <v>4</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>['51', '62', '67', '81']</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>4</v>
+      </c>
+      <c r="R299" t="n">
+        <v>6</v>
+      </c>
+      <c r="S299" t="n">
+        <v>10</v>
+      </c>
+      <c r="T299" t="n">
+        <v>0</v>
+      </c>
+      <c r="U299" t="n">
+        <v>0</v>
+      </c>
+      <c r="V299" t="n">
+        <v>0</v>
+      </c>
+      <c r="W299" t="n">
+        <v>0</v>
+      </c>
+      <c r="X299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3239430</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>44925.16666666666</v>
+      </c>
+      <c r="F300" t="n">
+        <v>34</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>2</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>2</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>5</v>
+      </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
+      <c r="S300" t="n">
+        <v>5</v>
+      </c>
+      <c r="T300" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U300" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V300" t="n">
+        <v>15</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X300" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK300"/>
+  <dimension ref="A1:BK307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT2" t="n">
         <v>1.65</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.88</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.65</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0.65</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU20" t="n">
         <v>1.1</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT23" t="n">
         <v>1.88</v>
@@ -5572,7 +5572,7 @@
         <v>1.18</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU25" t="n">
         <v>1.81</v>
@@ -5978,7 +5978,7 @@
         <v>1.65</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU27" t="n">
         <v>1.33</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU29" t="n">
         <v>0.9399999999999999</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT30" t="n">
         <v>1.59</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU35" t="n">
         <v>1.11</v>
@@ -7805,7 +7805,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU36" t="n">
         <v>1.24</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU37" t="n">
         <v>1.15</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT38" t="n">
         <v>1.76</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>1.12</v>
@@ -9020,7 +9020,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT42" t="n">
         <v>1.65</v>
@@ -9226,7 +9226,7 @@
         <v>1.65</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU43" t="n">
         <v>1.14</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU45" t="n">
         <v>0.83</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU46" t="n">
         <v>1.44</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU47" t="n">
         <v>0.98</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU49" t="n">
         <v>0.96</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT51" t="n">
         <v>1.88</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT53" t="n">
         <v>0</v>
@@ -11459,7 +11459,7 @@
         <v>1.65</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU54" t="n">
         <v>1.48</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
         <v>0.82</v>
@@ -11862,7 +11862,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT56" t="n">
         <v>1.59</v>
@@ -12065,10 +12065,10 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU57" t="n">
         <v>1.12</v>
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT58" t="n">
         <v>1.47</v>
@@ -12471,10 +12471,10 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU59" t="n">
         <v>1.05</v>
@@ -12677,7 +12677,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU60" t="n">
         <v>1.26</v>
@@ -13286,7 +13286,7 @@
         <v>0.35</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU63" t="n">
         <v>0.55</v>
@@ -13689,7 +13689,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT65" t="n">
         <v>0.82</v>
@@ -13895,7 +13895,7 @@
         <v>1.35</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU66" t="n">
         <v>1.31</v>
@@ -14098,7 +14098,7 @@
         <v>1.47</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU67" t="n">
         <v>1.21</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT68" t="n">
         <v>0.71</v>
@@ -14501,7 +14501,7 @@
         <v>2.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT69" t="n">
         <v>1.47</v>
@@ -14704,7 +14704,7 @@
         <v>1.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT70" t="n">
         <v>1.59</v>
@@ -14910,7 +14910,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU71" t="n">
         <v>1.11</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT72" t="n">
         <v>0</v>
@@ -15313,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU73" t="n">
         <v>1.37</v>
@@ -15516,10 +15516,10 @@
         <v>1.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU74" t="n">
         <v>1.53</v>
@@ -16734,10 +16734,10 @@
         <v>1.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU80" t="n">
         <v>1.51</v>
@@ -16937,10 +16937,10 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU81" t="n">
         <v>2.4</v>
@@ -17546,7 +17546,7 @@
         <v>0.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT84" t="n">
         <v>0.71</v>
@@ -17749,7 +17749,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT85" t="n">
         <v>1.82</v>
@@ -17955,7 +17955,7 @@
         <v>1.88</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU86" t="n">
         <v>1.15</v>
@@ -18158,7 +18158,7 @@
         <v>0.35</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU87" t="n">
         <v>0.55</v>
@@ -18361,7 +18361,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU88" t="n">
         <v>1.3</v>
@@ -18764,7 +18764,7 @@
         <v>2.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT90" t="n">
         <v>2.41</v>
@@ -18970,7 +18970,7 @@
         <v>1.47</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU91" t="n">
         <v>1.32</v>
@@ -19173,7 +19173,7 @@
         <v>1.65</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU92" t="n">
         <v>1.59</v>
@@ -19982,7 +19982,7 @@
         <v>2.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT96" t="n">
         <v>2.41</v>
@@ -20388,10 +20388,10 @@
         <v>1.2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU98" t="n">
         <v>1.31</v>
@@ -20594,7 +20594,7 @@
         <v>1.88</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU99" t="n">
         <v>1.32</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU100" t="n">
         <v>0.9399999999999999</v>
@@ -21000,7 +21000,7 @@
         <v>0.35</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU101" t="n">
         <v>0.55</v>
@@ -21200,10 +21200,10 @@
         <v>1.33</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU102" t="n">
         <v>2.52</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU106" t="n">
         <v>1.02</v>
@@ -22218,7 +22218,7 @@
         <v>1.47</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU107" t="n">
         <v>1.29</v>
@@ -22621,7 +22621,7 @@
         <v>1.4</v>
       </c>
       <c r="AS109" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT109" t="n">
         <v>0.82</v>
@@ -23233,7 +23233,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU112" t="n">
         <v>1.18</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT113" t="n">
         <v>0.71</v>
@@ -23639,7 +23639,7 @@
         <v>1.35</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU114" t="n">
         <v>1.47</v>
@@ -23842,7 +23842,7 @@
         <v>0.35</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU115" t="n">
         <v>0.58</v>
@@ -24042,7 +24042,7 @@
         <v>1.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT116" t="n">
         <v>1.65</v>
@@ -24448,7 +24448,7 @@
         <v>1.88</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT118" t="n">
         <v>1.82</v>
@@ -24654,7 +24654,7 @@
         <v>1.65</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU119" t="n">
         <v>1.39</v>
@@ -25057,7 +25057,7 @@
         <v>2.71</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT121" t="n">
         <v>2.41</v>
@@ -25669,7 +25669,7 @@
         <v>0.65</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU124" t="n">
         <v>1.17</v>
@@ -26072,10 +26072,10 @@
         <v>1.57</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU126" t="n">
         <v>1.4</v>
@@ -26478,7 +26478,7 @@
         <v>1.67</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT128" t="n">
         <v>1.82</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU129" t="n">
         <v>0.97</v>
@@ -26887,7 +26887,7 @@
         <v>1.88</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU130" t="n">
         <v>1.24</v>
@@ -27087,10 +27087,10 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU131" t="n">
         <v>1.57</v>
@@ -27290,7 +27290,7 @@
         <v>0</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT132" t="n">
         <v>0</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT133" t="n">
         <v>0.82</v>
@@ -28102,10 +28102,10 @@
         <v>0.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU136" t="n">
         <v>1.58</v>
@@ -28711,10 +28711,10 @@
         <v>1.38</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU139" t="n">
         <v>0.97</v>
@@ -29120,7 +29120,7 @@
         <v>0.65</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU141" t="n">
         <v>1.11</v>
@@ -29320,7 +29320,7 @@
         <v>1.83</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT142" t="n">
         <v>1.47</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT143" t="n">
         <v>0</v>
@@ -29726,10 +29726,10 @@
         <v>0.38</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU144" t="n">
         <v>0.97</v>
@@ -30132,7 +30132,7 @@
         <v>1.22</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT146" t="n">
         <v>1.65</v>
@@ -30335,7 +30335,7 @@
         <v>2.75</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT147" t="n">
         <v>2.41</v>
@@ -30541,7 +30541,7 @@
         <v>1.88</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU148" t="n">
         <v>1.33</v>
@@ -31759,7 +31759,7 @@
         <v>1.18</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU154" t="n">
         <v>1.27</v>
@@ -31959,10 +31959,10 @@
         <v>0.67</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU155" t="n">
         <v>2.39</v>
@@ -32165,7 +32165,7 @@
         <v>1.35</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU156" t="n">
         <v>1.67</v>
@@ -32568,7 +32568,7 @@
         <v>0.43</v>
       </c>
       <c r="AS158" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT158" t="n">
         <v>0.71</v>
@@ -32771,7 +32771,7 @@
         <v>1.83</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT159" t="n">
         <v>1.59</v>
@@ -32974,7 +32974,7 @@
         <v>1.91</v>
       </c>
       <c r="AS160" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT160" t="n">
         <v>1.82</v>
@@ -33180,7 +33180,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU161" t="n">
         <v>1.14</v>
@@ -33789,7 +33789,7 @@
         <v>0.35</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU164" t="n">
         <v>0.6899999999999999</v>
@@ -33992,7 +33992,7 @@
         <v>1.35</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU165" t="n">
         <v>1.57</v>
@@ -34395,7 +34395,7 @@
         <v>2.6</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT167" t="n">
         <v>2.41</v>
@@ -34598,7 +34598,7 @@
         <v>0.91</v>
       </c>
       <c r="AS168" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT168" t="n">
         <v>0.82</v>
@@ -34804,7 +34804,7 @@
         <v>1.18</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU169" t="n">
         <v>1.29</v>
@@ -35207,10 +35207,10 @@
         <v>1.33</v>
       </c>
       <c r="AS171" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU171" t="n">
         <v>1.47</v>
@@ -35410,7 +35410,7 @@
         <v>2.18</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT172" t="n">
         <v>1.88</v>
@@ -37440,7 +37440,7 @@
         <v>1.36</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT182" t="n">
         <v>1.65</v>
@@ -37646,7 +37646,7 @@
         <v>1.88</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU183" t="n">
         <v>1.46</v>
@@ -37849,7 +37849,7 @@
         <v>1.18</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU184" t="n">
         <v>1.25</v>
@@ -38049,7 +38049,7 @@
         <v>1.5</v>
       </c>
       <c r="AS185" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT185" t="n">
         <v>1.12</v>
@@ -38252,10 +38252,10 @@
         <v>0.4</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU186" t="n">
         <v>1.73</v>
@@ -38661,7 +38661,7 @@
         <v>1.47</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU188" t="n">
         <v>1.27</v>
@@ -39064,10 +39064,10 @@
         <v>0.86</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU190" t="n">
         <v>2.48</v>
@@ -39676,7 +39676,7 @@
         <v>1.65</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU193" t="n">
         <v>1.3</v>
@@ -40079,7 +40079,7 @@
         <v>1.71</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT195" t="n">
         <v>1.82</v>
@@ -40285,7 +40285,7 @@
         <v>1.65</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU196" t="n">
         <v>1.83</v>
@@ -40688,7 +40688,7 @@
         <v>1.89</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT198" t="n">
         <v>1.76</v>
@@ -40894,7 +40894,7 @@
         <v>1.35</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU199" t="n">
         <v>1.53</v>
@@ -41297,10 +41297,10 @@
         <v>1.5</v>
       </c>
       <c r="AS201" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU201" t="n">
         <v>1.72</v>
@@ -41500,7 +41500,7 @@
         <v>0.92</v>
       </c>
       <c r="AS202" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT202" t="n">
         <v>0.82</v>
@@ -41703,7 +41703,7 @@
         <v>0</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT203" t="n">
         <v>0</v>
@@ -41906,7 +41906,7 @@
         <v>0.73</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT204" t="n">
         <v>0.71</v>
@@ -42109,10 +42109,10 @@
         <v>0.75</v>
       </c>
       <c r="AS205" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU205" t="n">
         <v>1.59</v>
@@ -42315,7 +42315,7 @@
         <v>0.65</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU206" t="n">
         <v>1.11</v>
@@ -42921,7 +42921,7 @@
         <v>1.7</v>
       </c>
       <c r="AS209" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT209" t="n">
         <v>1.47</v>
@@ -43327,10 +43327,10 @@
         <v>1.44</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU211" t="n">
         <v>1.55</v>
@@ -43936,10 +43936,10 @@
         <v>1.42</v>
       </c>
       <c r="AS214" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU214" t="n">
         <v>1.56</v>
@@ -44139,7 +44139,7 @@
         <v>1.5</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT215" t="n">
         <v>1.59</v>
@@ -44548,7 +44548,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU217" t="n">
         <v>1.15</v>
@@ -44748,7 +44748,7 @@
         <v>0</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT218" t="n">
         <v>0</v>
@@ -44954,7 +44954,7 @@
         <v>1.18</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU219" t="n">
         <v>1.21</v>
@@ -45154,7 +45154,7 @@
         <v>1.18</v>
       </c>
       <c r="AS220" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT220" t="n">
         <v>1.12</v>
@@ -45357,7 +45357,7 @@
         <v>1.55</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT221" t="n">
         <v>1.47</v>
@@ -45563,7 +45563,7 @@
         <v>1.35</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU222" t="n">
         <v>1.54</v>
@@ -45969,7 +45969,7 @@
         <v>1.65</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU224" t="n">
         <v>1.8</v>
@@ -46169,10 +46169,10 @@
         <v>1.31</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU225" t="n">
         <v>1.64</v>
@@ -46372,7 +46372,7 @@
         <v>1.36</v>
       </c>
       <c r="AS226" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT226" t="n">
         <v>1.59</v>
@@ -46981,10 +46981,10 @@
         <v>1.64</v>
       </c>
       <c r="AS229" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU229" t="n">
         <v>1.03</v>
@@ -47184,7 +47184,7 @@
         <v>1.33</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT230" t="n">
         <v>1.12</v>
@@ -47387,7 +47387,7 @@
         <v>2.15</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT231" t="n">
         <v>1.88</v>
@@ -47593,7 +47593,7 @@
         <v>1</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU232" t="n">
         <v>1.03</v>
@@ -47796,7 +47796,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU233" t="n">
         <v>1.15</v>
@@ -47996,7 +47996,7 @@
         <v>1.82</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT234" t="n">
         <v>1.76</v>
@@ -48202,7 +48202,7 @@
         <v>1.88</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU235" t="n">
         <v>1.48</v>
@@ -48402,7 +48402,7 @@
         <v>0.62</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT236" t="n">
         <v>0.71</v>
@@ -48608,7 +48608,7 @@
         <v>1.65</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU237" t="n">
         <v>1.31</v>
@@ -48811,7 +48811,7 @@
         <v>1.18</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU238" t="n">
         <v>1.3</v>
@@ -49214,10 +49214,10 @@
         <v>0.75</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU240" t="n">
         <v>1.84</v>
@@ -50229,10 +50229,10 @@
         <v>1.4</v>
       </c>
       <c r="AS245" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AU245" t="n">
         <v>1.89</v>
@@ -50638,7 +50638,7 @@
         <v>0.35</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU247" t="n">
         <v>0.74</v>
@@ -50841,7 +50841,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU248" t="n">
         <v>1.12</v>
@@ -51041,7 +51041,7 @@
         <v>1.46</v>
       </c>
       <c r="AS249" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT249" t="n">
         <v>1.59</v>
@@ -51244,10 +51244,10 @@
         <v>1.4</v>
       </c>
       <c r="AS250" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU250" t="n">
         <v>2.34</v>
@@ -51447,10 +51447,10 @@
         <v>1.85</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU251" t="n">
         <v>1.63</v>
@@ -51650,10 +51650,10 @@
         <v>0.36</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU252" t="n">
         <v>1.75</v>
@@ -51853,7 +51853,7 @@
         <v>1.31</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT253" t="n">
         <v>1.47</v>
@@ -52259,7 +52259,7 @@
         <v>1.54</v>
       </c>
       <c r="AS255" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT255" t="n">
         <v>1.76</v>
@@ -52465,7 +52465,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU256" t="n">
         <v>1.15</v>
@@ -52668,7 +52668,7 @@
         <v>1.65</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU257" t="n">
         <v>1.8</v>
@@ -52871,7 +52871,7 @@
         <v>1.47</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU258" t="n">
         <v>1.39</v>
@@ -53683,7 +53683,7 @@
         <v>1</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU262" t="n">
         <v>1.06</v>
@@ -53886,7 +53886,7 @@
         <v>1.65</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU263" t="n">
         <v>1.25</v>
@@ -54086,7 +54086,7 @@
         <v>2</v>
       </c>
       <c r="AS264" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT264" t="n">
         <v>1.88</v>
@@ -54292,7 +54292,7 @@
         <v>0.35</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU265" t="n">
         <v>0.72</v>
@@ -54492,7 +54492,7 @@
         <v>1.64</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT266" t="n">
         <v>1.76</v>
@@ -54698,7 +54698,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU267" t="n">
         <v>1.11</v>
@@ -54898,7 +54898,7 @@
         <v>1.27</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT268" t="n">
         <v>1.12</v>
@@ -55713,7 +55713,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU272" t="n">
         <v>1.17</v>
@@ -55913,7 +55913,7 @@
         <v>1.43</v>
       </c>
       <c r="AS273" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT273" t="n">
         <v>1.47</v>
@@ -56119,7 +56119,7 @@
         <v>1.65</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU274" t="n">
         <v>1.81</v>
@@ -56522,7 +56522,7 @@
         <v>1.88</v>
       </c>
       <c r="AS276" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT276" t="n">
         <v>1.82</v>
@@ -56725,7 +56725,7 @@
         <v>1.6</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT277" t="n">
         <v>1.76</v>
@@ -57334,7 +57334,7 @@
         <v>1</v>
       </c>
       <c r="AS280" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT280" t="n">
         <v>0.82</v>
@@ -57540,7 +57540,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU281" t="n">
         <v>1.17</v>
@@ -57740,10 +57740,10 @@
         <v>1.5</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU282" t="n">
         <v>1.66</v>
@@ -58146,10 +58146,10 @@
         <v>1.6</v>
       </c>
       <c r="AS284" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU284" t="n">
         <v>1.61</v>
@@ -58349,7 +58349,7 @@
         <v>0</v>
       </c>
       <c r="AS285" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AT285" t="n">
         <v>0</v>
@@ -58555,7 +58555,7 @@
         <v>0.65</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AU286" t="n">
         <v>1.17</v>
@@ -58958,7 +58958,7 @@
         <v>2.56</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT288" t="n">
         <v>2.41</v>
@@ -59161,7 +59161,7 @@
         <v>2</v>
       </c>
       <c r="AS289" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT289" t="n">
         <v>1.88</v>
@@ -59367,7 +59367,7 @@
         <v>0.65</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AU290" t="n">
         <v>1.15</v>
@@ -60176,10 +60176,10 @@
         <v>0.8</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT294" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AU294" t="n">
         <v>1.81</v>
@@ -60585,7 +60585,7 @@
         <v>1.47</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU296" t="n">
         <v>1.4</v>
@@ -60785,7 +60785,7 @@
         <v>1.19</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AT297" t="n">
         <v>1.12</v>
@@ -60988,7 +60988,7 @@
         <v>1.75</v>
       </c>
       <c r="AS298" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT298" t="n">
         <v>1.65</v>
@@ -61050,7 +61050,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>3239429</v>
+        <v>3239425</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -61063,19 +61063,19 @@
         </is>
       </c>
       <c r="E299" s="2" t="n">
-        <v>44925.16666666666</v>
+        <v>44925.08333333334</v>
       </c>
       <c r="F299" t="n">
         <v>34</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Hebei CFFC</t>
+          <t>Shandong Luneng</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Henan Jianye</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="I299" t="n">
@@ -61088,32 +61088,32 @@
         <v>0</v>
       </c>
       <c r="L299" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M299" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N299" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P299" t="inlineStr">
-        <is>
-          <t>['51', '62', '67', '81']</t>
-        </is>
-      </c>
       <c r="Q299" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="R299" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="S299" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="T299" t="n">
         <v>0</v>
@@ -61143,13 +61143,13 @@
         <v>0</v>
       </c>
       <c r="AC299" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD299" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AE299" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF299" t="n">
         <v>0</v>
@@ -61164,10 +61164,10 @@
         <v>0</v>
       </c>
       <c r="AJ299" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AK299" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AL299" t="n">
         <v>0</v>
@@ -61185,25 +61185,25 @@
         <v>0</v>
       </c>
       <c r="AQ299" t="n">
-        <v>0.38</v>
+        <v>2.69</v>
       </c>
       <c r="AR299" t="n">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AS299" t="n">
-        <v>0.35</v>
+        <v>2.71</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="AU299" t="n">
-        <v>0.72</v>
+        <v>2.04</v>
       </c>
       <c r="AV299" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AW299" t="n">
-        <v>2.25</v>
+        <v>3.74</v>
       </c>
       <c r="AX299" t="n">
         <v>0</v>
@@ -61230,22 +61230,22 @@
         <v>0</v>
       </c>
       <c r="BF299" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG299" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BH299" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BI299" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BJ299" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BK299" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300">
@@ -61253,7 +61253,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>3239430</v>
+        <v>3239431</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -61266,189 +61266,1610 @@
         </is>
       </c>
       <c r="E300" s="2" t="n">
-        <v>44925.16666666666</v>
+        <v>44925.08333333334</v>
       </c>
       <c r="F300" t="n">
         <v>34</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Tianjin Teda</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>3</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>3</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T300" t="n">
+        <v>0</v>
+      </c>
+      <c r="U300" t="n">
+        <v>0</v>
+      </c>
+      <c r="V300" t="n">
+        <v>0</v>
+      </c>
+      <c r="W300" t="n">
+        <v>0</v>
+      </c>
+      <c r="X300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>3239429</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>44925.16666666666</v>
+      </c>
+      <c r="F301" t="n">
+        <v>34</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Hebei CFFC</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Henan Jianye</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>4</v>
+      </c>
+      <c r="N301" t="n">
+        <v>4</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['51', '62', '67', '81']</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>4</v>
+      </c>
+      <c r="R301" t="n">
+        <v>6</v>
+      </c>
+      <c r="S301" t="n">
+        <v>10</v>
+      </c>
+      <c r="T301" t="n">
+        <v>0</v>
+      </c>
+      <c r="U301" t="n">
+        <v>0</v>
+      </c>
+      <c r="V301" t="n">
+        <v>0</v>
+      </c>
+      <c r="W301" t="n">
+        <v>0</v>
+      </c>
+      <c r="X301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3239430</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>44925.16666666666</v>
+      </c>
+      <c r="F302" t="n">
+        <v>34</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
           <t>Shanghai Shenhua</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
+      <c r="H302" t="inlineStr">
         <is>
           <t>Shenzhen</t>
         </is>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="n">
-        <v>0</v>
-      </c>
-      <c r="K300" t="n">
-        <v>0</v>
-      </c>
-      <c r="L300" t="n">
-        <v>2</v>
-      </c>
-      <c r="M300" t="n">
-        <v>0</v>
-      </c>
-      <c r="N300" t="n">
-        <v>2</v>
-      </c>
-      <c r="O300" t="inlineStr">
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>2</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>2</v>
+      </c>
+      <c r="O302" t="inlineStr">
         <is>
           <t>['-1', '-1']</t>
         </is>
       </c>
-      <c r="P300" t="inlineStr">
+      <c r="P302" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="Q300" t="n">
+      <c r="Q302" t="n">
         <v>5</v>
       </c>
-      <c r="R300" t="n">
-        <v>0</v>
-      </c>
-      <c r="S300" t="n">
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
+      <c r="S302" t="n">
         <v>5</v>
       </c>
-      <c r="T300" t="n">
+      <c r="T302" t="n">
         <v>1.33</v>
       </c>
-      <c r="U300" t="n">
+      <c r="U302" t="n">
         <v>3.75</v>
       </c>
-      <c r="V300" t="n">
+      <c r="V302" t="n">
         <v>15</v>
       </c>
-      <c r="W300" t="n">
+      <c r="W302" t="n">
         <v>1.15</v>
       </c>
-      <c r="X300" t="n">
+      <c r="X302" t="n">
         <v>5.25</v>
       </c>
-      <c r="Y300" t="n">
+      <c r="Y302" t="n">
         <v>1.75</v>
       </c>
-      <c r="Z300" t="n">
+      <c r="Z302" t="n">
         <v>1.95</v>
       </c>
-      <c r="AA300" t="n">
+      <c r="AA302" t="n">
         <v>3.3</v>
       </c>
-      <c r="AB300" t="n">
+      <c r="AB302" t="n">
         <v>1.3</v>
       </c>
-      <c r="AC300" t="n">
+      <c r="AC302" t="n">
         <v>1.07</v>
       </c>
-      <c r="AD300" t="n">
+      <c r="AD302" t="n">
         <v>10</v>
       </c>
-      <c r="AE300" t="n">
+      <c r="AE302" t="n">
         <v>26</v>
       </c>
-      <c r="AF300" t="n">
+      <c r="AF302" t="n">
         <v>1.01</v>
       </c>
-      <c r="AG300" t="n">
+      <c r="AG302" t="n">
         <v>49.5</v>
       </c>
-      <c r="AH300" t="n">
+      <c r="AH302" t="n">
         <v>1.07</v>
       </c>
-      <c r="AI300" t="n">
+      <c r="AI302" t="n">
         <v>9.6</v>
       </c>
-      <c r="AJ300" t="n">
+      <c r="AJ302" t="n">
         <v>1.22</v>
       </c>
-      <c r="AK300" t="n">
+      <c r="AK302" t="n">
         <v>4.2</v>
       </c>
-      <c r="AL300" t="n">
+      <c r="AL302" t="n">
         <v>2.3</v>
       </c>
-      <c r="AM300" t="n">
+      <c r="AM302" t="n">
         <v>1.55</v>
       </c>
-      <c r="AN300" t="n">
+      <c r="AN302" t="n">
         <v>1.01</v>
       </c>
-      <c r="AO300" t="n">
+      <c r="AO302" t="n">
         <v>1.03</v>
       </c>
-      <c r="AP300" t="n">
+      <c r="AP302" t="n">
         <v>11</v>
       </c>
-      <c r="AQ300" t="n">
+      <c r="AQ302" t="n">
         <v>1.56</v>
       </c>
-      <c r="AR300" t="n">
+      <c r="AR302" t="n">
         <v>0.88</v>
       </c>
-      <c r="AS300" t="n">
+      <c r="AS302" t="n">
         <v>1.65</v>
       </c>
-      <c r="AT300" t="n">
+      <c r="AT302" t="n">
         <v>0.82</v>
       </c>
-      <c r="AU300" t="n">
+      <c r="AU302" t="n">
         <v>1.23</v>
       </c>
-      <c r="AV300" t="n">
+      <c r="AV302" t="n">
         <v>1.26</v>
       </c>
-      <c r="AW300" t="n">
+      <c r="AW302" t="n">
         <v>2.49</v>
       </c>
-      <c r="AX300" t="n">
+      <c r="AX302" t="n">
         <v>1.11</v>
       </c>
-      <c r="AY300" t="n">
+      <c r="AY302" t="n">
         <v>13</v>
       </c>
-      <c r="AZ300" t="n">
+      <c r="AZ302" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="BA300" t="n">
+      <c r="BA302" t="n">
         <v>1.33</v>
       </c>
-      <c r="BB300" t="n">
+      <c r="BB302" t="n">
         <v>1.6</v>
       </c>
-      <c r="BC300" t="n">
+      <c r="BC302" t="n">
         <v>2.38</v>
       </c>
-      <c r="BD300" t="n">
+      <c r="BD302" t="n">
         <v>2.6</v>
       </c>
-      <c r="BE300" t="n">
+      <c r="BE302" t="n">
         <v>3.3</v>
       </c>
-      <c r="BF300" t="n">
+      <c r="BF302" t="n">
         <v>8</v>
       </c>
-      <c r="BG300" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH300" t="n">
+      <c r="BG302" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH302" t="n">
         <v>16</v>
       </c>
-      <c r="BI300" t="n">
+      <c r="BI302" t="n">
         <v>4</v>
       </c>
-      <c r="BJ300" t="n">
+      <c r="BJ302" t="n">
         <v>24</v>
       </c>
-      <c r="BK300" t="n">
+      <c r="BK302" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>3239423</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>44926.16666666666</v>
+      </c>
+      <c r="F303" t="n">
+        <v>34</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Guangzhou Evergrande</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>1</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q303" t="n">
+        <v>3</v>
+      </c>
+      <c r="R303" t="n">
+        <v>8</v>
+      </c>
+      <c r="S303" t="n">
+        <v>11</v>
+      </c>
+      <c r="T303" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U303" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V303" t="n">
+        <v>5</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X303" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK303" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>3239426</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>44926.16666666666</v>
+      </c>
+      <c r="F304" t="n">
+        <v>34</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Guangzhou R&amp;F</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Shijiazhuang Ever Bright</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>4</v>
+      </c>
+      <c r="K304" t="n">
+        <v>4</v>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="n">
+        <v>4</v>
+      </c>
+      <c r="N304" t="n">
+        <v>5</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>['14', '30', '40', '43']</t>
+        </is>
+      </c>
+      <c r="Q304" t="n">
+        <v>2</v>
+      </c>
+      <c r="R304" t="n">
+        <v>4</v>
+      </c>
+      <c r="S304" t="n">
+        <v>6</v>
+      </c>
+      <c r="T304" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U304" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V304" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X304" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD304" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE304" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF304" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG304" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ304" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK304" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>3239427</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>44926.16666666666</v>
+      </c>
+      <c r="F305" t="n">
+        <v>34</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Hangzhou</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Wuhan Zall</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>4</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>4</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>7</v>
+      </c>
+      <c r="R305" t="n">
+        <v>1</v>
+      </c>
+      <c r="S305" t="n">
+        <v>8</v>
+      </c>
+      <c r="T305" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U305" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V305" t="n">
+        <v>21</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X305" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>68</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>30</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3239428</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>44926.16666666666</v>
+      </c>
+      <c r="F306" t="n">
+        <v>34</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Shanghai SIPG</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>4</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>4</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>5</v>
+      </c>
+      <c r="R306" t="n">
+        <v>1</v>
+      </c>
+      <c r="S306" t="n">
+        <v>6</v>
+      </c>
+      <c r="T306" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U306" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V306" t="n">
+        <v>15</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X306" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>3239424</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>China Chinese Super League</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>44926.16666666666</v>
+      </c>
+      <c r="F307" t="n">
+        <v>34</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Chengdu Better City FC</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Dalian Yifang</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>1</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="n">
+        <v>3</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>3</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>['21', '59', '86']</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>7</v>
+      </c>
+      <c r="R307" t="n">
+        <v>4</v>
+      </c>
+      <c r="S307" t="n">
+        <v>11</v>
+      </c>
+      <c r="T307" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U307" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V307" t="n">
+        <v>10</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X307" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
@@ -61050,7 +61050,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>3239425</v>
+        <v>3239429</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -61063,19 +61063,19 @@
         </is>
       </c>
       <c r="E299" s="2" t="n">
-        <v>44925.08333333334</v>
+        <v>44925.16666666666</v>
       </c>
       <c r="F299" t="n">
         <v>34</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Shandong Luneng</t>
+          <t>Hebei CFFC</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Henan Jianye</t>
         </is>
       </c>
       <c r="I299" t="n">
@@ -61088,32 +61088,32 @@
         <v>0</v>
       </c>
       <c r="L299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M299" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N299" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['51', '62', '67', '81']</t>
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R299" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S299" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T299" t="n">
         <v>0</v>
@@ -61143,13 +61143,13 @@
         <v>0</v>
       </c>
       <c r="AC299" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD299" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AE299" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF299" t="n">
         <v>0</v>
@@ -61164,10 +61164,10 @@
         <v>0</v>
       </c>
       <c r="AJ299" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AK299" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AL299" t="n">
         <v>0</v>
@@ -61185,25 +61185,25 @@
         <v>0</v>
       </c>
       <c r="AQ299" t="n">
-        <v>2.69</v>
+        <v>0.38</v>
       </c>
       <c r="AR299" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AS299" t="n">
-        <v>2.71</v>
+        <v>0.35</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="AU299" t="n">
-        <v>2.04</v>
+        <v>0.72</v>
       </c>
       <c r="AV299" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AW299" t="n">
-        <v>3.74</v>
+        <v>2.25</v>
       </c>
       <c r="AX299" t="n">
         <v>0</v>
@@ -61230,22 +61230,22 @@
         <v>0</v>
       </c>
       <c r="BF299" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG299" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BH299" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI299" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ299" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BK299" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300">
@@ -61253,7 +61253,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>3239431</v>
+        <v>3239430</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -61266,19 +61266,19 @@
         </is>
       </c>
       <c r="E300" s="2" t="n">
-        <v>44925.08333333334</v>
+        <v>44925.16666666666</v>
       </c>
       <c r="F300" t="n">
         <v>34</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Tianjin Teda</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I300" t="n">
@@ -61291,17 +61291,17 @@
         <v>0</v>
       </c>
       <c r="L300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M300" t="n">
         <v>0</v>
       </c>
       <c r="N300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1']</t>
+          <t>['-1', '-1']</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
@@ -61310,145 +61310,145 @@
         </is>
       </c>
       <c r="Q300" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R300" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S300" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T300" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U300" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="V300" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W300" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X300" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="Y300" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z300" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AA300" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB300" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC300" t="n">
-        <v>2.01</v>
+        <v>1.07</v>
       </c>
       <c r="AD300" t="n">
-        <v>3.84</v>
+        <v>10</v>
       </c>
       <c r="AE300" t="n">
-        <v>3.03</v>
+        <v>26</v>
       </c>
       <c r="AF300" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG300" t="n">
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="AH300" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AI300" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AJ300" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AK300" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AL300" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AM300" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AN300" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AO300" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AP300" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ300" t="n">
-        <v>2.13</v>
+        <v>1.56</v>
       </c>
       <c r="AR300" t="n">
-        <v>1.5</v>
+        <v>0.88</v>
       </c>
       <c r="AS300" t="n">
-        <v>2.18</v>
+        <v>1.65</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.41</v>
+        <v>0.82</v>
       </c>
       <c r="AU300" t="n">
-        <v>2.25</v>
+        <v>1.23</v>
       </c>
       <c r="AV300" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AW300" t="n">
-        <v>3.66</v>
+        <v>2.49</v>
       </c>
       <c r="AX300" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AY300" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AZ300" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BA300" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BB300" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BC300" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BD300" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BE300" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BF300" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG300" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH300" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BI300" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ300" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="BK300" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301">
@@ -61456,7 +61456,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>3239429</v>
+        <v>3239425</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -61469,19 +61469,19 @@
         </is>
       </c>
       <c r="E301" s="2" t="n">
-        <v>44925.16666666666</v>
+        <v>44926.16666666666</v>
       </c>
       <c r="F301" t="n">
         <v>34</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Hebei CFFC</t>
+          <t>Shandong Luneng</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Henan Jianye</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="I301" t="n">
@@ -61494,32 +61494,32 @@
         <v>0</v>
       </c>
       <c r="L301" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M301" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N301" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
+          <t>['-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>['51', '62', '67', '81']</t>
-        </is>
-      </c>
       <c r="Q301" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="R301" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="S301" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="T301" t="n">
         <v>0</v>
@@ -61549,13 +61549,13 @@
         <v>0</v>
       </c>
       <c r="AC301" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AD301" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="AE301" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF301" t="n">
         <v>0</v>
@@ -61570,10 +61570,10 @@
         <v>0</v>
       </c>
       <c r="AJ301" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AK301" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AL301" t="n">
         <v>0</v>
@@ -61591,25 +61591,25 @@
         <v>0</v>
       </c>
       <c r="AQ301" t="n">
-        <v>0.38</v>
+        <v>2.69</v>
       </c>
       <c r="AR301" t="n">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AS301" t="n">
-        <v>0.35</v>
+        <v>2.71</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="AU301" t="n">
-        <v>0.72</v>
+        <v>2.04</v>
       </c>
       <c r="AV301" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="AW301" t="n">
-        <v>2.25</v>
+        <v>3.74</v>
       </c>
       <c r="AX301" t="n">
         <v>0</v>
@@ -61636,22 +61636,22 @@
         <v>0</v>
       </c>
       <c r="BF301" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BG301" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BH301" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BI301" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BJ301" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BK301" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302">
@@ -61659,7 +61659,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>3239430</v>
+        <v>3239426</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -61672,189 +61672,189 @@
         </is>
       </c>
       <c r="E302" s="2" t="n">
-        <v>44925.16666666666</v>
+        <v>44926.16666666666</v>
       </c>
       <c r="F302" t="n">
         <v>34</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Guangzhou R&amp;F</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Shijiazhuang Ever Bright</t>
         </is>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
       <c r="J302" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K302" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M302" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N302" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>['-1', '-1']</t>
+          <t>['74']</t>
         </is>
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14', '30', '40', '43']</t>
         </is>
       </c>
       <c r="Q302" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R302" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S302" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T302" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V302" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W302" t="n">
         <v>1.33</v>
       </c>
-      <c r="U302" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V302" t="n">
-        <v>15</v>
-      </c>
-      <c r="W302" t="n">
-        <v>1.15</v>
-      </c>
       <c r="X302" t="n">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Y302" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z302" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AA302" t="n">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB302" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AC302" t="n">
-        <v>1.07</v>
+        <v>2.25</v>
       </c>
       <c r="AD302" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="AE302" t="n">
-        <v>26</v>
+        <v>2.9</v>
       </c>
       <c r="AF302" t="n">
         <v>1.01</v>
       </c>
       <c r="AG302" t="n">
-        <v>49.5</v>
+        <v>11</v>
       </c>
       <c r="AH302" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="AI302" t="n">
-        <v>9.6</v>
+        <v>4.3</v>
       </c>
       <c r="AJ302" t="n">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="AK302" t="n">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="AL302" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ302" t="n">
         <v>2.3</v>
       </c>
-      <c r="AM302" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AN302" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AO302" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AP302" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ302" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AR302" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AS302" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AT302" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AU302" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AV302" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AW302" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AX302" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AY302" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ302" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="BA302" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="BB302" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="BC302" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="BD302" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="BE302" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="BF302" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG302" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH302" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI302" t="n">
         <v>16</v>
       </c>
-      <c r="BI302" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ302" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="BK302" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="303">
@@ -61862,7 +61862,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>3239423</v>
+        <v>3239427</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -61882,12 +61882,12 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Hangzhou</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Guangzhou Evergrande</t>
+          <t>Wuhan Zall</t>
         </is>
       </c>
       <c r="I303" t="n">
@@ -61900,17 +61900,17 @@
         <v>0</v>
       </c>
       <c r="L303" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M303" t="n">
         <v>0</v>
       </c>
       <c r="N303" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>['-1', '-1', '-1', '-1']</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
@@ -61919,145 +61919,145 @@
         </is>
       </c>
       <c r="Q303" t="n">
+        <v>7</v>
+      </c>
+      <c r="R303" t="n">
+        <v>1</v>
+      </c>
+      <c r="S303" t="n">
+        <v>8</v>
+      </c>
+      <c r="T303" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U303" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="V303" t="n">
+        <v>21</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X303" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA303" t="n">
         <v>3</v>
       </c>
-      <c r="R303" t="n">
+      <c r="AB303" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>68</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>30</v>
+      </c>
+      <c r="BK303" t="n">
         <v>8</v>
-      </c>
-      <c r="S303" t="n">
-        <v>11</v>
-      </c>
-      <c r="T303" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U303" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V303" t="n">
-        <v>5</v>
-      </c>
-      <c r="W303" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X303" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y303" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z303" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA303" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB303" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AC303" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD303" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AE303" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF303" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG303" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH303" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI303" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AJ303" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AK303" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AL303" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM303" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN303" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AO303" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP303" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AQ303" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AR303" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AS303" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AT303" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AU303" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AV303" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AW303" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AX303" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AY303" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AZ303" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BA303" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BB303" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BC303" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="BD303" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="BE303" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF303" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG303" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH303" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI303" t="n">
-        <v>13</v>
-      </c>
-      <c r="BJ303" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK303" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="304">
@@ -62065,7 +62065,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>3239426</v>
+        <v>3239428</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -62085,182 +62085,182 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Guangzhou R&amp;F</t>
+          <t>Shanghai SIPG</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Shijiazhuang Ever Bright</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
       <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
         <v>4</v>
       </c>
-      <c r="K304" t="n">
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
         <v>4</v>
       </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="n">
-        <v>4</v>
-      </c>
-      <c r="N304" t="n">
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>['-1', '-1', '-1', '-1']</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q304" t="n">
         <v>5</v>
       </c>
-      <c r="O304" t="inlineStr">
-        <is>
-          <t>['74']</t>
-        </is>
-      </c>
-      <c r="P304" t="inlineStr">
-        <is>
-          <t>['14', '30', '40', '43']</t>
-        </is>
-      </c>
-      <c r="Q304" t="n">
-        <v>2</v>
-      </c>
       <c r="R304" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S304" t="n">
         <v>6</v>
       </c>
       <c r="T304" t="n">
-        <v>2.88</v>
+        <v>1.44</v>
       </c>
       <c r="U304" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="V304" t="n">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="W304" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="X304" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Y304" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z304" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AA304" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AB304" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AC304" t="n">
-        <v>2.25</v>
+        <v>1.1</v>
       </c>
       <c r="AD304" t="n">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="AE304" t="n">
-        <v>2.9</v>
+        <v>23</v>
       </c>
       <c r="AF304" t="n">
         <v>1.01</v>
       </c>
       <c r="AG304" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AH304" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AI304" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="AJ304" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AK304" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="AL304" t="n">
-        <v>1.62</v>
+        <v>2.63</v>
       </c>
       <c r="AM304" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="AN304" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="AO304" t="n">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="AP304" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="AQ304" t="n">
-        <v>0.6899999999999999</v>
+        <v>2</v>
       </c>
       <c r="AR304" t="n">
         <v>1.5</v>
       </c>
       <c r="AS304" t="n">
-        <v>0.65</v>
+        <v>2.06</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="AU304" t="n">
-        <v>1.15</v>
+        <v>1.52</v>
       </c>
       <c r="AV304" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AW304" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD304" t="n">
         <v>2.4</v>
       </c>
-      <c r="AX304" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AY304" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AZ304" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BA304" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="BB304" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BC304" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BD304" t="n">
-        <v>3.5</v>
-      </c>
       <c r="BE304" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="BF304" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BG304" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BH304" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BI304" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="BJ304" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BK304" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305">
@@ -62268,7 +62268,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>3239427</v>
+        <v>3239423</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -62288,12 +62288,12 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Wuhan Zall</t>
+          <t>Guangzhou Evergrande</t>
         </is>
       </c>
       <c r="I305" t="n">
@@ -62306,164 +62306,164 @@
         <v>0</v>
       </c>
       <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>1</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>3</v>
+      </c>
+      <c r="R305" t="n">
+        <v>8</v>
+      </c>
+      <c r="S305" t="n">
+        <v>11</v>
+      </c>
+      <c r="T305" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V305" t="n">
+        <v>5</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X305" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE305" t="n">
         <v>4</v>
       </c>
-      <c r="M305" t="n">
-        <v>0</v>
-      </c>
-      <c r="N305" t="n">
-        <v>4</v>
-      </c>
-      <c r="O305" t="inlineStr">
-        <is>
-          <t>['-1', '-1', '-1', '-1']</t>
-        </is>
-      </c>
-      <c r="P305" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q305" t="n">
+      <c r="BF305" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ305" t="n">
         <v>7</v>
       </c>
-      <c r="R305" t="n">
-        <v>1</v>
-      </c>
-      <c r="S305" t="n">
-        <v>8</v>
-      </c>
-      <c r="T305" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U305" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="V305" t="n">
-        <v>21</v>
-      </c>
-      <c r="W305" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X305" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y305" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z305" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA305" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB305" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AC305" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD305" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE305" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF305" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG305" t="n">
-        <v>68</v>
-      </c>
-      <c r="AH305" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AI305" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ305" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AK305" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AL305" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AM305" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN305" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AO305" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AP305" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ305" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AR305" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS305" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AT305" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU305" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AV305" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AW305" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AX305" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AY305" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AZ305" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BA305" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BB305" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="BC305" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BD305" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BE305" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="BF305" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG305" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH305" t="n">
-        <v>20</v>
-      </c>
-      <c r="BI305" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ305" t="n">
-        <v>30</v>
-      </c>
       <c r="BK305" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306">
@@ -62471,7 +62471,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>3239428</v>
+        <v>3239424</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -62491,65 +62491,65 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Shanghai SIPG</t>
+          <t>Chengdu Better City FC</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Dalian Yifang</t>
         </is>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="n">
         <v>0</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L306" t="n">
+        <v>3</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>3</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>['21', '59', '86']</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>7</v>
+      </c>
+      <c r="R306" t="n">
         <v>4</v>
       </c>
-      <c r="M306" t="n">
-        <v>0</v>
-      </c>
-      <c r="N306" t="n">
-        <v>4</v>
-      </c>
-      <c r="O306" t="inlineStr">
-        <is>
-          <t>['-1', '-1', '-1', '-1']</t>
-        </is>
-      </c>
-      <c r="P306" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q306" t="n">
-        <v>5</v>
-      </c>
-      <c r="R306" t="n">
-        <v>1</v>
-      </c>
       <c r="S306" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T306" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="U306" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="V306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W306" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X306" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Y306" t="n">
         <v>2.1</v>
@@ -62564,25 +62564,25 @@
         <v>1.18</v>
       </c>
       <c r="AC306" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD306" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE306" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AF306" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AG306" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH306" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AI306" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="AJ306" t="n">
         <v>1.44</v>
@@ -62591,82 +62591,82 @@
         <v>2.7</v>
       </c>
       <c r="AL306" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="AM306" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="AN306" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AO306" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AP306" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="AQ306" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR306" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AS306" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AU306" t="n">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="AV306" t="n">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AW306" t="n">
-        <v>2.85</v>
+        <v>3.41</v>
       </c>
       <c r="AX306" t="n">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="AY306" t="n">
-        <v>13</v>
+        <v>9.1</v>
       </c>
       <c r="AZ306" t="n">
-        <v>8.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="BA306" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="BB306" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="BC306" t="n">
-        <v>1.87</v>
+        <v>2.2</v>
       </c>
       <c r="BD306" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="BE306" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="BF306" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BG306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH306" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BI306" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ306" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BK306" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -62674,7 +62674,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>3239424</v>
+        <v>3239431</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -62694,22 +62694,22 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Chengdu Better City FC</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Dalian Yifang</t>
+          <t>Tianjin Teda</t>
         </is>
       </c>
       <c r="I307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" t="n">
         <v>0</v>
       </c>
       <c r="K307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>3</v>
@@ -62722,7 +62722,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>['21', '59', '86']</t>
+          <t>['-1', '-1', '-1']</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
@@ -62731,145 +62731,145 @@
         </is>
       </c>
       <c r="Q307" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="R307" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="S307" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="T307" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="U307" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="V307" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W307" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="X307" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="Y307" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="Z307" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AA307" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AB307" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AC307" t="n">
-        <v>1.2</v>
+        <v>2.01</v>
       </c>
       <c r="AD307" t="n">
-        <v>7</v>
+        <v>3.84</v>
       </c>
       <c r="AE307" t="n">
-        <v>13</v>
+        <v>3.03</v>
       </c>
       <c r="AF307" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AG307" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH307" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AI307" t="n">
-        <v>5.75</v>
+        <v>0</v>
       </c>
       <c r="AJ307" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AK307" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AL307" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AM307" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AN307" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AO307" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AP307" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AQ307" t="n">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="AR307" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AS307" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AU307" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="AV307" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="AW307" t="n">
-        <v>3.41</v>
+        <v>3.66</v>
       </c>
       <c r="AX307" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AY307" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="AZ307" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="BA307" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="BB307" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="BC307" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="BD307" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="BE307" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BF307" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BG307" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BH307" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BI307" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BJ307" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="BK307" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/China Chinese Super League_2022.xlsx
@@ -61282,13 +61282,13 @@
         </is>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="n">
         <v>0</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L300" t="n">
         <v>2</v>
@@ -61301,7 +61301,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>['-1', '-1']</t>
+          <t>['9', '72']</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
@@ -62094,13 +62094,13 @@
         </is>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J304" t="n">
         <v>0</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L304" t="n">
         <v>4</v>
@@ -62113,7 +62113,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>['-1', '-1', '-1', '-1']</t>
+          <t>['3', '28', '43', '4501']</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
